--- a/assets/img/CV_for_Dev_Bui_Gia_Hung_(en).xlsx
+++ b/assets/img/CV_for_Dev_Bui_Gia_Hung_(en).xlsx
@@ -149,10 +149,10 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>～</t>
   </si>
   <si>
-    <t>～</t>
+    <t>Y</t>
   </si>
   <si>
     <t>【Overview】</t>
@@ -1369,7 +1369,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1551,162 +1551,168 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1820,9 +1826,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2208,7 +2211,7 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
-      <c r="AH1" s="118"/>
+      <c r="AH1" s="120"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
@@ -2290,13 +2293,13 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="119"/>
-      <c r="AK2" s="119"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="119"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="121"/>
+      <c r="AM2" s="121"/>
+      <c r="AN2" s="121"/>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
@@ -2331,12 +2334,12 @@
       <c r="BU2" s="4"/>
       <c r="BV2" s="81"/>
       <c r="BW2" s="81"/>
-      <c r="BX2" s="119"/>
-      <c r="BY2" s="119"/>
-      <c r="BZ2" s="119"/>
-      <c r="CA2" s="119"/>
-      <c r="CB2" s="119"/>
-      <c r="CC2" s="119"/>
+      <c r="BX2" s="121"/>
+      <c r="BY2" s="121"/>
+      <c r="BZ2" s="121"/>
+      <c r="CA2" s="121"/>
+      <c r="CB2" s="121"/>
+      <c r="CC2" s="121"/>
     </row>
     <row r="3" ht="11.25" customHeight="1" spans="1:81">
       <c r="A3" s="3"/>
@@ -2372,13 +2375,13 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AH3" s="118"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="121"/>
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="121"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
@@ -2413,12 +2416,12 @@
       <c r="BU3" s="4"/>
       <c r="BV3" s="81"/>
       <c r="BW3" s="81"/>
-      <c r="BX3" s="119"/>
-      <c r="BY3" s="119"/>
-      <c r="BZ3" s="119"/>
-      <c r="CA3" s="119"/>
-      <c r="CB3" s="119"/>
-      <c r="CC3" s="119"/>
+      <c r="BX3" s="121"/>
+      <c r="BY3" s="121"/>
+      <c r="BZ3" s="121"/>
+      <c r="CA3" s="121"/>
+      <c r="CB3" s="121"/>
+      <c r="CC3" s="121"/>
     </row>
     <row r="4" ht="11.25" customHeight="1" spans="1:81">
       <c r="A4" s="3"/>
@@ -2454,13 +2457,13 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="121"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
@@ -2495,12 +2498,12 @@
       <c r="BU4" s="4"/>
       <c r="BV4" s="81"/>
       <c r="BW4" s="81"/>
-      <c r="BX4" s="119"/>
-      <c r="BY4" s="119"/>
-      <c r="BZ4" s="119"/>
-      <c r="CA4" s="119"/>
-      <c r="CB4" s="119"/>
-      <c r="CC4" s="119"/>
+      <c r="BX4" s="121"/>
+      <c r="BY4" s="121"/>
+      <c r="BZ4" s="121"/>
+      <c r="CA4" s="121"/>
+      <c r="CB4" s="121"/>
+      <c r="CC4" s="121"/>
     </row>
     <row r="5" ht="11.25" customHeight="1" spans="1:81">
       <c r="A5" s="3"/>
@@ -2536,13 +2539,13 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="121"/>
+      <c r="AM5" s="121"/>
+      <c r="AN5" s="121"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
@@ -2577,12 +2580,12 @@
       <c r="BU5" s="4"/>
       <c r="BV5" s="81"/>
       <c r="BW5" s="81"/>
-      <c r="BX5" s="119"/>
-      <c r="BY5" s="119"/>
-      <c r="BZ5" s="119"/>
-      <c r="CA5" s="119"/>
-      <c r="CB5" s="119"/>
-      <c r="CC5" s="119"/>
+      <c r="BX5" s="121"/>
+      <c r="BY5" s="121"/>
+      <c r="BZ5" s="121"/>
+      <c r="CA5" s="121"/>
+      <c r="CB5" s="121"/>
+      <c r="CC5" s="121"/>
     </row>
     <row r="6" ht="11.25" customHeight="1" spans="1:81">
       <c r="A6" s="5"/>
@@ -2704,13 +2707,13 @@
       <c r="AG7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AH7" s="96">
+      <c r="AH7" s="97">
         <v>3</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AJ7" s="96">
+      <c r="AJ7" s="97">
         <v>3</v>
       </c>
       <c r="AK7" s="5"/>
@@ -2719,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="AN7" s="6"/>
-      <c r="AP7" s="137"/>
+      <c r="AP7" s="139"/>
       <c r="AR7" s="6"/>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
@@ -2733,7 +2736,7 @@
       <c r="BF7" s="6"/>
       <c r="BG7" s="6"/>
       <c r="BH7" s="6"/>
-      <c r="BI7" s="137"/>
+      <c r="BI7" s="139"/>
       <c r="BP7" s="6"/>
       <c r="BQ7" s="6"/>
       <c r="BR7" s="6"/>
@@ -2741,9 +2744,9 @@
       <c r="BT7" s="6"/>
       <c r="BU7" s="6"/>
       <c r="BV7" s="5"/>
-      <c r="BW7" s="96"/>
+      <c r="BW7" s="97"/>
       <c r="BX7" s="5"/>
-      <c r="BY7" s="96"/>
+      <c r="BY7" s="97"/>
       <c r="BZ7" s="5"/>
       <c r="CA7" s="6"/>
       <c r="CB7" s="6"/>
@@ -2791,15 +2794,15 @@
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="28"/>
-      <c r="AH8" s="120"/>
-      <c r="AI8" s="120"/>
-      <c r="AJ8" s="120"/>
-      <c r="AK8" s="120"/>
-      <c r="AL8" s="120"/>
-      <c r="AM8" s="120"/>
-      <c r="AN8" s="121"/>
-      <c r="AQ8" s="137"/>
-      <c r="AR8" s="137"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="123"/>
+      <c r="AQ8" s="139"/>
+      <c r="AR8" s="139"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
@@ -2853,13 +2856,13 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="92" t="s">
+      <c r="R9" s="92"/>
+      <c r="S9" s="93" t="s">
         <v>8</v>
       </c>
       <c r="T9" s="5"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
@@ -2867,7 +2870,7 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="110"/>
+      <c r="AD9" s="111"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="24"/>
@@ -2877,13 +2880,13 @@
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
-      <c r="AN9" s="122"/>
+      <c r="AN9" s="124"/>
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
-      <c r="AS9" s="138"/>
-      <c r="AT9" s="138"/>
-      <c r="AU9" s="138"/>
+      <c r="AS9" s="140"/>
+      <c r="AT9" s="140"/>
+      <c r="AU9" s="140"/>
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
       <c r="AZ9" s="6"/>
@@ -2893,7 +2896,7 @@
       <c r="BD9" s="6"/>
       <c r="BE9" s="6"/>
       <c r="BF9" s="6"/>
-      <c r="BG9" s="138"/>
+      <c r="BG9" s="140"/>
       <c r="BH9" s="6"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
@@ -2932,43 +2935,43 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="92"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="93"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="93"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="96">
+      <c r="W10" s="97">
         <v>1990</v>
       </c>
-      <c r="X10" s="96"/>
+      <c r="X10" s="97"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="96">
+      <c r="Z10" s="97">
         <v>11</v>
       </c>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="96">
+      <c r="AB10" s="97">
         <v>11</v>
       </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="24"/>
-      <c r="AE10" s="111">
+      <c r="AE10" s="112">
         <v>35</v>
       </c>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="123"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="125"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
-      <c r="AN10" s="122"/>
+      <c r="AN10" s="124"/>
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
       <c r="AR10" s="6"/>
-      <c r="AS10" s="138"/>
-      <c r="AT10" s="138"/>
-      <c r="AU10" s="138"/>
+      <c r="AS10" s="140"/>
+      <c r="AT10" s="140"/>
+      <c r="AU10" s="140"/>
       <c r="AV10" s="6"/>
       <c r="AW10" s="6"/>
       <c r="AZ10" s="6"/>
@@ -2978,7 +2981,7 @@
       <c r="BD10" s="6"/>
       <c r="BE10" s="6"/>
       <c r="BF10" s="6"/>
-      <c r="BG10" s="138"/>
+      <c r="BG10" s="140"/>
       <c r="BH10" s="6"/>
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
@@ -2986,9 +2989,9 @@
       <c r="BL10" s="6"/>
       <c r="BM10" s="6"/>
       <c r="BN10" s="5"/>
-      <c r="BO10" s="96"/>
+      <c r="BO10" s="97"/>
       <c r="BP10" s="5"/>
-      <c r="BQ10" s="96"/>
+      <c r="BQ10" s="97"/>
       <c r="BR10" s="5"/>
       <c r="BT10" s="6"/>
       <c r="BU10" s="6"/>
@@ -3017,10 +3020,10 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="100"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="101"/>
       <c r="V11" s="35"/>
       <c r="W11" s="19"/>
       <c r="X11" s="19"/>
@@ -3039,13 +3042,13 @@
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
-      <c r="AN11" s="122"/>
+      <c r="AN11" s="124"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="6"/>
-      <c r="AS11" s="138"/>
-      <c r="AT11" s="138"/>
-      <c r="AU11" s="138"/>
+      <c r="AS11" s="140"/>
+      <c r="AT11" s="140"/>
+      <c r="AU11" s="140"/>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -3055,7 +3058,7 @@
       <c r="BD11" s="6"/>
       <c r="BE11" s="6"/>
       <c r="BF11" s="6"/>
-      <c r="BG11" s="138"/>
+      <c r="BG11" s="140"/>
       <c r="BH11" s="6"/>
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
@@ -3113,7 +3116,7 @@
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
       <c r="AF12" s="23"/>
-      <c r="AG12" s="124"/>
+      <c r="AG12" s="126"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6" t="s">
@@ -3122,13 +3125,13 @@
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
-      <c r="AN12" s="122"/>
-      <c r="AP12" s="137"/>
+      <c r="AN12" s="124"/>
+      <c r="AP12" s="139"/>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="5"/>
-      <c r="AT12" s="139"/>
-      <c r="AU12" s="139"/>
+      <c r="AT12" s="141"/>
+      <c r="AU12" s="141"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
       <c r="AZ12" s="6"/>
@@ -3192,14 +3195,14 @@
       <c r="AD13" s="23"/>
       <c r="AE13" s="23"/>
       <c r="AF13" s="23"/>
-      <c r="AG13" s="124"/>
+      <c r="AG13" s="126"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
-      <c r="AN13" s="122"/>
+      <c r="AN13" s="124"/>
       <c r="AV13" s="6"/>
       <c r="AW13" s="6"/>
       <c r="AZ13" s="6"/>
@@ -3261,14 +3264,14 @@
       <c r="AD14" s="23"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="23"/>
-      <c r="AG14" s="124"/>
+      <c r="AG14" s="126"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
-      <c r="AN14" s="122"/>
+      <c r="AN14" s="124"/>
       <c r="AV14" s="6"/>
       <c r="AW14" s="6"/>
       <c r="AZ14" s="6"/>
@@ -3282,11 +3285,11 @@
       <c r="BI14" s="6"/>
       <c r="BJ14" s="6"/>
       <c r="BL14" s="6"/>
-      <c r="BN14" s="145"/>
-      <c r="BO14" s="145"/>
-      <c r="BP14" s="145"/>
-      <c r="BQ14" s="145"/>
-      <c r="BR14" s="145"/>
+      <c r="BN14" s="147"/>
+      <c r="BO14" s="147"/>
+      <c r="BP14" s="147"/>
+      <c r="BQ14" s="147"/>
+      <c r="BR14" s="147"/>
       <c r="BT14" s="6"/>
       <c r="BU14" s="6"/>
       <c r="BV14" s="6"/>
@@ -3329,14 +3332,14 @@
       <c r="AD15" s="23"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="23"/>
-      <c r="AG15" s="124"/>
+      <c r="AG15" s="126"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
-      <c r="AN15" s="122"/>
+      <c r="AN15" s="124"/>
       <c r="AZ15" s="6"/>
       <c r="BA15" s="6"/>
       <c r="BB15" s="6"/>
@@ -3344,11 +3347,11 @@
       <c r="BD15" s="6"/>
       <c r="BE15" s="6"/>
       <c r="BF15" s="6"/>
-      <c r="BN15" s="145"/>
-      <c r="BO15" s="145"/>
-      <c r="BP15" s="145"/>
-      <c r="BQ15" s="145"/>
-      <c r="BR15" s="145"/>
+      <c r="BN15" s="147"/>
+      <c r="BO15" s="147"/>
+      <c r="BP15" s="147"/>
+      <c r="BQ15" s="147"/>
+      <c r="BR15" s="147"/>
       <c r="BT15" s="6"/>
       <c r="BU15" s="6"/>
       <c r="BV15" s="6"/>
@@ -3381,33 +3384,33 @@
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
-      <c r="S16" s="101"/>
+      <c r="S16" s="102"/>
       <c r="T16" s="82" t="s">
         <v>14</v>
       </c>
       <c r="U16" s="82"/>
       <c r="V16" s="82"/>
-      <c r="W16" s="102" t="s">
+      <c r="W16" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="125"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="127"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
       <c r="AM16" s="6"/>
-      <c r="AN16" s="126"/>
-      <c r="AP16" s="137"/>
+      <c r="AN16" s="128"/>
+      <c r="AP16" s="139"/>
       <c r="AQ16" s="6"/>
       <c r="AR16" s="6"/>
       <c r="AS16" s="5"/>
@@ -3429,15 +3432,15 @@
       <c r="BK16" s="6"/>
       <c r="BL16" s="6"/>
       <c r="BM16" s="6"/>
-      <c r="BN16" s="140"/>
-      <c r="BO16" s="140"/>
-      <c r="BP16" s="140"/>
-      <c r="BQ16" s="140"/>
-      <c r="BR16" s="140"/>
-      <c r="BS16" s="140"/>
+      <c r="BN16" s="142"/>
+      <c r="BO16" s="142"/>
+      <c r="BP16" s="142"/>
+      <c r="BQ16" s="142"/>
+      <c r="BR16" s="142"/>
+      <c r="BS16" s="142"/>
       <c r="BT16" s="6"/>
-      <c r="BU16" s="140"/>
-      <c r="BV16" s="140"/>
+      <c r="BU16" s="142"/>
+      <c r="BV16" s="142"/>
       <c r="BW16" s="6"/>
       <c r="BX16" s="6"/>
       <c r="BY16" s="6"/>
@@ -3483,7 +3486,7 @@
       </c>
       <c r="U17" s="11"/>
       <c r="V17" s="27"/>
-      <c r="W17" s="104"/>
+      <c r="W17" s="105"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="11" t="s">
         <v>1</v>
@@ -3498,19 +3501,19 @@
       <c r="AG17" s="82"/>
       <c r="AH17" s="82"/>
       <c r="AI17" s="82"/>
-      <c r="AJ17" s="127"/>
-      <c r="AK17" s="127"/>
-      <c r="AL17" s="127"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="129"/>
+      <c r="AJ17" s="129"/>
+      <c r="AK17" s="129"/>
+      <c r="AL17" s="129"/>
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="131"/>
       <c r="AP17" s="6"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="6"/>
-      <c r="AV17" s="140"/>
-      <c r="AW17" s="140"/>
+      <c r="AV17" s="142"/>
+      <c r="AW17" s="142"/>
       <c r="AZ17" s="6"/>
       <c r="BA17" s="6"/>
       <c r="BB17" s="6"/>
@@ -3518,16 +3521,16 @@
       <c r="BD17" s="6"/>
       <c r="BE17" s="6"/>
       <c r="BF17" s="6"/>
-      <c r="BG17" s="140"/>
-      <c r="BH17" s="140"/>
+      <c r="BG17" s="142"/>
+      <c r="BH17" s="142"/>
       <c r="BI17" s="6"/>
       <c r="BJ17" s="6"/>
       <c r="BK17" s="6"/>
-      <c r="BL17" s="140"/>
+      <c r="BL17" s="142"/>
       <c r="BM17" s="6"/>
       <c r="BN17" s="6"/>
       <c r="BO17" s="6"/>
-      <c r="BP17" s="138"/>
+      <c r="BP17" s="140"/>
       <c r="BQ17" s="6"/>
       <c r="BR17" s="6"/>
       <c r="BS17" s="6"/>
@@ -3537,7 +3540,7 @@
       <c r="BW17" s="6"/>
       <c r="BX17" s="6"/>
       <c r="BY17" s="6"/>
-      <c r="BZ17" s="138"/>
+      <c r="BZ17" s="140"/>
       <c r="CA17" s="6"/>
       <c r="CB17" s="5"/>
       <c r="CC17" s="5"/>
@@ -3615,7 +3618,7 @@
       <c r="BM18" s="6"/>
       <c r="BN18" s="6"/>
       <c r="BO18" s="6"/>
-      <c r="BP18" s="138"/>
+      <c r="BP18" s="140"/>
       <c r="BQ18" s="6"/>
       <c r="BR18" s="6"/>
       <c r="BS18" s="6"/>
@@ -3660,7 +3663,7 @@
       <c r="O19" s="40"/>
       <c r="P19" s="84"/>
       <c r="Q19" s="42"/>
-      <c r="R19" s="105" t="s">
+      <c r="R19" s="106" t="s">
         <v>24</v>
       </c>
       <c r="S19" s="84"/>
@@ -3684,7 +3687,7 @@
       <c r="AK19" s="84"/>
       <c r="AL19" s="84"/>
       <c r="AM19" s="84"/>
-      <c r="AN19" s="130"/>
+      <c r="AN19" s="132"/>
       <c r="AZ19" s="6"/>
       <c r="BA19" s="6"/>
       <c r="BB19" s="6"/>
@@ -3727,7 +3730,7 @@
       <c r="O20" s="40"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="42"/>
-      <c r="R20" s="105"/>
+      <c r="R20" s="106"/>
       <c r="S20" s="84"/>
       <c r="T20" s="84"/>
       <c r="U20" s="84"/>
@@ -3749,7 +3752,7 @@
       <c r="AK20" s="84"/>
       <c r="AL20" s="84"/>
       <c r="AM20" s="84"/>
-      <c r="AN20" s="131"/>
+      <c r="AN20" s="133"/>
       <c r="AZ20" s="6"/>
       <c r="BA20" s="6"/>
       <c r="BB20" s="6"/>
@@ -3807,7 +3810,7 @@
       <c r="AK21" s="44"/>
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
-      <c r="AN21" s="132"/>
+      <c r="AN21" s="134"/>
       <c r="AZ21" s="6"/>
       <c r="BA21" s="6"/>
       <c r="BB21" s="6"/>
@@ -3821,22 +3824,22 @@
       <c r="BJ21" s="6"/>
       <c r="BK21" s="6"/>
       <c r="BL21" s="6"/>
-      <c r="BM21" s="108"/>
-      <c r="BN21" s="135"/>
-      <c r="BO21" s="135"/>
-      <c r="BP21" s="135"/>
-      <c r="BQ21" s="135"/>
-      <c r="BR21" s="135"/>
-      <c r="BS21" s="135"/>
-      <c r="BT21" s="135"/>
-      <c r="BU21" s="135"/>
-      <c r="BV21" s="135"/>
-      <c r="BW21" s="135"/>
-      <c r="BX21" s="135"/>
-      <c r="BY21" s="135"/>
-      <c r="BZ21" s="135"/>
-      <c r="CA21" s="135"/>
-      <c r="CB21" s="135"/>
+      <c r="BM21" s="109"/>
+      <c r="BN21" s="137"/>
+      <c r="BO21" s="137"/>
+      <c r="BP21" s="137"/>
+      <c r="BQ21" s="137"/>
+      <c r="BR21" s="137"/>
+      <c r="BS21" s="137"/>
+      <c r="BT21" s="137"/>
+      <c r="BU21" s="137"/>
+      <c r="BV21" s="137"/>
+      <c r="BW21" s="137"/>
+      <c r="BX21" s="137"/>
+      <c r="BY21" s="137"/>
+      <c r="BZ21" s="137"/>
+      <c r="CA21" s="137"/>
+      <c r="CB21" s="137"/>
       <c r="CC21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:81">
@@ -3881,7 +3884,7 @@
       <c r="AK22" s="47"/>
       <c r="AL22" s="47"/>
       <c r="AM22" s="47"/>
-      <c r="AN22" s="133"/>
+      <c r="AN22" s="135"/>
       <c r="AP22" s="6"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
@@ -3903,22 +3906,22 @@
       <c r="BJ22" s="6"/>
       <c r="BK22" s="6"/>
       <c r="BL22" s="6"/>
-      <c r="BM22" s="108"/>
-      <c r="BN22" s="146"/>
-      <c r="BO22" s="146"/>
-      <c r="BP22" s="146"/>
-      <c r="BQ22" s="146"/>
-      <c r="BR22" s="146"/>
-      <c r="BS22" s="146"/>
-      <c r="BT22" s="146"/>
-      <c r="BU22" s="146"/>
-      <c r="BV22" s="146"/>
-      <c r="BW22" s="146"/>
-      <c r="BX22" s="146"/>
-      <c r="BY22" s="146"/>
-      <c r="BZ22" s="146"/>
-      <c r="CA22" s="146"/>
-      <c r="CB22" s="146"/>
+      <c r="BM22" s="109"/>
+      <c r="BN22" s="148"/>
+      <c r="BO22" s="148"/>
+      <c r="BP22" s="148"/>
+      <c r="BQ22" s="148"/>
+      <c r="BR22" s="148"/>
+      <c r="BS22" s="148"/>
+      <c r="BT22" s="148"/>
+      <c r="BU22" s="148"/>
+      <c r="BV22" s="148"/>
+      <c r="BW22" s="148"/>
+      <c r="BX22" s="148"/>
+      <c r="BY22" s="148"/>
+      <c r="BZ22" s="148"/>
+      <c r="CA22" s="148"/>
+      <c r="CB22" s="148"/>
       <c r="CC22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:81">
@@ -3963,15 +3966,15 @@
       <c r="AK23" s="52"/>
       <c r="AL23" s="52"/>
       <c r="AM23" s="52"/>
-      <c r="AN23" s="134"/>
-      <c r="AP23" s="108"/>
-      <c r="AQ23" s="108"/>
-      <c r="AR23" s="108"/>
-      <c r="AS23" s="108"/>
-      <c r="AT23" s="108"/>
-      <c r="AU23" s="108"/>
-      <c r="AV23" s="108"/>
-      <c r="AW23" s="108"/>
+      <c r="AN23" s="136"/>
+      <c r="AP23" s="109"/>
+      <c r="AQ23" s="109"/>
+      <c r="AR23" s="109"/>
+      <c r="AS23" s="109"/>
+      <c r="AT23" s="109"/>
+      <c r="AU23" s="109"/>
+      <c r="AV23" s="109"/>
+      <c r="AW23" s="109"/>
       <c r="AZ23" s="6"/>
       <c r="BA23" s="6"/>
       <c r="BB23" s="6"/>
@@ -3985,22 +3988,22 @@
       <c r="BJ23" s="6"/>
       <c r="BK23" s="6"/>
       <c r="BL23" s="6"/>
-      <c r="BM23" s="108"/>
-      <c r="BN23" s="108"/>
-      <c r="BO23" s="108"/>
-      <c r="BP23" s="108"/>
-      <c r="BQ23" s="108"/>
-      <c r="BR23" s="108"/>
-      <c r="BS23" s="108"/>
-      <c r="BT23" s="108"/>
-      <c r="BU23" s="108"/>
-      <c r="BV23" s="108"/>
-      <c r="BW23" s="108"/>
-      <c r="BX23" s="108"/>
-      <c r="BY23" s="108"/>
-      <c r="BZ23" s="108"/>
-      <c r="CA23" s="108"/>
-      <c r="CB23" s="108"/>
+      <c r="BM23" s="109"/>
+      <c r="BN23" s="109"/>
+      <c r="BO23" s="109"/>
+      <c r="BP23" s="109"/>
+      <c r="BQ23" s="109"/>
+      <c r="BR23" s="109"/>
+      <c r="BS23" s="109"/>
+      <c r="BT23" s="109"/>
+      <c r="BU23" s="109"/>
+      <c r="BV23" s="109"/>
+      <c r="BW23" s="109"/>
+      <c r="BX23" s="109"/>
+      <c r="BY23" s="109"/>
+      <c r="BZ23" s="109"/>
+      <c r="CA23" s="109"/>
+      <c r="CB23" s="109"/>
       <c r="CC23" s="6"/>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:81">
@@ -4044,14 +4047,14 @@
       <c r="AL24" s="6"/>
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
-      <c r="AP24" s="108"/>
-      <c r="AQ24" s="108"/>
-      <c r="AR24" s="108"/>
-      <c r="AS24" s="108"/>
-      <c r="AT24" s="108"/>
-      <c r="AU24" s="108"/>
-      <c r="AV24" s="108"/>
-      <c r="AW24" s="108"/>
+      <c r="AP24" s="109"/>
+      <c r="AQ24" s="109"/>
+      <c r="AR24" s="109"/>
+      <c r="AS24" s="109"/>
+      <c r="AT24" s="109"/>
+      <c r="AU24" s="109"/>
+      <c r="AV24" s="109"/>
+      <c r="AW24" s="109"/>
       <c r="AZ24" s="6"/>
       <c r="BA24" s="6"/>
       <c r="BB24" s="6"/>
@@ -4065,22 +4068,22 @@
       <c r="BJ24" s="6"/>
       <c r="BK24" s="6"/>
       <c r="BL24" s="6"/>
-      <c r="BM24" s="108"/>
-      <c r="BN24" s="108"/>
-      <c r="BO24" s="108"/>
-      <c r="BP24" s="108"/>
-      <c r="BQ24" s="108"/>
-      <c r="BR24" s="108"/>
-      <c r="BS24" s="108"/>
-      <c r="BT24" s="108"/>
-      <c r="BU24" s="108"/>
-      <c r="BV24" s="108"/>
-      <c r="BW24" s="108"/>
-      <c r="BX24" s="108"/>
-      <c r="BY24" s="108"/>
-      <c r="BZ24" s="108"/>
-      <c r="CA24" s="108"/>
-      <c r="CB24" s="108"/>
+      <c r="BM24" s="109"/>
+      <c r="BN24" s="109"/>
+      <c r="BO24" s="109"/>
+      <c r="BP24" s="109"/>
+      <c r="BQ24" s="109"/>
+      <c r="BR24" s="109"/>
+      <c r="BS24" s="109"/>
+      <c r="BT24" s="109"/>
+      <c r="BU24" s="109"/>
+      <c r="BV24" s="109"/>
+      <c r="BW24" s="109"/>
+      <c r="BX24" s="109"/>
+      <c r="BY24" s="109"/>
+      <c r="BZ24" s="109"/>
+      <c r="CA24" s="109"/>
+      <c r="CB24" s="109"/>
       <c r="CC24" s="6"/>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:81">
@@ -4098,45 +4101,45 @@
       <c r="J25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="112"/>
-      <c r="AD25" s="112"/>
-      <c r="AE25" s="106"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="107"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
       <c r="AH25" s="23"/>
       <c r="AI25" s="23"/>
-      <c r="AJ25" s="112"/>
-      <c r="AK25" s="135"/>
-      <c r="AL25" s="135"/>
-      <c r="AM25" s="76"/>
-      <c r="AN25" s="135"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="137"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="137"/>
       <c r="AO25" s="53"/>
-      <c r="AP25" s="108"/>
-      <c r="AQ25" s="108"/>
-      <c r="AR25" s="108"/>
-      <c r="AS25" s="108"/>
-      <c r="AT25" s="108"/>
-      <c r="AU25" s="108"/>
-      <c r="AV25" s="108"/>
-      <c r="AW25" s="108"/>
+      <c r="AP25" s="109"/>
+      <c r="AQ25" s="109"/>
+      <c r="AR25" s="109"/>
+      <c r="AS25" s="109"/>
+      <c r="AT25" s="109"/>
+      <c r="AU25" s="109"/>
+      <c r="AV25" s="109"/>
+      <c r="AW25" s="109"/>
       <c r="AZ25" s="6"/>
       <c r="BA25" s="6"/>
       <c r="BB25" s="6"/>
@@ -4144,29 +4147,29 @@
       <c r="BD25" s="6"/>
       <c r="BE25" s="6"/>
       <c r="BF25" s="6"/>
-      <c r="BG25" s="108"/>
-      <c r="BH25" s="108"/>
-      <c r="BI25" s="108"/>
-      <c r="BJ25" s="108"/>
-      <c r="BK25" s="108"/>
-      <c r="BL25" s="108"/>
-      <c r="BM25" s="108"/>
-      <c r="BN25" s="108"/>
-      <c r="BO25" s="108"/>
-      <c r="BP25" s="108"/>
-      <c r="BQ25" s="108"/>
-      <c r="BR25" s="108"/>
-      <c r="BS25" s="108"/>
-      <c r="BT25" s="108"/>
-      <c r="BU25" s="108"/>
-      <c r="BV25" s="108"/>
-      <c r="BW25" s="108"/>
-      <c r="BX25" s="108"/>
-      <c r="BY25" s="108"/>
-      <c r="BZ25" s="108"/>
-      <c r="CA25" s="108"/>
-      <c r="CB25" s="108"/>
-      <c r="CC25" s="135"/>
+      <c r="BG25" s="109"/>
+      <c r="BH25" s="109"/>
+      <c r="BI25" s="109"/>
+      <c r="BJ25" s="109"/>
+      <c r="BK25" s="109"/>
+      <c r="BL25" s="109"/>
+      <c r="BM25" s="109"/>
+      <c r="BN25" s="109"/>
+      <c r="BO25" s="109"/>
+      <c r="BP25" s="109"/>
+      <c r="BQ25" s="109"/>
+      <c r="BR25" s="109"/>
+      <c r="BS25" s="109"/>
+      <c r="BT25" s="109"/>
+      <c r="BU25" s="109"/>
+      <c r="BV25" s="109"/>
+      <c r="BW25" s="109"/>
+      <c r="BX25" s="109"/>
+      <c r="BY25" s="109"/>
+      <c r="BZ25" s="109"/>
+      <c r="CA25" s="109"/>
+      <c r="CB25" s="109"/>
+      <c r="CC25" s="137"/>
     </row>
     <row r="26" ht="13.35" customHeight="1" spans="1:81">
       <c r="A26" s="54" t="s">
@@ -4190,8 +4193,8 @@
       <c r="Q26" s="55"/>
       <c r="R26" s="55"/>
       <c r="S26" s="55"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="109"/>
       <c r="V26" s="87"/>
       <c r="W26" s="58"/>
       <c r="X26" s="58"/>
@@ -4207,12 +4210,12 @@
       <c r="AH26" s="88"/>
       <c r="AI26" s="88"/>
       <c r="AJ26" s="87"/>
-      <c r="AK26" s="108"/>
-      <c r="AL26" s="108"/>
-      <c r="AM26" s="108"/>
-      <c r="AN26" s="108"/>
+      <c r="AK26" s="109"/>
+      <c r="AL26" s="109"/>
+      <c r="AM26" s="109"/>
+      <c r="AN26" s="109"/>
       <c r="AO26" s="53"/>
-      <c r="CC26" s="147"/>
+      <c r="CC26" s="149"/>
     </row>
     <row r="27" ht="14.1" customHeight="1" spans="1:81">
       <c r="A27" s="54" t="s">
@@ -4236,8 +4239,8 @@
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
       <c r="S27" s="55"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="109"/>
       <c r="V27" s="87"/>
       <c r="W27" s="58"/>
       <c r="X27" s="58"/>
@@ -4253,30 +4256,30 @@
       <c r="AH27" s="88"/>
       <c r="AI27" s="88"/>
       <c r="AJ27" s="87"/>
-      <c r="AK27" s="108"/>
-      <c r="AL27" s="108"/>
-      <c r="AM27" s="108"/>
-      <c r="AN27" s="108"/>
+      <c r="AK27" s="109"/>
+      <c r="AL27" s="109"/>
+      <c r="AM27" s="109"/>
+      <c r="AN27" s="109"/>
       <c r="AO27" s="53"/>
-      <c r="AP27" s="137"/>
+      <c r="AP27" s="139"/>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="6"/>
       <c r="AS27" s="6"/>
       <c r="AT27" s="6"/>
       <c r="AU27" s="6"/>
       <c r="AV27" s="6"/>
-      <c r="AW27" s="140"/>
-      <c r="AX27" s="144"/>
+      <c r="AW27" s="142"/>
+      <c r="AX27" s="146"/>
       <c r="AY27" s="6"/>
       <c r="AZ27" s="6"/>
       <c r="BA27" s="6"/>
-      <c r="BB27" s="140"/>
-      <c r="BC27" s="140"/>
-      <c r="BD27" s="139"/>
-      <c r="BE27" s="139"/>
-      <c r="BF27" s="139"/>
-      <c r="BG27" s="139"/>
-      <c r="BH27" s="139"/>
+      <c r="BB27" s="142"/>
+      <c r="BC27" s="142"/>
+      <c r="BD27" s="141"/>
+      <c r="BE27" s="141"/>
+      <c r="BF27" s="141"/>
+      <c r="BG27" s="141"/>
+      <c r="BH27" s="141"/>
       <c r="BI27" s="6"/>
       <c r="BJ27" s="6"/>
       <c r="BK27" s="6"/>
@@ -4291,13 +4294,13 @@
       <c r="BT27" s="6"/>
       <c r="BU27" s="6"/>
       <c r="BV27" s="6"/>
-      <c r="BW27" s="108"/>
-      <c r="BX27" s="108"/>
-      <c r="BY27" s="108"/>
-      <c r="BZ27" s="108"/>
-      <c r="CA27" s="108"/>
-      <c r="CB27" s="108"/>
-      <c r="CC27" s="147"/>
+      <c r="BW27" s="109"/>
+      <c r="BX27" s="109"/>
+      <c r="BY27" s="109"/>
+      <c r="BZ27" s="109"/>
+      <c r="CA27" s="109"/>
+      <c r="CB27" s="109"/>
+      <c r="CC27" s="149"/>
     </row>
     <row r="28" ht="13.35" customHeight="1" spans="1:81">
       <c r="A28" s="54" t="s">
@@ -4321,8 +4324,8 @@
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
       <c r="S28" s="55"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="109"/>
       <c r="V28" s="87"/>
       <c r="W28" s="58"/>
       <c r="X28" s="58"/>
@@ -4338,21 +4341,21 @@
       <c r="AH28" s="88"/>
       <c r="AI28" s="88"/>
       <c r="AJ28" s="87"/>
-      <c r="AK28" s="108"/>
-      <c r="AL28" s="108"/>
-      <c r="AM28" s="108"/>
-      <c r="AN28" s="108"/>
+      <c r="AK28" s="109"/>
+      <c r="AL28" s="109"/>
+      <c r="AM28" s="109"/>
+      <c r="AN28" s="109"/>
       <c r="AO28" s="53"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="141"/>
-      <c r="AR28" s="141"/>
-      <c r="AS28" s="141"/>
-      <c r="AT28" s="141"/>
-      <c r="AU28" s="141"/>
-      <c r="AV28" s="141"/>
-      <c r="AW28" s="141"/>
-      <c r="AX28" s="141"/>
-      <c r="AY28" s="141"/>
+      <c r="AQ28" s="143"/>
+      <c r="AR28" s="143"/>
+      <c r="AS28" s="143"/>
+      <c r="AT28" s="143"/>
+      <c r="AU28" s="143"/>
+      <c r="AV28" s="143"/>
+      <c r="AW28" s="143"/>
+      <c r="AX28" s="143"/>
+      <c r="AY28" s="143"/>
       <c r="AZ28" s="6"/>
       <c r="BA28" s="6"/>
       <c r="BB28" s="6"/>
@@ -4360,19 +4363,19 @@
       <c r="BD28" s="6"/>
       <c r="BE28" s="6"/>
       <c r="BF28" s="6"/>
-      <c r="BG28" s="135"/>
-      <c r="BH28" s="135"/>
+      <c r="BG28" s="137"/>
+      <c r="BH28" s="137"/>
       <c r="BI28" s="5"/>
-      <c r="BJ28" s="141"/>
-      <c r="BK28" s="141"/>
-      <c r="BL28" s="141"/>
-      <c r="BM28" s="141"/>
-      <c r="BN28" s="141"/>
-      <c r="BO28" s="141"/>
-      <c r="BP28" s="141"/>
-      <c r="BQ28" s="141"/>
-      <c r="BR28" s="141"/>
-      <c r="BS28" s="141"/>
+      <c r="BJ28" s="143"/>
+      <c r="BK28" s="143"/>
+      <c r="BL28" s="143"/>
+      <c r="BM28" s="143"/>
+      <c r="BN28" s="143"/>
+      <c r="BO28" s="143"/>
+      <c r="BP28" s="143"/>
+      <c r="BQ28" s="143"/>
+      <c r="BR28" s="143"/>
+      <c r="BS28" s="143"/>
       <c r="BT28" s="6"/>
       <c r="BU28" s="6"/>
       <c r="BV28" s="6"/>
@@ -4380,9 +4383,9 @@
       <c r="BX28" s="6"/>
       <c r="BY28" s="6"/>
       <c r="BZ28" s="6"/>
-      <c r="CA28" s="108"/>
-      <c r="CB28" s="108"/>
-      <c r="CC28" s="148"/>
+      <c r="CA28" s="109"/>
+      <c r="CB28" s="109"/>
+      <c r="CC28" s="150"/>
     </row>
     <row r="29" ht="13.35" customHeight="1" spans="1:81">
       <c r="A29" s="54" t="s">
@@ -4406,8 +4409,8 @@
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
       <c r="S29" s="55"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="109"/>
       <c r="V29" s="87"/>
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
@@ -4423,21 +4426,21 @@
       <c r="AH29" s="88"/>
       <c r="AI29" s="88"/>
       <c r="AJ29" s="87"/>
-      <c r="AK29" s="108"/>
-      <c r="AL29" s="108"/>
-      <c r="AM29" s="108"/>
-      <c r="AN29" s="108"/>
+      <c r="AK29" s="109"/>
+      <c r="AL29" s="109"/>
+      <c r="AM29" s="109"/>
+      <c r="AN29" s="109"/>
       <c r="AO29" s="53"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="141"/>
-      <c r="AR29" s="141"/>
-      <c r="AS29" s="141"/>
-      <c r="AT29" s="141"/>
-      <c r="AU29" s="141"/>
-      <c r="AV29" s="141"/>
-      <c r="AW29" s="141"/>
-      <c r="AX29" s="141"/>
-      <c r="AY29" s="141"/>
+      <c r="AQ29" s="143"/>
+      <c r="AR29" s="143"/>
+      <c r="AS29" s="143"/>
+      <c r="AT29" s="143"/>
+      <c r="AU29" s="143"/>
+      <c r="AV29" s="143"/>
+      <c r="AW29" s="143"/>
+      <c r="AX29" s="143"/>
+      <c r="AY29" s="143"/>
       <c r="AZ29" s="6"/>
       <c r="BA29" s="6"/>
       <c r="BB29" s="6"/>
@@ -4445,19 +4448,19 @@
       <c r="BD29" s="6"/>
       <c r="BE29" s="6"/>
       <c r="BF29" s="6"/>
-      <c r="BG29" s="135"/>
-      <c r="BH29" s="135"/>
+      <c r="BG29" s="137"/>
+      <c r="BH29" s="137"/>
       <c r="BI29" s="5"/>
-      <c r="BJ29" s="141"/>
-      <c r="BK29" s="141"/>
-      <c r="BL29" s="141"/>
-      <c r="BM29" s="141"/>
-      <c r="BN29" s="141"/>
-      <c r="BO29" s="141"/>
-      <c r="BP29" s="141"/>
-      <c r="BQ29" s="141"/>
-      <c r="BR29" s="141"/>
-      <c r="BS29" s="141"/>
+      <c r="BJ29" s="143"/>
+      <c r="BK29" s="143"/>
+      <c r="BL29" s="143"/>
+      <c r="BM29" s="143"/>
+      <c r="BN29" s="143"/>
+      <c r="BO29" s="143"/>
+      <c r="BP29" s="143"/>
+      <c r="BQ29" s="143"/>
+      <c r="BR29" s="143"/>
+      <c r="BS29" s="143"/>
       <c r="BT29" s="6"/>
       <c r="BU29" s="6"/>
       <c r="BV29" s="6"/>
@@ -4465,9 +4468,9 @@
       <c r="BX29" s="6"/>
       <c r="BY29" s="6"/>
       <c r="BZ29" s="6"/>
-      <c r="CA29" s="108"/>
-      <c r="CB29" s="108"/>
-      <c r="CC29" s="148"/>
+      <c r="CA29" s="109"/>
+      <c r="CB29" s="109"/>
+      <c r="CC29" s="150"/>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:81">
       <c r="A30" s="56" t="s">
@@ -4491,8 +4494,8 @@
       <c r="Q30" s="57"/>
       <c r="R30" s="57"/>
       <c r="S30" s="57"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="108"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="109"/>
       <c r="V30" s="87"/>
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
@@ -4508,21 +4511,21 @@
       <c r="AH30" s="88"/>
       <c r="AI30" s="88"/>
       <c r="AJ30" s="87"/>
-      <c r="AK30" s="108"/>
-      <c r="AL30" s="108"/>
-      <c r="AM30" s="108"/>
-      <c r="AN30" s="108"/>
+      <c r="AK30" s="109"/>
+      <c r="AL30" s="109"/>
+      <c r="AM30" s="109"/>
+      <c r="AN30" s="109"/>
       <c r="AO30" s="53"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="141"/>
-      <c r="AR30" s="141"/>
-      <c r="AS30" s="141"/>
-      <c r="AT30" s="141"/>
-      <c r="AU30" s="141"/>
-      <c r="AV30" s="141"/>
-      <c r="AW30" s="141"/>
-      <c r="AX30" s="141"/>
-      <c r="AY30" s="141"/>
+      <c r="AQ30" s="143"/>
+      <c r="AR30" s="143"/>
+      <c r="AS30" s="143"/>
+      <c r="AT30" s="143"/>
+      <c r="AU30" s="143"/>
+      <c r="AV30" s="143"/>
+      <c r="AW30" s="143"/>
+      <c r="AX30" s="143"/>
+      <c r="AY30" s="143"/>
       <c r="AZ30" s="6"/>
       <c r="BA30" s="6"/>
       <c r="BB30" s="6"/>
@@ -4530,19 +4533,19 @@
       <c r="BD30" s="6"/>
       <c r="BE30" s="6"/>
       <c r="BF30" s="6"/>
-      <c r="BG30" s="135"/>
-      <c r="BH30" s="135"/>
+      <c r="BG30" s="137"/>
+      <c r="BH30" s="137"/>
       <c r="BI30" s="5"/>
-      <c r="BJ30" s="141"/>
-      <c r="BK30" s="141"/>
-      <c r="BL30" s="141"/>
-      <c r="BM30" s="141"/>
-      <c r="BN30" s="141"/>
-      <c r="BO30" s="141"/>
-      <c r="BP30" s="141"/>
-      <c r="BQ30" s="141"/>
-      <c r="BR30" s="141"/>
-      <c r="BS30" s="141"/>
+      <c r="BJ30" s="143"/>
+      <c r="BK30" s="143"/>
+      <c r="BL30" s="143"/>
+      <c r="BM30" s="143"/>
+      <c r="BN30" s="143"/>
+      <c r="BO30" s="143"/>
+      <c r="BP30" s="143"/>
+      <c r="BQ30" s="143"/>
+      <c r="BR30" s="143"/>
+      <c r="BS30" s="143"/>
       <c r="BT30" s="6"/>
       <c r="BU30" s="6"/>
       <c r="BV30" s="6"/>
@@ -4550,8 +4553,8 @@
       <c r="BX30" s="6"/>
       <c r="BY30" s="6"/>
       <c r="BZ30" s="6"/>
-      <c r="CA30" s="108"/>
-      <c r="CB30" s="108"/>
+      <c r="CA30" s="109"/>
+      <c r="CB30" s="109"/>
       <c r="CC30" s="6"/>
     </row>
     <row r="31" ht="13.35" customHeight="1" spans="1:81">
@@ -4575,7 +4578,7 @@
       <c r="R31" s="86"/>
       <c r="S31" s="86"/>
       <c r="T31" s="86"/>
-      <c r="U31" s="108"/>
+      <c r="U31" s="109"/>
       <c r="V31" s="87"/>
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
@@ -4591,21 +4594,21 @@
       <c r="AH31" s="88"/>
       <c r="AI31" s="88"/>
       <c r="AJ31" s="87"/>
-      <c r="AK31" s="108"/>
-      <c r="AL31" s="108"/>
-      <c r="AM31" s="108"/>
-      <c r="AN31" s="108"/>
+      <c r="AK31" s="109"/>
+      <c r="AL31" s="109"/>
+      <c r="AM31" s="109"/>
+      <c r="AN31" s="109"/>
       <c r="AO31" s="53"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="141"/>
-      <c r="AR31" s="141"/>
-      <c r="AS31" s="141"/>
-      <c r="AT31" s="141"/>
-      <c r="AU31" s="141"/>
-      <c r="AV31" s="141"/>
-      <c r="AW31" s="141"/>
-      <c r="AX31" s="141"/>
-      <c r="AY31" s="141"/>
+      <c r="AQ31" s="143"/>
+      <c r="AR31" s="143"/>
+      <c r="AS31" s="143"/>
+      <c r="AT31" s="143"/>
+      <c r="AU31" s="143"/>
+      <c r="AV31" s="143"/>
+      <c r="AW31" s="143"/>
+      <c r="AX31" s="143"/>
+      <c r="AY31" s="143"/>
       <c r="AZ31" s="6"/>
       <c r="BA31" s="6"/>
       <c r="BB31" s="6"/>
@@ -4613,19 +4616,19 @@
       <c r="BD31" s="6"/>
       <c r="BE31" s="6"/>
       <c r="BF31" s="6"/>
-      <c r="BG31" s="135"/>
-      <c r="BH31" s="135"/>
+      <c r="BG31" s="137"/>
+      <c r="BH31" s="137"/>
       <c r="BI31" s="5"/>
-      <c r="BJ31" s="141"/>
-      <c r="BK31" s="141"/>
-      <c r="BL31" s="141"/>
-      <c r="BM31" s="141"/>
-      <c r="BN31" s="141"/>
-      <c r="BO31" s="141"/>
-      <c r="BP31" s="141"/>
-      <c r="BQ31" s="141"/>
-      <c r="BR31" s="141"/>
-      <c r="BS31" s="141"/>
+      <c r="BJ31" s="143"/>
+      <c r="BK31" s="143"/>
+      <c r="BL31" s="143"/>
+      <c r="BM31" s="143"/>
+      <c r="BN31" s="143"/>
+      <c r="BO31" s="143"/>
+      <c r="BP31" s="143"/>
+      <c r="BQ31" s="143"/>
+      <c r="BR31" s="143"/>
+      <c r="BS31" s="143"/>
       <c r="BT31" s="6"/>
       <c r="BU31" s="6"/>
       <c r="BV31" s="6"/>
@@ -4633,9 +4636,9 @@
       <c r="BX31" s="6"/>
       <c r="BY31" s="6"/>
       <c r="BZ31" s="6"/>
-      <c r="CA31" s="108"/>
-      <c r="CB31" s="108"/>
-      <c r="CC31" s="149"/>
+      <c r="CA31" s="109"/>
+      <c r="CB31" s="109"/>
+      <c r="CC31" s="151"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:81">
       <c r="A32" s="58"/>
@@ -4658,7 +4661,7 @@
       <c r="R32" s="88"/>
       <c r="S32" s="88"/>
       <c r="T32" s="88"/>
-      <c r="U32" s="108"/>
+      <c r="U32" s="109"/>
       <c r="V32" s="87"/>
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
@@ -4674,51 +4677,51 @@
       <c r="AH32" s="88"/>
       <c r="AI32" s="88"/>
       <c r="AJ32" s="87"/>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="108"/>
-      <c r="AM32" s="108"/>
-      <c r="AN32" s="108"/>
+      <c r="AK32" s="109"/>
+      <c r="AL32" s="109"/>
+      <c r="AM32" s="109"/>
+      <c r="AN32" s="109"/>
       <c r="AO32" s="53"/>
-      <c r="AP32" s="108"/>
-      <c r="AQ32" s="108"/>
-      <c r="AR32" s="108"/>
-      <c r="AS32" s="108"/>
-      <c r="AT32" s="108"/>
-      <c r="AU32" s="108"/>
-      <c r="AV32" s="108"/>
-      <c r="AW32" s="108"/>
-      <c r="AX32" s="108"/>
-      <c r="AY32" s="108"/>
-      <c r="AZ32" s="108"/>
-      <c r="BA32" s="108"/>
-      <c r="BB32" s="108"/>
-      <c r="BC32" s="108"/>
-      <c r="BD32" s="108"/>
-      <c r="BE32" s="108"/>
-      <c r="BF32" s="108"/>
-      <c r="BG32" s="108"/>
-      <c r="BH32" s="108"/>
-      <c r="BI32" s="108"/>
-      <c r="BJ32" s="108"/>
-      <c r="BK32" s="108"/>
-      <c r="BL32" s="108"/>
-      <c r="BM32" s="108"/>
-      <c r="BN32" s="108"/>
-      <c r="BO32" s="108"/>
-      <c r="BP32" s="108"/>
-      <c r="BQ32" s="108"/>
-      <c r="BR32" s="108"/>
-      <c r="BS32" s="108"/>
-      <c r="BT32" s="108"/>
-      <c r="BU32" s="108"/>
-      <c r="BV32" s="108"/>
-      <c r="BW32" s="108"/>
-      <c r="BX32" s="108"/>
-      <c r="BY32" s="108"/>
-      <c r="BZ32" s="108"/>
-      <c r="CA32" s="108"/>
-      <c r="CB32" s="108"/>
-      <c r="CC32" s="149"/>
+      <c r="AP32" s="109"/>
+      <c r="AQ32" s="109"/>
+      <c r="AR32" s="109"/>
+      <c r="AS32" s="109"/>
+      <c r="AT32" s="109"/>
+      <c r="AU32" s="109"/>
+      <c r="AV32" s="109"/>
+      <c r="AW32" s="109"/>
+      <c r="AX32" s="109"/>
+      <c r="AY32" s="109"/>
+      <c r="AZ32" s="109"/>
+      <c r="BA32" s="109"/>
+      <c r="BB32" s="109"/>
+      <c r="BC32" s="109"/>
+      <c r="BD32" s="109"/>
+      <c r="BE32" s="109"/>
+      <c r="BF32" s="109"/>
+      <c r="BG32" s="109"/>
+      <c r="BH32" s="109"/>
+      <c r="BI32" s="109"/>
+      <c r="BJ32" s="109"/>
+      <c r="BK32" s="109"/>
+      <c r="BL32" s="109"/>
+      <c r="BM32" s="109"/>
+      <c r="BN32" s="109"/>
+      <c r="BO32" s="109"/>
+      <c r="BP32" s="109"/>
+      <c r="BQ32" s="109"/>
+      <c r="BR32" s="109"/>
+      <c r="BS32" s="109"/>
+      <c r="BT32" s="109"/>
+      <c r="BU32" s="109"/>
+      <c r="BV32" s="109"/>
+      <c r="BW32" s="109"/>
+      <c r="BX32" s="109"/>
+      <c r="BY32" s="109"/>
+      <c r="BZ32" s="109"/>
+      <c r="CA32" s="109"/>
+      <c r="CB32" s="109"/>
+      <c r="CC32" s="151"/>
     </row>
     <row r="33" spans="1:81">
       <c r="A33" s="59"/>
@@ -4762,46 +4765,46 @@
       <c r="AM33" s="60"/>
       <c r="AN33" s="60"/>
       <c r="AO33" s="1"/>
-      <c r="AP33" s="142"/>
-      <c r="AQ33" s="142"/>
-      <c r="AR33" s="142"/>
-      <c r="AS33" s="142"/>
-      <c r="AT33" s="142"/>
-      <c r="AU33" s="142"/>
-      <c r="AV33" s="142"/>
-      <c r="AW33" s="142"/>
-      <c r="AX33" s="142"/>
-      <c r="AY33" s="142"/>
-      <c r="AZ33" s="142"/>
-      <c r="BA33" s="142"/>
-      <c r="BB33" s="142"/>
-      <c r="BC33" s="142"/>
-      <c r="BD33" s="142"/>
-      <c r="BE33" s="142"/>
-      <c r="BF33" s="142"/>
-      <c r="BG33" s="142"/>
-      <c r="BH33" s="142"/>
-      <c r="BI33" s="142"/>
-      <c r="BJ33" s="142"/>
-      <c r="BK33" s="142"/>
-      <c r="BL33" s="142"/>
-      <c r="BM33" s="142"/>
-      <c r="BN33" s="142"/>
-      <c r="BO33" s="142"/>
-      <c r="BP33" s="142"/>
-      <c r="BQ33" s="142"/>
-      <c r="BR33" s="142"/>
-      <c r="BS33" s="142"/>
-      <c r="BT33" s="142"/>
-      <c r="BU33" s="142"/>
-      <c r="BV33" s="142"/>
-      <c r="BW33" s="142"/>
-      <c r="BX33" s="142"/>
-      <c r="BY33" s="142"/>
-      <c r="BZ33" s="142"/>
-      <c r="CA33" s="142"/>
-      <c r="CB33" s="142"/>
-      <c r="CC33" s="147"/>
+      <c r="AP33" s="144"/>
+      <c r="AQ33" s="144"/>
+      <c r="AR33" s="144"/>
+      <c r="AS33" s="144"/>
+      <c r="AT33" s="144"/>
+      <c r="AU33" s="144"/>
+      <c r="AV33" s="144"/>
+      <c r="AW33" s="144"/>
+      <c r="AX33" s="144"/>
+      <c r="AY33" s="144"/>
+      <c r="AZ33" s="144"/>
+      <c r="BA33" s="144"/>
+      <c r="BB33" s="144"/>
+      <c r="BC33" s="144"/>
+      <c r="BD33" s="144"/>
+      <c r="BE33" s="144"/>
+      <c r="BF33" s="144"/>
+      <c r="BG33" s="144"/>
+      <c r="BH33" s="144"/>
+      <c r="BI33" s="144"/>
+      <c r="BJ33" s="144"/>
+      <c r="BK33" s="144"/>
+      <c r="BL33" s="144"/>
+      <c r="BM33" s="144"/>
+      <c r="BN33" s="144"/>
+      <c r="BO33" s="144"/>
+      <c r="BP33" s="144"/>
+      <c r="BQ33" s="144"/>
+      <c r="BR33" s="144"/>
+      <c r="BS33" s="144"/>
+      <c r="BT33" s="144"/>
+      <c r="BU33" s="144"/>
+      <c r="BV33" s="144"/>
+      <c r="BW33" s="144"/>
+      <c r="BX33" s="144"/>
+      <c r="BY33" s="144"/>
+      <c r="BZ33" s="144"/>
+      <c r="CA33" s="144"/>
+      <c r="CB33" s="144"/>
+      <c r="CC33" s="149"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:81">
       <c r="A34" s="60" t="s">
@@ -4846,46 +4849,46 @@
       <c r="AL34" s="60"/>
       <c r="AM34" s="60"/>
       <c r="AN34" s="60"/>
-      <c r="AP34" s="143"/>
-      <c r="AQ34" s="143"/>
-      <c r="AR34" s="143"/>
-      <c r="AS34" s="143"/>
-      <c r="AT34" s="143"/>
-      <c r="AU34" s="143"/>
-      <c r="AV34" s="143"/>
-      <c r="AW34" s="143"/>
-      <c r="AX34" s="143"/>
-      <c r="AY34" s="143"/>
-      <c r="AZ34" s="143"/>
-      <c r="BA34" s="143"/>
-      <c r="BB34" s="143"/>
-      <c r="BC34" s="143"/>
-      <c r="BD34" s="143"/>
-      <c r="BE34" s="143"/>
-      <c r="BF34" s="143"/>
-      <c r="BG34" s="143"/>
-      <c r="BH34" s="143"/>
-      <c r="BI34" s="143"/>
-      <c r="BJ34" s="143"/>
-      <c r="BK34" s="143"/>
-      <c r="BL34" s="143"/>
-      <c r="BM34" s="143"/>
-      <c r="BN34" s="143"/>
-      <c r="BO34" s="143"/>
-      <c r="BP34" s="143"/>
-      <c r="BQ34" s="143"/>
-      <c r="BR34" s="143"/>
-      <c r="BS34" s="143"/>
-      <c r="BT34" s="143"/>
-      <c r="BU34" s="143"/>
-      <c r="BV34" s="143"/>
-      <c r="BW34" s="143"/>
-      <c r="BX34" s="143"/>
-      <c r="BY34" s="143"/>
-      <c r="BZ34" s="143"/>
-      <c r="CA34" s="143"/>
-      <c r="CB34" s="143"/>
-      <c r="CC34" s="150"/>
+      <c r="AP34" s="145"/>
+      <c r="AQ34" s="145"/>
+      <c r="AR34" s="145"/>
+      <c r="AS34" s="145"/>
+      <c r="AT34" s="145"/>
+      <c r="AU34" s="145"/>
+      <c r="AV34" s="145"/>
+      <c r="AW34" s="145"/>
+      <c r="AX34" s="145"/>
+      <c r="AY34" s="145"/>
+      <c r="AZ34" s="145"/>
+      <c r="BA34" s="145"/>
+      <c r="BB34" s="145"/>
+      <c r="BC34" s="145"/>
+      <c r="BD34" s="145"/>
+      <c r="BE34" s="145"/>
+      <c r="BF34" s="145"/>
+      <c r="BG34" s="145"/>
+      <c r="BH34" s="145"/>
+      <c r="BI34" s="145"/>
+      <c r="BJ34" s="145"/>
+      <c r="BK34" s="145"/>
+      <c r="BL34" s="145"/>
+      <c r="BM34" s="145"/>
+      <c r="BN34" s="145"/>
+      <c r="BO34" s="145"/>
+      <c r="BP34" s="145"/>
+      <c r="BQ34" s="145"/>
+      <c r="BR34" s="145"/>
+      <c r="BS34" s="145"/>
+      <c r="BT34" s="145"/>
+      <c r="BU34" s="145"/>
+      <c r="BV34" s="145"/>
+      <c r="BW34" s="145"/>
+      <c r="BX34" s="145"/>
+      <c r="BY34" s="145"/>
+      <c r="BZ34" s="145"/>
+      <c r="CA34" s="145"/>
+      <c r="CB34" s="145"/>
+      <c r="CC34" s="152"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="27" customHeight="1" spans="1:81">
       <c r="A35" s="61" t="s">
@@ -4897,269 +4900,269 @@
       <c r="E35" s="62"/>
       <c r="F35" s="62"/>
       <c r="G35" s="63"/>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="63"/>
-      <c r="AE35" s="113" t="s">
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="89"/>
+      <c r="AB35" s="89"/>
+      <c r="AC35" s="89"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="AF35" s="114"/>
-      <c r="AG35" s="114"/>
-      <c r="AH35" s="114"/>
-      <c r="AI35" s="114"/>
-      <c r="AJ35" s="136"/>
-      <c r="AK35" s="113" t="s">
+      <c r="AF35" s="116"/>
+      <c r="AG35" s="116"/>
+      <c r="AH35" s="116"/>
+      <c r="AI35" s="116"/>
+      <c r="AJ35" s="138"/>
+      <c r="AK35" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="62"/>
-      <c r="AN35" s="62"/>
-      <c r="AO35" s="63"/>
-      <c r="AP35" s="143"/>
-      <c r="AQ35" s="143"/>
-      <c r="AR35" s="143"/>
-      <c r="AS35" s="143"/>
-      <c r="AT35" s="143"/>
-      <c r="AU35" s="143"/>
-      <c r="AV35" s="143"/>
-      <c r="AW35" s="143"/>
-      <c r="AX35" s="143"/>
-      <c r="AY35" s="143"/>
-      <c r="AZ35" s="143"/>
-      <c r="BA35" s="143"/>
-      <c r="BB35" s="143"/>
-      <c r="BC35" s="143"/>
-      <c r="BD35" s="143"/>
-      <c r="BE35" s="143"/>
-      <c r="BF35" s="143"/>
-      <c r="BG35" s="143"/>
-      <c r="BH35" s="143"/>
-      <c r="BI35" s="143"/>
-      <c r="BJ35" s="143"/>
-      <c r="BK35" s="143"/>
-      <c r="BL35" s="143"/>
-      <c r="BM35" s="143"/>
-      <c r="BN35" s="143"/>
-      <c r="BO35" s="143"/>
-      <c r="BP35" s="143"/>
-      <c r="BQ35" s="143"/>
-      <c r="BR35" s="143"/>
-      <c r="BS35" s="143"/>
-      <c r="BT35" s="143"/>
-      <c r="BU35" s="143"/>
-      <c r="BV35" s="143"/>
-      <c r="BW35" s="143"/>
-      <c r="BX35" s="143"/>
-      <c r="BY35" s="143"/>
-      <c r="BZ35" s="143"/>
-      <c r="CA35" s="143"/>
-      <c r="CB35" s="143"/>
-      <c r="CC35" s="150"/>
+      <c r="AL35" s="89"/>
+      <c r="AM35" s="89"/>
+      <c r="AN35" s="89"/>
+      <c r="AO35" s="114"/>
+      <c r="AP35" s="145"/>
+      <c r="AQ35" s="145"/>
+      <c r="AR35" s="145"/>
+      <c r="AS35" s="145"/>
+      <c r="AT35" s="145"/>
+      <c r="AU35" s="145"/>
+      <c r="AV35" s="145"/>
+      <c r="AW35" s="145"/>
+      <c r="AX35" s="145"/>
+      <c r="AY35" s="145"/>
+      <c r="AZ35" s="145"/>
+      <c r="BA35" s="145"/>
+      <c r="BB35" s="145"/>
+      <c r="BC35" s="145"/>
+      <c r="BD35" s="145"/>
+      <c r="BE35" s="145"/>
+      <c r="BF35" s="145"/>
+      <c r="BG35" s="145"/>
+      <c r="BH35" s="145"/>
+      <c r="BI35" s="145"/>
+      <c r="BJ35" s="145"/>
+      <c r="BK35" s="145"/>
+      <c r="BL35" s="145"/>
+      <c r="BM35" s="145"/>
+      <c r="BN35" s="145"/>
+      <c r="BO35" s="145"/>
+      <c r="BP35" s="145"/>
+      <c r="BQ35" s="145"/>
+      <c r="BR35" s="145"/>
+      <c r="BS35" s="145"/>
+      <c r="BT35" s="145"/>
+      <c r="BU35" s="145"/>
+      <c r="BV35" s="145"/>
+      <c r="BW35" s="145"/>
+      <c r="BX35" s="145"/>
+      <c r="BY35" s="145"/>
+      <c r="BZ35" s="145"/>
+      <c r="CA35" s="145"/>
+      <c r="CB35" s="145"/>
+      <c r="CC35" s="152"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A36" s="64">
-        <v>2023</v>
-      </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66" t="s">
+      <c r="A36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="66">
+        <v>2025</v>
+      </c>
       <c r="E36" s="66"/>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="69" t="s">
+      <c r="G36" s="67"/>
+      <c r="H36" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="115" t="s">
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="68"/>
-      <c r="AK36" s="115" t="s">
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="67"/>
+      <c r="AK36" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="68"/>
-      <c r="AP36" s="143"/>
-      <c r="AQ36" s="143"/>
-      <c r="AR36" s="143"/>
-      <c r="AS36" s="143"/>
-      <c r="AT36" s="143"/>
-      <c r="AU36" s="143"/>
-      <c r="AV36" s="143"/>
-      <c r="AW36" s="143"/>
-      <c r="AX36" s="143"/>
-      <c r="AY36" s="143"/>
-      <c r="AZ36" s="143"/>
-      <c r="BA36" s="143"/>
-      <c r="BB36" s="143"/>
-      <c r="BC36" s="143"/>
-      <c r="BD36" s="143"/>
-      <c r="BE36" s="143"/>
-      <c r="BF36" s="143"/>
-      <c r="BG36" s="143"/>
-      <c r="BH36" s="143"/>
-      <c r="BI36" s="143"/>
-      <c r="BJ36" s="143"/>
-      <c r="BK36" s="143"/>
-      <c r="BL36" s="143"/>
-      <c r="BM36" s="143"/>
-      <c r="BN36" s="143"/>
-      <c r="BO36" s="143"/>
-      <c r="BP36" s="143"/>
-      <c r="BQ36" s="143"/>
-      <c r="BR36" s="143"/>
-      <c r="BS36" s="143"/>
-      <c r="BT36" s="143"/>
-      <c r="BU36" s="143"/>
-      <c r="BV36" s="143"/>
-      <c r="BW36" s="143"/>
-      <c r="BX36" s="143"/>
-      <c r="BY36" s="143"/>
-      <c r="BZ36" s="143"/>
-      <c r="CA36" s="143"/>
-      <c r="CB36" s="143"/>
-      <c r="CC36" s="150"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="67"/>
+      <c r="AP36" s="145"/>
+      <c r="AQ36" s="145"/>
+      <c r="AR36" s="145"/>
+      <c r="AS36" s="145"/>
+      <c r="AT36" s="145"/>
+      <c r="AU36" s="145"/>
+      <c r="AV36" s="145"/>
+      <c r="AW36" s="145"/>
+      <c r="AX36" s="145"/>
+      <c r="AY36" s="145"/>
+      <c r="AZ36" s="145"/>
+      <c r="BA36" s="145"/>
+      <c r="BB36" s="145"/>
+      <c r="BC36" s="145"/>
+      <c r="BD36" s="145"/>
+      <c r="BE36" s="145"/>
+      <c r="BF36" s="145"/>
+      <c r="BG36" s="145"/>
+      <c r="BH36" s="145"/>
+      <c r="BI36" s="145"/>
+      <c r="BJ36" s="145"/>
+      <c r="BK36" s="145"/>
+      <c r="BL36" s="145"/>
+      <c r="BM36" s="145"/>
+      <c r="BN36" s="145"/>
+      <c r="BO36" s="145"/>
+      <c r="BP36" s="145"/>
+      <c r="BQ36" s="145"/>
+      <c r="BR36" s="145"/>
+      <c r="BS36" s="145"/>
+      <c r="BT36" s="145"/>
+      <c r="BU36" s="145"/>
+      <c r="BV36" s="145"/>
+      <c r="BW36" s="145"/>
+      <c r="BX36" s="145"/>
+      <c r="BY36" s="145"/>
+      <c r="BZ36" s="145"/>
+      <c r="CA36" s="145"/>
+      <c r="CB36" s="145"/>
+      <c r="CC36" s="152"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A37" s="70"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="23"/>
       <c r="C37" s="60"/>
-      <c r="D37" s="71"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="60"/>
       <c r="F37" s="60"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73" t="s">
+      <c r="G37" s="71"/>
+      <c r="H37" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="89"/>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="89"/>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="89"/>
-      <c r="AD37" s="116"/>
-      <c r="AE37" s="75"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="118"/>
+      <c r="AE37" s="69"/>
       <c r="AF37" s="60"/>
       <c r="AG37" s="60"/>
       <c r="AH37" s="60"/>
       <c r="AI37" s="60"/>
-      <c r="AJ37" s="72"/>
-      <c r="AK37" s="75"/>
+      <c r="AJ37" s="71"/>
+      <c r="AK37" s="69"/>
       <c r="AL37" s="60"/>
       <c r="AM37" s="60"/>
       <c r="AN37" s="60"/>
-      <c r="AO37" s="72"/>
-      <c r="AP37" s="143"/>
-      <c r="AQ37" s="143"/>
-      <c r="AR37" s="143"/>
-      <c r="AS37" s="143"/>
-      <c r="AT37" s="143"/>
-      <c r="AU37" s="143"/>
-      <c r="AV37" s="143"/>
-      <c r="AW37" s="143"/>
-      <c r="AX37" s="143"/>
-      <c r="AY37" s="143"/>
-      <c r="AZ37" s="143"/>
-      <c r="BA37" s="143"/>
-      <c r="BB37" s="143"/>
-      <c r="BC37" s="143"/>
-      <c r="BD37" s="143"/>
-      <c r="BE37" s="143"/>
-      <c r="BF37" s="143"/>
-      <c r="BG37" s="143"/>
-      <c r="BH37" s="143"/>
-      <c r="BI37" s="143"/>
-      <c r="BJ37" s="143"/>
-      <c r="BK37" s="143"/>
-      <c r="BL37" s="143"/>
-      <c r="BM37" s="143"/>
-      <c r="BN37" s="143"/>
-      <c r="BO37" s="143"/>
-      <c r="BP37" s="143"/>
-      <c r="BQ37" s="143"/>
-      <c r="BR37" s="143"/>
-      <c r="BS37" s="143"/>
-      <c r="BT37" s="143"/>
-      <c r="BU37" s="143"/>
-      <c r="BV37" s="143"/>
-      <c r="BW37" s="143"/>
-      <c r="BX37" s="143"/>
-      <c r="BY37" s="143"/>
-      <c r="BZ37" s="143"/>
-      <c r="CA37" s="143"/>
-      <c r="CB37" s="143"/>
-      <c r="CC37" s="150"/>
+      <c r="AO37" s="71"/>
+      <c r="AP37" s="145"/>
+      <c r="AQ37" s="145"/>
+      <c r="AR37" s="145"/>
+      <c r="AS37" s="145"/>
+      <c r="AT37" s="145"/>
+      <c r="AU37" s="145"/>
+      <c r="AV37" s="145"/>
+      <c r="AW37" s="145"/>
+      <c r="AX37" s="145"/>
+      <c r="AY37" s="145"/>
+      <c r="AZ37" s="145"/>
+      <c r="BA37" s="145"/>
+      <c r="BB37" s="145"/>
+      <c r="BC37" s="145"/>
+      <c r="BD37" s="145"/>
+      <c r="BE37" s="145"/>
+      <c r="BF37" s="145"/>
+      <c r="BG37" s="145"/>
+      <c r="BH37" s="145"/>
+      <c r="BI37" s="145"/>
+      <c r="BJ37" s="145"/>
+      <c r="BK37" s="145"/>
+      <c r="BL37" s="145"/>
+      <c r="BM37" s="145"/>
+      <c r="BN37" s="145"/>
+      <c r="BO37" s="145"/>
+      <c r="BP37" s="145"/>
+      <c r="BQ37" s="145"/>
+      <c r="BR37" s="145"/>
+      <c r="BS37" s="145"/>
+      <c r="BT37" s="145"/>
+      <c r="BU37" s="145"/>
+      <c r="BV37" s="145"/>
+      <c r="BW37" s="145"/>
+      <c r="BX37" s="145"/>
+      <c r="BY37" s="145"/>
+      <c r="BZ37" s="145"/>
+      <c r="CA37" s="145"/>
+      <c r="CB37" s="145"/>
+      <c r="CC37" s="152"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="73" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="60"/>
@@ -5167,176 +5170,176 @@
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
       <c r="F38" s="60"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="89"/>
-      <c r="AC38" s="89"/>
-      <c r="AD38" s="116"/>
-      <c r="AE38" s="75"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="118"/>
+      <c r="AE38" s="69"/>
       <c r="AF38" s="60"/>
       <c r="AG38" s="60"/>
       <c r="AH38" s="60"/>
       <c r="AI38" s="60"/>
-      <c r="AJ38" s="72"/>
-      <c r="AK38" s="75"/>
+      <c r="AJ38" s="71"/>
+      <c r="AK38" s="69"/>
       <c r="AL38" s="60"/>
       <c r="AM38" s="60"/>
       <c r="AN38" s="60"/>
-      <c r="AO38" s="72"/>
-      <c r="AP38" s="143"/>
-      <c r="AQ38" s="143"/>
-      <c r="AR38" s="143"/>
-      <c r="AS38" s="143"/>
-      <c r="AT38" s="143"/>
-      <c r="AU38" s="143"/>
-      <c r="AV38" s="143"/>
-      <c r="AW38" s="143"/>
-      <c r="AX38" s="143"/>
-      <c r="AY38" s="143"/>
-      <c r="AZ38" s="143"/>
-      <c r="BA38" s="143"/>
-      <c r="BB38" s="143"/>
-      <c r="BC38" s="143"/>
-      <c r="BD38" s="143"/>
-      <c r="BE38" s="143"/>
-      <c r="BF38" s="143"/>
-      <c r="BG38" s="143"/>
-      <c r="BH38" s="143"/>
-      <c r="BI38" s="143"/>
-      <c r="BJ38" s="143"/>
-      <c r="BK38" s="143"/>
-      <c r="BL38" s="143"/>
-      <c r="BM38" s="143"/>
-      <c r="BN38" s="143"/>
-      <c r="BO38" s="143"/>
-      <c r="BP38" s="143"/>
-      <c r="BQ38" s="143"/>
-      <c r="BR38" s="143"/>
-      <c r="BS38" s="143"/>
-      <c r="BT38" s="143"/>
-      <c r="BU38" s="143"/>
-      <c r="BV38" s="143"/>
-      <c r="BW38" s="143"/>
-      <c r="BX38" s="143"/>
-      <c r="BY38" s="143"/>
-      <c r="BZ38" s="143"/>
-      <c r="CA38" s="143"/>
-      <c r="CB38" s="143"/>
-      <c r="CC38" s="150"/>
+      <c r="AO38" s="71"/>
+      <c r="AP38" s="145"/>
+      <c r="AQ38" s="145"/>
+      <c r="AR38" s="145"/>
+      <c r="AS38" s="145"/>
+      <c r="AT38" s="145"/>
+      <c r="AU38" s="145"/>
+      <c r="AV38" s="145"/>
+      <c r="AW38" s="145"/>
+      <c r="AX38" s="145"/>
+      <c r="AY38" s="145"/>
+      <c r="AZ38" s="145"/>
+      <c r="BA38" s="145"/>
+      <c r="BB38" s="145"/>
+      <c r="BC38" s="145"/>
+      <c r="BD38" s="145"/>
+      <c r="BE38" s="145"/>
+      <c r="BF38" s="145"/>
+      <c r="BG38" s="145"/>
+      <c r="BH38" s="145"/>
+      <c r="BI38" s="145"/>
+      <c r="BJ38" s="145"/>
+      <c r="BK38" s="145"/>
+      <c r="BL38" s="145"/>
+      <c r="BM38" s="145"/>
+      <c r="BN38" s="145"/>
+      <c r="BO38" s="145"/>
+      <c r="BP38" s="145"/>
+      <c r="BQ38" s="145"/>
+      <c r="BR38" s="145"/>
+      <c r="BS38" s="145"/>
+      <c r="BT38" s="145"/>
+      <c r="BU38" s="145"/>
+      <c r="BV38" s="145"/>
+      <c r="BW38" s="145"/>
+      <c r="BX38" s="145"/>
+      <c r="BY38" s="145"/>
+      <c r="BZ38" s="145"/>
+      <c r="CA38" s="145"/>
+      <c r="CB38" s="145"/>
+      <c r="CC38" s="152"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="76"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="60"/>
-      <c r="D39" s="76"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="60"/>
       <c r="F39" s="60"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="89"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="89"/>
-      <c r="AA39" s="89"/>
-      <c r="AB39" s="89"/>
-      <c r="AC39" s="89"/>
-      <c r="AD39" s="116"/>
-      <c r="AE39" s="75"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="118"/>
+      <c r="AE39" s="69"/>
       <c r="AF39" s="60"/>
       <c r="AG39" s="60"/>
       <c r="AH39" s="60"/>
       <c r="AI39" s="60"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="75"/>
+      <c r="AJ39" s="71"/>
+      <c r="AK39" s="69"/>
       <c r="AL39" s="60"/>
       <c r="AM39" s="60"/>
       <c r="AN39" s="60"/>
-      <c r="AO39" s="72"/>
-      <c r="AP39" s="143"/>
-      <c r="AQ39" s="143"/>
-      <c r="AR39" s="143"/>
-      <c r="AS39" s="143"/>
-      <c r="AT39" s="143"/>
-      <c r="AU39" s="143"/>
-      <c r="AV39" s="143"/>
-      <c r="AW39" s="143"/>
-      <c r="AX39" s="143"/>
-      <c r="AY39" s="143"/>
-      <c r="AZ39" s="143"/>
-      <c r="BA39" s="143"/>
-      <c r="BB39" s="143"/>
-      <c r="BC39" s="143"/>
-      <c r="BD39" s="143"/>
-      <c r="BE39" s="143"/>
-      <c r="BF39" s="143"/>
-      <c r="BG39" s="143"/>
-      <c r="BH39" s="143"/>
-      <c r="BI39" s="143"/>
-      <c r="BJ39" s="143"/>
-      <c r="BK39" s="143"/>
-      <c r="BL39" s="143"/>
-      <c r="BM39" s="143"/>
-      <c r="BN39" s="143"/>
-      <c r="BO39" s="143"/>
-      <c r="BP39" s="143"/>
-      <c r="BQ39" s="143"/>
-      <c r="BR39" s="143"/>
-      <c r="BS39" s="143"/>
-      <c r="BT39" s="143"/>
-      <c r="BU39" s="143"/>
-      <c r="BV39" s="143"/>
-      <c r="BW39" s="143"/>
-      <c r="BX39" s="143"/>
-      <c r="BY39" s="143"/>
-      <c r="BZ39" s="143"/>
-      <c r="CA39" s="143"/>
-      <c r="CB39" s="143"/>
-      <c r="CC39" s="150"/>
+      <c r="AO39" s="71"/>
+      <c r="AP39" s="145"/>
+      <c r="AQ39" s="145"/>
+      <c r="AR39" s="145"/>
+      <c r="AS39" s="145"/>
+      <c r="AT39" s="145"/>
+      <c r="AU39" s="145"/>
+      <c r="AV39" s="145"/>
+      <c r="AW39" s="145"/>
+      <c r="AX39" s="145"/>
+      <c r="AY39" s="145"/>
+      <c r="AZ39" s="145"/>
+      <c r="BA39" s="145"/>
+      <c r="BB39" s="145"/>
+      <c r="BC39" s="145"/>
+      <c r="BD39" s="145"/>
+      <c r="BE39" s="145"/>
+      <c r="BF39" s="145"/>
+      <c r="BG39" s="145"/>
+      <c r="BH39" s="145"/>
+      <c r="BI39" s="145"/>
+      <c r="BJ39" s="145"/>
+      <c r="BK39" s="145"/>
+      <c r="BL39" s="145"/>
+      <c r="BM39" s="145"/>
+      <c r="BN39" s="145"/>
+      <c r="BO39" s="145"/>
+      <c r="BP39" s="145"/>
+      <c r="BQ39" s="145"/>
+      <c r="BR39" s="145"/>
+      <c r="BS39" s="145"/>
+      <c r="BT39" s="145"/>
+      <c r="BU39" s="145"/>
+      <c r="BV39" s="145"/>
+      <c r="BW39" s="145"/>
+      <c r="BX39" s="145"/>
+      <c r="BY39" s="145"/>
+      <c r="BZ39" s="145"/>
+      <c r="CA39" s="145"/>
+      <c r="CB39" s="145"/>
+      <c r="CC39" s="152"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A40" s="75"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="75" t="s">
+      <c r="G40" s="71"/>
+      <c r="H40" s="69" t="s">
         <v>47</v>
       </c>
       <c r="I40" s="60"/>
@@ -5360,68 +5363,68 @@
       <c r="AA40" s="60"/>
       <c r="AB40" s="60"/>
       <c r="AC40" s="60"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="75"/>
+      <c r="AD40" s="71"/>
+      <c r="AE40" s="69"/>
       <c r="AF40" s="60"/>
       <c r="AG40" s="60"/>
       <c r="AH40" s="60"/>
       <c r="AI40" s="60"/>
-      <c r="AJ40" s="72"/>
-      <c r="AK40" s="75"/>
+      <c r="AJ40" s="71"/>
+      <c r="AK40" s="69"/>
       <c r="AL40" s="60"/>
       <c r="AM40" s="60"/>
       <c r="AN40" s="60"/>
-      <c r="AO40" s="72"/>
-      <c r="AP40" s="143"/>
-      <c r="AQ40" s="143"/>
-      <c r="AR40" s="143"/>
-      <c r="AS40" s="143"/>
-      <c r="AT40" s="143"/>
-      <c r="AU40" s="143"/>
-      <c r="AV40" s="143"/>
-      <c r="AW40" s="143"/>
-      <c r="AX40" s="143"/>
-      <c r="AY40" s="143"/>
-      <c r="AZ40" s="143"/>
-      <c r="BA40" s="143"/>
-      <c r="BB40" s="143"/>
-      <c r="BC40" s="143"/>
-      <c r="BD40" s="143"/>
-      <c r="BE40" s="143"/>
-      <c r="BF40" s="143"/>
-      <c r="BG40" s="143"/>
-      <c r="BH40" s="143"/>
-      <c r="BI40" s="143"/>
-      <c r="BJ40" s="143"/>
-      <c r="BK40" s="143"/>
-      <c r="BL40" s="143"/>
-      <c r="BM40" s="143"/>
-      <c r="BN40" s="143"/>
-      <c r="BO40" s="143"/>
-      <c r="BP40" s="143"/>
-      <c r="BQ40" s="143"/>
-      <c r="BR40" s="143"/>
-      <c r="BS40" s="143"/>
-      <c r="BT40" s="143"/>
-      <c r="BU40" s="143"/>
-      <c r="BV40" s="143"/>
-      <c r="BW40" s="143"/>
-      <c r="BX40" s="143"/>
-      <c r="BY40" s="143"/>
-      <c r="BZ40" s="143"/>
-      <c r="CA40" s="143"/>
-      <c r="CB40" s="143"/>
-      <c r="CC40" s="150"/>
+      <c r="AO40" s="71"/>
+      <c r="AP40" s="145"/>
+      <c r="AQ40" s="145"/>
+      <c r="AR40" s="145"/>
+      <c r="AS40" s="145"/>
+      <c r="AT40" s="145"/>
+      <c r="AU40" s="145"/>
+      <c r="AV40" s="145"/>
+      <c r="AW40" s="145"/>
+      <c r="AX40" s="145"/>
+      <c r="AY40" s="145"/>
+      <c r="AZ40" s="145"/>
+      <c r="BA40" s="145"/>
+      <c r="BB40" s="145"/>
+      <c r="BC40" s="145"/>
+      <c r="BD40" s="145"/>
+      <c r="BE40" s="145"/>
+      <c r="BF40" s="145"/>
+      <c r="BG40" s="145"/>
+      <c r="BH40" s="145"/>
+      <c r="BI40" s="145"/>
+      <c r="BJ40" s="145"/>
+      <c r="BK40" s="145"/>
+      <c r="BL40" s="145"/>
+      <c r="BM40" s="145"/>
+      <c r="BN40" s="145"/>
+      <c r="BO40" s="145"/>
+      <c r="BP40" s="145"/>
+      <c r="BQ40" s="145"/>
+      <c r="BR40" s="145"/>
+      <c r="BS40" s="145"/>
+      <c r="BT40" s="145"/>
+      <c r="BU40" s="145"/>
+      <c r="BV40" s="145"/>
+      <c r="BW40" s="145"/>
+      <c r="BX40" s="145"/>
+      <c r="BY40" s="145"/>
+      <c r="BZ40" s="145"/>
+      <c r="CA40" s="145"/>
+      <c r="CB40" s="145"/>
+      <c r="CC40" s="152"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A41" s="75"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
       <c r="F41" s="60"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="152" t="s">
+      <c r="G41" s="71"/>
+      <c r="H41" s="153" t="s">
         <v>48</v>
       </c>
       <c r="I41" s="60"/>
@@ -5445,68 +5448,68 @@
       <c r="AA41" s="60"/>
       <c r="AB41" s="60"/>
       <c r="AC41" s="60"/>
-      <c r="AD41" s="72"/>
-      <c r="AE41" s="75"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="69"/>
       <c r="AF41" s="60"/>
       <c r="AG41" s="60"/>
       <c r="AH41" s="60"/>
       <c r="AI41" s="60"/>
-      <c r="AJ41" s="72"/>
-      <c r="AK41" s="75"/>
+      <c r="AJ41" s="71"/>
+      <c r="AK41" s="69"/>
       <c r="AL41" s="60"/>
       <c r="AM41" s="60"/>
       <c r="AN41" s="60"/>
-      <c r="AO41" s="72"/>
-      <c r="AP41" s="143"/>
-      <c r="AQ41" s="143"/>
-      <c r="AR41" s="143"/>
-      <c r="AS41" s="143"/>
-      <c r="AT41" s="143"/>
-      <c r="AU41" s="143"/>
-      <c r="AV41" s="143"/>
-      <c r="AW41" s="143"/>
-      <c r="AX41" s="143"/>
-      <c r="AY41" s="143"/>
-      <c r="AZ41" s="143"/>
-      <c r="BA41" s="143"/>
-      <c r="BB41" s="143"/>
-      <c r="BC41" s="143"/>
-      <c r="BD41" s="143"/>
-      <c r="BE41" s="143"/>
-      <c r="BF41" s="143"/>
-      <c r="BG41" s="143"/>
-      <c r="BH41" s="143"/>
-      <c r="BI41" s="143"/>
-      <c r="BJ41" s="143"/>
-      <c r="BK41" s="143"/>
-      <c r="BL41" s="143"/>
-      <c r="BM41" s="143"/>
-      <c r="BN41" s="143"/>
-      <c r="BO41" s="143"/>
-      <c r="BP41" s="143"/>
-      <c r="BQ41" s="143"/>
-      <c r="BR41" s="143"/>
-      <c r="BS41" s="143"/>
-      <c r="BT41" s="143"/>
-      <c r="BU41" s="143"/>
-      <c r="BV41" s="143"/>
-      <c r="BW41" s="143"/>
-      <c r="BX41" s="143"/>
-      <c r="BY41" s="143"/>
-      <c r="BZ41" s="143"/>
-      <c r="CA41" s="143"/>
-      <c r="CB41" s="143"/>
-      <c r="CC41" s="150"/>
+      <c r="AO41" s="71"/>
+      <c r="AP41" s="145"/>
+      <c r="AQ41" s="145"/>
+      <c r="AR41" s="145"/>
+      <c r="AS41" s="145"/>
+      <c r="AT41" s="145"/>
+      <c r="AU41" s="145"/>
+      <c r="AV41" s="145"/>
+      <c r="AW41" s="145"/>
+      <c r="AX41" s="145"/>
+      <c r="AY41" s="145"/>
+      <c r="AZ41" s="145"/>
+      <c r="BA41" s="145"/>
+      <c r="BB41" s="145"/>
+      <c r="BC41" s="145"/>
+      <c r="BD41" s="145"/>
+      <c r="BE41" s="145"/>
+      <c r="BF41" s="145"/>
+      <c r="BG41" s="145"/>
+      <c r="BH41" s="145"/>
+      <c r="BI41" s="145"/>
+      <c r="BJ41" s="145"/>
+      <c r="BK41" s="145"/>
+      <c r="BL41" s="145"/>
+      <c r="BM41" s="145"/>
+      <c r="BN41" s="145"/>
+      <c r="BO41" s="145"/>
+      <c r="BP41" s="145"/>
+      <c r="BQ41" s="145"/>
+      <c r="BR41" s="145"/>
+      <c r="BS41" s="145"/>
+      <c r="BT41" s="145"/>
+      <c r="BU41" s="145"/>
+      <c r="BV41" s="145"/>
+      <c r="BW41" s="145"/>
+      <c r="BX41" s="145"/>
+      <c r="BY41" s="145"/>
+      <c r="BZ41" s="145"/>
+      <c r="CA41" s="145"/>
+      <c r="CB41" s="145"/>
+      <c r="CC41" s="152"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A42" s="75"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="60"/>
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
       <c r="F42" s="60"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="75"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="69"/>
       <c r="I42" s="60"/>
       <c r="J42" s="60"/>
       <c r="K42" s="60"/>
@@ -5528,68 +5531,68 @@
       <c r="AA42" s="60"/>
       <c r="AB42" s="60"/>
       <c r="AC42" s="60"/>
-      <c r="AD42" s="72"/>
-      <c r="AE42" s="75"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="69"/>
       <c r="AF42" s="60"/>
       <c r="AG42" s="60"/>
       <c r="AH42" s="60"/>
       <c r="AI42" s="60"/>
-      <c r="AJ42" s="72"/>
-      <c r="AK42" s="75"/>
+      <c r="AJ42" s="71"/>
+      <c r="AK42" s="69"/>
       <c r="AL42" s="60"/>
       <c r="AM42" s="60"/>
       <c r="AN42" s="60"/>
-      <c r="AO42" s="72"/>
-      <c r="AP42" s="143"/>
-      <c r="AQ42" s="143"/>
-      <c r="AR42" s="143"/>
-      <c r="AS42" s="143"/>
-      <c r="AT42" s="143"/>
-      <c r="AU42" s="143"/>
-      <c r="AV42" s="143"/>
-      <c r="AW42" s="143"/>
-      <c r="AX42" s="143"/>
-      <c r="AY42" s="143"/>
-      <c r="AZ42" s="143"/>
-      <c r="BA42" s="143"/>
-      <c r="BB42" s="143"/>
-      <c r="BC42" s="143"/>
-      <c r="BD42" s="143"/>
-      <c r="BE42" s="143"/>
-      <c r="BF42" s="143"/>
-      <c r="BG42" s="143"/>
-      <c r="BH42" s="143"/>
-      <c r="BI42" s="143"/>
-      <c r="BJ42" s="143"/>
-      <c r="BK42" s="143"/>
-      <c r="BL42" s="143"/>
-      <c r="BM42" s="143"/>
-      <c r="BN42" s="143"/>
-      <c r="BO42" s="143"/>
-      <c r="BP42" s="143"/>
-      <c r="BQ42" s="143"/>
-      <c r="BR42" s="143"/>
-      <c r="BS42" s="143"/>
-      <c r="BT42" s="143"/>
-      <c r="BU42" s="143"/>
-      <c r="BV42" s="143"/>
-      <c r="BW42" s="143"/>
-      <c r="BX42" s="143"/>
-      <c r="BY42" s="143"/>
-      <c r="BZ42" s="143"/>
-      <c r="CA42" s="143"/>
-      <c r="CB42" s="143"/>
-      <c r="CC42" s="150"/>
+      <c r="AO42" s="71"/>
+      <c r="AP42" s="145"/>
+      <c r="AQ42" s="145"/>
+      <c r="AR42" s="145"/>
+      <c r="AS42" s="145"/>
+      <c r="AT42" s="145"/>
+      <c r="AU42" s="145"/>
+      <c r="AV42" s="145"/>
+      <c r="AW42" s="145"/>
+      <c r="AX42" s="145"/>
+      <c r="AY42" s="145"/>
+      <c r="AZ42" s="145"/>
+      <c r="BA42" s="145"/>
+      <c r="BB42" s="145"/>
+      <c r="BC42" s="145"/>
+      <c r="BD42" s="145"/>
+      <c r="BE42" s="145"/>
+      <c r="BF42" s="145"/>
+      <c r="BG42" s="145"/>
+      <c r="BH42" s="145"/>
+      <c r="BI42" s="145"/>
+      <c r="BJ42" s="145"/>
+      <c r="BK42" s="145"/>
+      <c r="BL42" s="145"/>
+      <c r="BM42" s="145"/>
+      <c r="BN42" s="145"/>
+      <c r="BO42" s="145"/>
+      <c r="BP42" s="145"/>
+      <c r="BQ42" s="145"/>
+      <c r="BR42" s="145"/>
+      <c r="BS42" s="145"/>
+      <c r="BT42" s="145"/>
+      <c r="BU42" s="145"/>
+      <c r="BV42" s="145"/>
+      <c r="BW42" s="145"/>
+      <c r="BX42" s="145"/>
+      <c r="BY42" s="145"/>
+      <c r="BZ42" s="145"/>
+      <c r="CA42" s="145"/>
+      <c r="CB42" s="145"/>
+      <c r="CC42" s="152"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A43" s="75"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="60"/>
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
       <c r="F43" s="60"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="75"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="69"/>
       <c r="I43" s="60"/>
       <c r="J43" s="60"/>
       <c r="K43" s="60"/>
@@ -5611,326 +5614,326 @@
       <c r="AA43" s="60"/>
       <c r="AB43" s="60"/>
       <c r="AC43" s="60"/>
-      <c r="AD43" s="72"/>
-      <c r="AE43" s="75"/>
+      <c r="AD43" s="71"/>
+      <c r="AE43" s="69"/>
       <c r="AF43" s="60"/>
       <c r="AG43" s="60"/>
       <c r="AH43" s="60"/>
       <c r="AI43" s="60"/>
-      <c r="AJ43" s="72"/>
-      <c r="AK43" s="75"/>
+      <c r="AJ43" s="71"/>
+      <c r="AK43" s="69"/>
       <c r="AL43" s="60"/>
       <c r="AM43" s="60"/>
       <c r="AN43" s="60"/>
-      <c r="AO43" s="72"/>
-      <c r="AP43" s="143"/>
-      <c r="AQ43" s="143"/>
-      <c r="AR43" s="143"/>
-      <c r="AS43" s="143"/>
-      <c r="AT43" s="143"/>
-      <c r="AU43" s="143"/>
-      <c r="AV43" s="143"/>
-      <c r="AW43" s="143"/>
-      <c r="AX43" s="143"/>
-      <c r="AY43" s="143"/>
-      <c r="AZ43" s="143"/>
-      <c r="BA43" s="143"/>
-      <c r="BB43" s="143"/>
-      <c r="BC43" s="143"/>
-      <c r="BD43" s="143"/>
-      <c r="BE43" s="143"/>
-      <c r="BF43" s="143"/>
-      <c r="BG43" s="143"/>
-      <c r="BH43" s="143"/>
-      <c r="BI43" s="143"/>
-      <c r="BJ43" s="143"/>
-      <c r="BK43" s="143"/>
-      <c r="BL43" s="143"/>
-      <c r="BM43" s="143"/>
-      <c r="BN43" s="143"/>
-      <c r="BO43" s="143"/>
-      <c r="BP43" s="143"/>
-      <c r="BQ43" s="143"/>
-      <c r="BR43" s="143"/>
-      <c r="BS43" s="143"/>
-      <c r="BT43" s="143"/>
-      <c r="BU43" s="143"/>
-      <c r="BV43" s="143"/>
-      <c r="BW43" s="143"/>
-      <c r="BX43" s="143"/>
-      <c r="BY43" s="143"/>
-      <c r="BZ43" s="143"/>
-      <c r="CA43" s="143"/>
-      <c r="CB43" s="143"/>
-      <c r="CC43" s="150"/>
+      <c r="AO43" s="71"/>
+      <c r="AP43" s="145"/>
+      <c r="AQ43" s="145"/>
+      <c r="AR43" s="145"/>
+      <c r="AS43" s="145"/>
+      <c r="AT43" s="145"/>
+      <c r="AU43" s="145"/>
+      <c r="AV43" s="145"/>
+      <c r="AW43" s="145"/>
+      <c r="AX43" s="145"/>
+      <c r="AY43" s="145"/>
+      <c r="AZ43" s="145"/>
+      <c r="BA43" s="145"/>
+      <c r="BB43" s="145"/>
+      <c r="BC43" s="145"/>
+      <c r="BD43" s="145"/>
+      <c r="BE43" s="145"/>
+      <c r="BF43" s="145"/>
+      <c r="BG43" s="145"/>
+      <c r="BH43" s="145"/>
+      <c r="BI43" s="145"/>
+      <c r="BJ43" s="145"/>
+      <c r="BK43" s="145"/>
+      <c r="BL43" s="145"/>
+      <c r="BM43" s="145"/>
+      <c r="BN43" s="145"/>
+      <c r="BO43" s="145"/>
+      <c r="BP43" s="145"/>
+      <c r="BQ43" s="145"/>
+      <c r="BR43" s="145"/>
+      <c r="BS43" s="145"/>
+      <c r="BT43" s="145"/>
+      <c r="BU43" s="145"/>
+      <c r="BV43" s="145"/>
+      <c r="BW43" s="145"/>
+      <c r="BX43" s="145"/>
+      <c r="BY43" s="145"/>
+      <c r="BZ43" s="145"/>
+      <c r="CA43" s="145"/>
+      <c r="CB43" s="145"/>
+      <c r="CC43" s="152"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A44" s="75"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
       <c r="F44" s="60"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="90"/>
-      <c r="AA44" s="90"/>
-      <c r="AB44" s="90"/>
-      <c r="AC44" s="90"/>
-      <c r="AD44" s="117"/>
-      <c r="AE44" s="77"/>
-      <c r="AF44" s="90"/>
-      <c r="AG44" s="90"/>
-      <c r="AH44" s="90"/>
-      <c r="AI44" s="90"/>
-      <c r="AJ44" s="117"/>
-      <c r="AK44" s="77"/>
-      <c r="AL44" s="90"/>
-      <c r="AM44" s="90"/>
-      <c r="AN44" s="90"/>
-      <c r="AO44" s="117"/>
-      <c r="AP44" s="143"/>
-      <c r="AQ44" s="143"/>
-      <c r="AR44" s="143"/>
-      <c r="AS44" s="143"/>
-      <c r="AT44" s="143"/>
-      <c r="AU44" s="143"/>
-      <c r="AV44" s="143"/>
-      <c r="AW44" s="143"/>
-      <c r="AX44" s="143"/>
-      <c r="AY44" s="143"/>
-      <c r="AZ44" s="143"/>
-      <c r="BA44" s="143"/>
-      <c r="BB44" s="143"/>
-      <c r="BC44" s="143"/>
-      <c r="BD44" s="143"/>
-      <c r="BE44" s="143"/>
-      <c r="BF44" s="143"/>
-      <c r="BG44" s="143"/>
-      <c r="BH44" s="143"/>
-      <c r="BI44" s="143"/>
-      <c r="BJ44" s="143"/>
-      <c r="BK44" s="143"/>
-      <c r="BL44" s="143"/>
-      <c r="BM44" s="143"/>
-      <c r="BN44" s="143"/>
-      <c r="BO44" s="143"/>
-      <c r="BP44" s="143"/>
-      <c r="BQ44" s="143"/>
-      <c r="BR44" s="143"/>
-      <c r="BS44" s="143"/>
-      <c r="BT44" s="143"/>
-      <c r="BU44" s="143"/>
-      <c r="BV44" s="143"/>
-      <c r="BW44" s="143"/>
-      <c r="BX44" s="143"/>
-      <c r="BY44" s="143"/>
-      <c r="BZ44" s="143"/>
-      <c r="CA44" s="143"/>
-      <c r="CB44" s="143"/>
-      <c r="CC44" s="150"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="91"/>
+      <c r="W44" s="91"/>
+      <c r="X44" s="91"/>
+      <c r="Y44" s="91"/>
+      <c r="Z44" s="91"/>
+      <c r="AA44" s="91"/>
+      <c r="AB44" s="91"/>
+      <c r="AC44" s="91"/>
+      <c r="AD44" s="119"/>
+      <c r="AE44" s="75"/>
+      <c r="AF44" s="91"/>
+      <c r="AG44" s="91"/>
+      <c r="AH44" s="91"/>
+      <c r="AI44" s="91"/>
+      <c r="AJ44" s="119"/>
+      <c r="AK44" s="75"/>
+      <c r="AL44" s="91"/>
+      <c r="AM44" s="91"/>
+      <c r="AN44" s="91"/>
+      <c r="AO44" s="119"/>
+      <c r="AP44" s="145"/>
+      <c r="AQ44" s="145"/>
+      <c r="AR44" s="145"/>
+      <c r="AS44" s="145"/>
+      <c r="AT44" s="145"/>
+      <c r="AU44" s="145"/>
+      <c r="AV44" s="145"/>
+      <c r="AW44" s="145"/>
+      <c r="AX44" s="145"/>
+      <c r="AY44" s="145"/>
+      <c r="AZ44" s="145"/>
+      <c r="BA44" s="145"/>
+      <c r="BB44" s="145"/>
+      <c r="BC44" s="145"/>
+      <c r="BD44" s="145"/>
+      <c r="BE44" s="145"/>
+      <c r="BF44" s="145"/>
+      <c r="BG44" s="145"/>
+      <c r="BH44" s="145"/>
+      <c r="BI44" s="145"/>
+      <c r="BJ44" s="145"/>
+      <c r="BK44" s="145"/>
+      <c r="BL44" s="145"/>
+      <c r="BM44" s="145"/>
+      <c r="BN44" s="145"/>
+      <c r="BO44" s="145"/>
+      <c r="BP44" s="145"/>
+      <c r="BQ44" s="145"/>
+      <c r="BR44" s="145"/>
+      <c r="BS44" s="145"/>
+      <c r="BT44" s="145"/>
+      <c r="BU44" s="145"/>
+      <c r="BV44" s="145"/>
+      <c r="BW44" s="145"/>
+      <c r="BX44" s="145"/>
+      <c r="BY44" s="145"/>
+      <c r="BZ44" s="145"/>
+      <c r="CA44" s="145"/>
+      <c r="CB44" s="145"/>
+      <c r="CC44" s="152"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A45" s="64">
+      <c r="A45" s="65">
         <v>2023</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="66" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="E45" s="66">
+        <v>2024</v>
+      </c>
+      <c r="F45" s="66"/>
+      <c r="G45" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="65">
-        <v>2024</v>
-      </c>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="69" t="s">
+      <c r="H45" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="67"/>
-      <c r="Z45" s="67"/>
-      <c r="AA45" s="67"/>
-      <c r="AB45" s="67"/>
-      <c r="AC45" s="67"/>
-      <c r="AD45" s="68"/>
-      <c r="AE45" s="115" t="s">
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="76"/>
+      <c r="AC45" s="76"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="AF45" s="67"/>
-      <c r="AG45" s="67"/>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="67"/>
-      <c r="AJ45" s="68"/>
-      <c r="AK45" s="115" t="s">
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="76"/>
+      <c r="AH45" s="76"/>
+      <c r="AI45" s="76"/>
+      <c r="AJ45" s="67"/>
+      <c r="AK45" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="AL45" s="67"/>
-      <c r="AM45" s="67"/>
-      <c r="AN45" s="67"/>
-      <c r="AO45" s="68"/>
-      <c r="AP45" s="143"/>
-      <c r="AQ45" s="143"/>
-      <c r="AR45" s="143"/>
-      <c r="AS45" s="143"/>
-      <c r="AT45" s="143"/>
-      <c r="AU45" s="143"/>
-      <c r="AV45" s="143"/>
-      <c r="AW45" s="143"/>
-      <c r="AX45" s="143"/>
-      <c r="AY45" s="143"/>
-      <c r="AZ45" s="143"/>
-      <c r="BA45" s="143"/>
-      <c r="BB45" s="143"/>
-      <c r="BC45" s="143"/>
-      <c r="BD45" s="143"/>
-      <c r="BE45" s="143"/>
-      <c r="BF45" s="143"/>
-      <c r="BG45" s="143"/>
-      <c r="BH45" s="143"/>
-      <c r="BI45" s="143"/>
-      <c r="BJ45" s="143"/>
-      <c r="BK45" s="143"/>
-      <c r="BL45" s="143"/>
-      <c r="BM45" s="143"/>
-      <c r="BN45" s="143"/>
-      <c r="BO45" s="143"/>
-      <c r="BP45" s="143"/>
-      <c r="BQ45" s="143"/>
-      <c r="BR45" s="143"/>
-      <c r="BS45" s="143"/>
-      <c r="BT45" s="143"/>
-      <c r="BU45" s="143"/>
-      <c r="BV45" s="143"/>
-      <c r="BW45" s="143"/>
-      <c r="BX45" s="143"/>
-      <c r="BY45" s="143"/>
-      <c r="BZ45" s="143"/>
-      <c r="CA45" s="143"/>
-      <c r="CB45" s="143"/>
-      <c r="CC45" s="150"/>
+      <c r="AL45" s="76"/>
+      <c r="AM45" s="76"/>
+      <c r="AN45" s="76"/>
+      <c r="AO45" s="67"/>
+      <c r="AP45" s="145"/>
+      <c r="AQ45" s="145"/>
+      <c r="AR45" s="145"/>
+      <c r="AS45" s="145"/>
+      <c r="AT45" s="145"/>
+      <c r="AU45" s="145"/>
+      <c r="AV45" s="145"/>
+      <c r="AW45" s="145"/>
+      <c r="AX45" s="145"/>
+      <c r="AY45" s="145"/>
+      <c r="AZ45" s="145"/>
+      <c r="BA45" s="145"/>
+      <c r="BB45" s="145"/>
+      <c r="BC45" s="145"/>
+      <c r="BD45" s="145"/>
+      <c r="BE45" s="145"/>
+      <c r="BF45" s="145"/>
+      <c r="BG45" s="145"/>
+      <c r="BH45" s="145"/>
+      <c r="BI45" s="145"/>
+      <c r="BJ45" s="145"/>
+      <c r="BK45" s="145"/>
+      <c r="BL45" s="145"/>
+      <c r="BM45" s="145"/>
+      <c r="BN45" s="145"/>
+      <c r="BO45" s="145"/>
+      <c r="BP45" s="145"/>
+      <c r="BQ45" s="145"/>
+      <c r="BR45" s="145"/>
+      <c r="BS45" s="145"/>
+      <c r="BT45" s="145"/>
+      <c r="BU45" s="145"/>
+      <c r="BV45" s="145"/>
+      <c r="BW45" s="145"/>
+      <c r="BX45" s="145"/>
+      <c r="BY45" s="145"/>
+      <c r="BZ45" s="145"/>
+      <c r="CA45" s="145"/>
+      <c r="CB45" s="145"/>
+      <c r="CC45" s="152"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A46" s="78"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="80"/>
+      <c r="A46" s="77"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="60"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="73" t="s">
+      <c r="G46" s="71"/>
+      <c r="H46" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="89"/>
-      <c r="S46" s="89"/>
-      <c r="T46" s="89"/>
-      <c r="U46" s="89"/>
-      <c r="V46" s="89"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="89"/>
-      <c r="AC46" s="89"/>
-      <c r="AD46" s="116"/>
-      <c r="AE46" s="75"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="90"/>
+      <c r="W46" s="90"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="90"/>
+      <c r="AA46" s="90"/>
+      <c r="AB46" s="90"/>
+      <c r="AC46" s="90"/>
+      <c r="AD46" s="118"/>
+      <c r="AE46" s="69"/>
       <c r="AF46" s="60"/>
       <c r="AG46" s="60"/>
       <c r="AH46" s="60"/>
       <c r="AI46" s="60"/>
-      <c r="AJ46" s="72"/>
-      <c r="AK46" s="75"/>
+      <c r="AJ46" s="71"/>
+      <c r="AK46" s="69"/>
       <c r="AL46" s="60"/>
       <c r="AM46" s="60"/>
       <c r="AN46" s="60"/>
-      <c r="AO46" s="72"/>
-      <c r="AP46" s="143"/>
-      <c r="AQ46" s="143"/>
-      <c r="AR46" s="143"/>
-      <c r="AS46" s="143"/>
-      <c r="AT46" s="143"/>
-      <c r="AU46" s="143"/>
-      <c r="AV46" s="143"/>
-      <c r="AW46" s="143"/>
-      <c r="AX46" s="143"/>
-      <c r="AY46" s="143"/>
-      <c r="AZ46" s="143"/>
-      <c r="BA46" s="143"/>
-      <c r="BB46" s="143"/>
-      <c r="BC46" s="143"/>
-      <c r="BD46" s="143"/>
-      <c r="BE46" s="143"/>
-      <c r="BF46" s="143"/>
-      <c r="BG46" s="143"/>
-      <c r="BH46" s="143"/>
-      <c r="BI46" s="143"/>
-      <c r="BJ46" s="143"/>
-      <c r="BK46" s="143"/>
-      <c r="BL46" s="143"/>
-      <c r="BM46" s="143"/>
-      <c r="BN46" s="143"/>
-      <c r="BO46" s="143"/>
-      <c r="BP46" s="143"/>
-      <c r="BQ46" s="143"/>
-      <c r="BR46" s="143"/>
-      <c r="BS46" s="143"/>
-      <c r="BT46" s="143"/>
-      <c r="BU46" s="143"/>
-      <c r="BV46" s="143"/>
-      <c r="BW46" s="143"/>
-      <c r="BX46" s="143"/>
-      <c r="BY46" s="143"/>
-      <c r="BZ46" s="143"/>
-      <c r="CA46" s="143"/>
-      <c r="CB46" s="143"/>
-      <c r="CC46" s="150"/>
+      <c r="AO46" s="71"/>
+      <c r="AP46" s="145"/>
+      <c r="AQ46" s="145"/>
+      <c r="AR46" s="145"/>
+      <c r="AS46" s="145"/>
+      <c r="AT46" s="145"/>
+      <c r="AU46" s="145"/>
+      <c r="AV46" s="145"/>
+      <c r="AW46" s="145"/>
+      <c r="AX46" s="145"/>
+      <c r="AY46" s="145"/>
+      <c r="AZ46" s="145"/>
+      <c r="BA46" s="145"/>
+      <c r="BB46" s="145"/>
+      <c r="BC46" s="145"/>
+      <c r="BD46" s="145"/>
+      <c r="BE46" s="145"/>
+      <c r="BF46" s="145"/>
+      <c r="BG46" s="145"/>
+      <c r="BH46" s="145"/>
+      <c r="BI46" s="145"/>
+      <c r="BJ46" s="145"/>
+      <c r="BK46" s="145"/>
+      <c r="BL46" s="145"/>
+      <c r="BM46" s="145"/>
+      <c r="BN46" s="145"/>
+      <c r="BO46" s="145"/>
+      <c r="BP46" s="145"/>
+      <c r="BQ46" s="145"/>
+      <c r="BR46" s="145"/>
+      <c r="BS46" s="145"/>
+      <c r="BT46" s="145"/>
+      <c r="BU46" s="145"/>
+      <c r="BV46" s="145"/>
+      <c r="BW46" s="145"/>
+      <c r="BX46" s="145"/>
+      <c r="BY46" s="145"/>
+      <c r="BZ46" s="145"/>
+      <c r="CA46" s="145"/>
+      <c r="CB46" s="145"/>
+      <c r="CC46" s="152"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="73" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="60"/>
@@ -5938,176 +5941,176 @@
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
       <c r="F47" s="60"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="89"/>
-      <c r="R47" s="89"/>
-      <c r="S47" s="89"/>
-      <c r="T47" s="89"/>
-      <c r="U47" s="89"/>
-      <c r="V47" s="89"/>
-      <c r="W47" s="89"/>
-      <c r="X47" s="89"/>
-      <c r="Y47" s="89"/>
-      <c r="Z47" s="89"/>
-      <c r="AA47" s="89"/>
-      <c r="AB47" s="89"/>
-      <c r="AC47" s="89"/>
-      <c r="AD47" s="116"/>
-      <c r="AE47" s="75"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="90"/>
+      <c r="W47" s="90"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="90"/>
+      <c r="AA47" s="90"/>
+      <c r="AB47" s="90"/>
+      <c r="AC47" s="90"/>
+      <c r="AD47" s="118"/>
+      <c r="AE47" s="69"/>
       <c r="AF47" s="60"/>
       <c r="AG47" s="60"/>
       <c r="AH47" s="60"/>
       <c r="AI47" s="60"/>
-      <c r="AJ47" s="72"/>
-      <c r="AK47" s="75"/>
+      <c r="AJ47" s="71"/>
+      <c r="AK47" s="69"/>
       <c r="AL47" s="60"/>
       <c r="AM47" s="60"/>
       <c r="AN47" s="60"/>
-      <c r="AO47" s="72"/>
-      <c r="AP47" s="143"/>
-      <c r="AQ47" s="143"/>
-      <c r="AR47" s="143"/>
-      <c r="AS47" s="143"/>
-      <c r="AT47" s="143"/>
-      <c r="AU47" s="143"/>
-      <c r="AV47" s="143"/>
-      <c r="AW47" s="143"/>
-      <c r="AX47" s="143"/>
-      <c r="AY47" s="143"/>
-      <c r="AZ47" s="143"/>
-      <c r="BA47" s="143"/>
-      <c r="BB47" s="143"/>
-      <c r="BC47" s="143"/>
-      <c r="BD47" s="143"/>
-      <c r="BE47" s="143"/>
-      <c r="BF47" s="143"/>
-      <c r="BG47" s="143"/>
-      <c r="BH47" s="143"/>
-      <c r="BI47" s="143"/>
-      <c r="BJ47" s="143"/>
-      <c r="BK47" s="143"/>
-      <c r="BL47" s="143"/>
-      <c r="BM47" s="143"/>
-      <c r="BN47" s="143"/>
-      <c r="BO47" s="143"/>
-      <c r="BP47" s="143"/>
-      <c r="BQ47" s="143"/>
-      <c r="BR47" s="143"/>
-      <c r="BS47" s="143"/>
-      <c r="BT47" s="143"/>
-      <c r="BU47" s="143"/>
-      <c r="BV47" s="143"/>
-      <c r="BW47" s="143"/>
-      <c r="BX47" s="143"/>
-      <c r="BY47" s="143"/>
-      <c r="BZ47" s="143"/>
-      <c r="CA47" s="143"/>
-      <c r="CB47" s="143"/>
-      <c r="CC47" s="150"/>
+      <c r="AO47" s="71"/>
+      <c r="AP47" s="145"/>
+      <c r="AQ47" s="145"/>
+      <c r="AR47" s="145"/>
+      <c r="AS47" s="145"/>
+      <c r="AT47" s="145"/>
+      <c r="AU47" s="145"/>
+      <c r="AV47" s="145"/>
+      <c r="AW47" s="145"/>
+      <c r="AX47" s="145"/>
+      <c r="AY47" s="145"/>
+      <c r="AZ47" s="145"/>
+      <c r="BA47" s="145"/>
+      <c r="BB47" s="145"/>
+      <c r="BC47" s="145"/>
+      <c r="BD47" s="145"/>
+      <c r="BE47" s="145"/>
+      <c r="BF47" s="145"/>
+      <c r="BG47" s="145"/>
+      <c r="BH47" s="145"/>
+      <c r="BI47" s="145"/>
+      <c r="BJ47" s="145"/>
+      <c r="BK47" s="145"/>
+      <c r="BL47" s="145"/>
+      <c r="BM47" s="145"/>
+      <c r="BN47" s="145"/>
+      <c r="BO47" s="145"/>
+      <c r="BP47" s="145"/>
+      <c r="BQ47" s="145"/>
+      <c r="BR47" s="145"/>
+      <c r="BS47" s="145"/>
+      <c r="BT47" s="145"/>
+      <c r="BU47" s="145"/>
+      <c r="BV47" s="145"/>
+      <c r="BW47" s="145"/>
+      <c r="BX47" s="145"/>
+      <c r="BY47" s="145"/>
+      <c r="BZ47" s="145"/>
+      <c r="CA47" s="145"/>
+      <c r="CB47" s="145"/>
+      <c r="CC47" s="152"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="76"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="60"/>
-      <c r="D48" s="76"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="60"/>
       <c r="F48" s="60"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="89"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="89"/>
-      <c r="V48" s="89"/>
-      <c r="W48" s="89"/>
-      <c r="X48" s="89"/>
-      <c r="Y48" s="89"/>
-      <c r="Z48" s="89"/>
-      <c r="AA48" s="89"/>
-      <c r="AB48" s="89"/>
-      <c r="AC48" s="89"/>
-      <c r="AD48" s="116"/>
-      <c r="AE48" s="75"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="90"/>
+      <c r="R48" s="90"/>
+      <c r="S48" s="90"/>
+      <c r="T48" s="90"/>
+      <c r="U48" s="90"/>
+      <c r="V48" s="90"/>
+      <c r="W48" s="90"/>
+      <c r="X48" s="90"/>
+      <c r="Y48" s="90"/>
+      <c r="Z48" s="90"/>
+      <c r="AA48" s="90"/>
+      <c r="AB48" s="90"/>
+      <c r="AC48" s="90"/>
+      <c r="AD48" s="118"/>
+      <c r="AE48" s="69"/>
       <c r="AF48" s="60"/>
       <c r="AG48" s="60"/>
       <c r="AH48" s="60"/>
       <c r="AI48" s="60"/>
-      <c r="AJ48" s="72"/>
-      <c r="AK48" s="75"/>
+      <c r="AJ48" s="71"/>
+      <c r="AK48" s="69"/>
       <c r="AL48" s="60"/>
       <c r="AM48" s="60"/>
       <c r="AN48" s="60"/>
-      <c r="AO48" s="72"/>
-      <c r="AP48" s="143"/>
-      <c r="AQ48" s="143"/>
-      <c r="AR48" s="143"/>
-      <c r="AS48" s="143"/>
-      <c r="AT48" s="143"/>
-      <c r="AU48" s="143"/>
-      <c r="AV48" s="143"/>
-      <c r="AW48" s="143"/>
-      <c r="AX48" s="143"/>
-      <c r="AY48" s="143"/>
-      <c r="AZ48" s="143"/>
-      <c r="BA48" s="143"/>
-      <c r="BB48" s="143"/>
-      <c r="BC48" s="143"/>
-      <c r="BD48" s="143"/>
-      <c r="BE48" s="143"/>
-      <c r="BF48" s="143"/>
-      <c r="BG48" s="143"/>
-      <c r="BH48" s="143"/>
-      <c r="BI48" s="143"/>
-      <c r="BJ48" s="143"/>
-      <c r="BK48" s="143"/>
-      <c r="BL48" s="143"/>
-      <c r="BM48" s="143"/>
-      <c r="BN48" s="143"/>
-      <c r="BO48" s="143"/>
-      <c r="BP48" s="143"/>
-      <c r="BQ48" s="143"/>
-      <c r="BR48" s="143"/>
-      <c r="BS48" s="143"/>
-      <c r="BT48" s="143"/>
-      <c r="BU48" s="143"/>
-      <c r="BV48" s="143"/>
-      <c r="BW48" s="143"/>
-      <c r="BX48" s="143"/>
-      <c r="BY48" s="143"/>
-      <c r="BZ48" s="143"/>
-      <c r="CA48" s="143"/>
-      <c r="CB48" s="143"/>
-      <c r="CC48" s="150"/>
+      <c r="AO48" s="71"/>
+      <c r="AP48" s="145"/>
+      <c r="AQ48" s="145"/>
+      <c r="AR48" s="145"/>
+      <c r="AS48" s="145"/>
+      <c r="AT48" s="145"/>
+      <c r="AU48" s="145"/>
+      <c r="AV48" s="145"/>
+      <c r="AW48" s="145"/>
+      <c r="AX48" s="145"/>
+      <c r="AY48" s="145"/>
+      <c r="AZ48" s="145"/>
+      <c r="BA48" s="145"/>
+      <c r="BB48" s="145"/>
+      <c r="BC48" s="145"/>
+      <c r="BD48" s="145"/>
+      <c r="BE48" s="145"/>
+      <c r="BF48" s="145"/>
+      <c r="BG48" s="145"/>
+      <c r="BH48" s="145"/>
+      <c r="BI48" s="145"/>
+      <c r="BJ48" s="145"/>
+      <c r="BK48" s="145"/>
+      <c r="BL48" s="145"/>
+      <c r="BM48" s="145"/>
+      <c r="BN48" s="145"/>
+      <c r="BO48" s="145"/>
+      <c r="BP48" s="145"/>
+      <c r="BQ48" s="145"/>
+      <c r="BR48" s="145"/>
+      <c r="BS48" s="145"/>
+      <c r="BT48" s="145"/>
+      <c r="BU48" s="145"/>
+      <c r="BV48" s="145"/>
+      <c r="BW48" s="145"/>
+      <c r="BX48" s="145"/>
+      <c r="BY48" s="145"/>
+      <c r="BZ48" s="145"/>
+      <c r="CA48" s="145"/>
+      <c r="CB48" s="145"/>
+      <c r="CC48" s="152"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A49" s="75"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
       <c r="F49" s="60"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="75" t="s">
+      <c r="G49" s="71"/>
+      <c r="H49" s="69" t="s">
         <v>47</v>
       </c>
       <c r="I49" s="60"/>
@@ -6131,68 +6134,68 @@
       <c r="AA49" s="60"/>
       <c r="AB49" s="60"/>
       <c r="AC49" s="60"/>
-      <c r="AD49" s="72"/>
-      <c r="AE49" s="75"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="69"/>
       <c r="AF49" s="60"/>
       <c r="AG49" s="60"/>
       <c r="AH49" s="60"/>
       <c r="AI49" s="60"/>
-      <c r="AJ49" s="72"/>
-      <c r="AK49" s="75"/>
+      <c r="AJ49" s="71"/>
+      <c r="AK49" s="69"/>
       <c r="AL49" s="60"/>
       <c r="AM49" s="60"/>
       <c r="AN49" s="60"/>
-      <c r="AO49" s="72"/>
-      <c r="AP49" s="143"/>
-      <c r="AQ49" s="143"/>
-      <c r="AR49" s="143"/>
-      <c r="AS49" s="143"/>
-      <c r="AT49" s="143"/>
-      <c r="AU49" s="143"/>
-      <c r="AV49" s="143"/>
-      <c r="AW49" s="143"/>
-      <c r="AX49" s="143"/>
-      <c r="AY49" s="143"/>
-      <c r="AZ49" s="143"/>
-      <c r="BA49" s="143"/>
-      <c r="BB49" s="143"/>
-      <c r="BC49" s="143"/>
-      <c r="BD49" s="143"/>
-      <c r="BE49" s="143"/>
-      <c r="BF49" s="143"/>
-      <c r="BG49" s="143"/>
-      <c r="BH49" s="143"/>
-      <c r="BI49" s="143"/>
-      <c r="BJ49" s="143"/>
-      <c r="BK49" s="143"/>
-      <c r="BL49" s="143"/>
-      <c r="BM49" s="143"/>
-      <c r="BN49" s="143"/>
-      <c r="BO49" s="143"/>
-      <c r="BP49" s="143"/>
-      <c r="BQ49" s="143"/>
-      <c r="BR49" s="143"/>
-      <c r="BS49" s="143"/>
-      <c r="BT49" s="143"/>
-      <c r="BU49" s="143"/>
-      <c r="BV49" s="143"/>
-      <c r="BW49" s="143"/>
-      <c r="BX49" s="143"/>
-      <c r="BY49" s="143"/>
-      <c r="BZ49" s="143"/>
-      <c r="CA49" s="143"/>
-      <c r="CB49" s="143"/>
-      <c r="CC49" s="150"/>
+      <c r="AO49" s="71"/>
+      <c r="AP49" s="145"/>
+      <c r="AQ49" s="145"/>
+      <c r="AR49" s="145"/>
+      <c r="AS49" s="145"/>
+      <c r="AT49" s="145"/>
+      <c r="AU49" s="145"/>
+      <c r="AV49" s="145"/>
+      <c r="AW49" s="145"/>
+      <c r="AX49" s="145"/>
+      <c r="AY49" s="145"/>
+      <c r="AZ49" s="145"/>
+      <c r="BA49" s="145"/>
+      <c r="BB49" s="145"/>
+      <c r="BC49" s="145"/>
+      <c r="BD49" s="145"/>
+      <c r="BE49" s="145"/>
+      <c r="BF49" s="145"/>
+      <c r="BG49" s="145"/>
+      <c r="BH49" s="145"/>
+      <c r="BI49" s="145"/>
+      <c r="BJ49" s="145"/>
+      <c r="BK49" s="145"/>
+      <c r="BL49" s="145"/>
+      <c r="BM49" s="145"/>
+      <c r="BN49" s="145"/>
+      <c r="BO49" s="145"/>
+      <c r="BP49" s="145"/>
+      <c r="BQ49" s="145"/>
+      <c r="BR49" s="145"/>
+      <c r="BS49" s="145"/>
+      <c r="BT49" s="145"/>
+      <c r="BU49" s="145"/>
+      <c r="BV49" s="145"/>
+      <c r="BW49" s="145"/>
+      <c r="BX49" s="145"/>
+      <c r="BY49" s="145"/>
+      <c r="BZ49" s="145"/>
+      <c r="CA49" s="145"/>
+      <c r="CB49" s="145"/>
+      <c r="CC49" s="152"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A50" s="75"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
       <c r="F50" s="60"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="152" t="s">
+      <c r="G50" s="71"/>
+      <c r="H50" s="153" t="s">
         <v>52</v>
       </c>
       <c r="I50" s="60"/>
@@ -6216,68 +6219,68 @@
       <c r="AA50" s="60"/>
       <c r="AB50" s="60"/>
       <c r="AC50" s="60"/>
-      <c r="AD50" s="72"/>
-      <c r="AE50" s="75"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="69"/>
       <c r="AF50" s="60"/>
       <c r="AG50" s="60"/>
       <c r="AH50" s="60"/>
       <c r="AI50" s="60"/>
-      <c r="AJ50" s="72"/>
-      <c r="AK50" s="75"/>
+      <c r="AJ50" s="71"/>
+      <c r="AK50" s="69"/>
       <c r="AL50" s="60"/>
       <c r="AM50" s="60"/>
       <c r="AN50" s="60"/>
-      <c r="AO50" s="72"/>
-      <c r="AP50" s="143"/>
-      <c r="AQ50" s="143"/>
-      <c r="AR50" s="143"/>
-      <c r="AS50" s="143"/>
-      <c r="AT50" s="143"/>
-      <c r="AU50" s="143"/>
-      <c r="AV50" s="143"/>
-      <c r="AW50" s="143"/>
-      <c r="AX50" s="143"/>
-      <c r="AY50" s="143"/>
-      <c r="AZ50" s="143"/>
-      <c r="BA50" s="143"/>
-      <c r="BB50" s="143"/>
-      <c r="BC50" s="143"/>
-      <c r="BD50" s="143"/>
-      <c r="BE50" s="143"/>
-      <c r="BF50" s="143"/>
-      <c r="BG50" s="143"/>
-      <c r="BH50" s="143"/>
-      <c r="BI50" s="143"/>
-      <c r="BJ50" s="143"/>
-      <c r="BK50" s="143"/>
-      <c r="BL50" s="143"/>
-      <c r="BM50" s="143"/>
-      <c r="BN50" s="143"/>
-      <c r="BO50" s="143"/>
-      <c r="BP50" s="143"/>
-      <c r="BQ50" s="143"/>
-      <c r="BR50" s="143"/>
-      <c r="BS50" s="143"/>
-      <c r="BT50" s="143"/>
-      <c r="BU50" s="143"/>
-      <c r="BV50" s="143"/>
-      <c r="BW50" s="143"/>
-      <c r="BX50" s="143"/>
-      <c r="BY50" s="143"/>
-      <c r="BZ50" s="143"/>
-      <c r="CA50" s="143"/>
-      <c r="CB50" s="143"/>
-      <c r="CC50" s="150"/>
+      <c r="AO50" s="71"/>
+      <c r="AP50" s="145"/>
+      <c r="AQ50" s="145"/>
+      <c r="AR50" s="145"/>
+      <c r="AS50" s="145"/>
+      <c r="AT50" s="145"/>
+      <c r="AU50" s="145"/>
+      <c r="AV50" s="145"/>
+      <c r="AW50" s="145"/>
+      <c r="AX50" s="145"/>
+      <c r="AY50" s="145"/>
+      <c r="AZ50" s="145"/>
+      <c r="BA50" s="145"/>
+      <c r="BB50" s="145"/>
+      <c r="BC50" s="145"/>
+      <c r="BD50" s="145"/>
+      <c r="BE50" s="145"/>
+      <c r="BF50" s="145"/>
+      <c r="BG50" s="145"/>
+      <c r="BH50" s="145"/>
+      <c r="BI50" s="145"/>
+      <c r="BJ50" s="145"/>
+      <c r="BK50" s="145"/>
+      <c r="BL50" s="145"/>
+      <c r="BM50" s="145"/>
+      <c r="BN50" s="145"/>
+      <c r="BO50" s="145"/>
+      <c r="BP50" s="145"/>
+      <c r="BQ50" s="145"/>
+      <c r="BR50" s="145"/>
+      <c r="BS50" s="145"/>
+      <c r="BT50" s="145"/>
+      <c r="BU50" s="145"/>
+      <c r="BV50" s="145"/>
+      <c r="BW50" s="145"/>
+      <c r="BX50" s="145"/>
+      <c r="BY50" s="145"/>
+      <c r="BZ50" s="145"/>
+      <c r="CA50" s="145"/>
+      <c r="CB50" s="145"/>
+      <c r="CC50" s="152"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A51" s="75"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
       <c r="F51" s="60"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="75"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="60"/>
       <c r="J51" s="60"/>
       <c r="K51" s="60"/>
@@ -6299,68 +6302,68 @@
       <c r="AA51" s="60"/>
       <c r="AB51" s="60"/>
       <c r="AC51" s="60"/>
-      <c r="AD51" s="72"/>
-      <c r="AE51" s="75"/>
+      <c r="AD51" s="71"/>
+      <c r="AE51" s="69"/>
       <c r="AF51" s="60"/>
       <c r="AG51" s="60"/>
       <c r="AH51" s="60"/>
       <c r="AI51" s="60"/>
-      <c r="AJ51" s="72"/>
-      <c r="AK51" s="75"/>
+      <c r="AJ51" s="71"/>
+      <c r="AK51" s="69"/>
       <c r="AL51" s="60"/>
       <c r="AM51" s="60"/>
       <c r="AN51" s="60"/>
-      <c r="AO51" s="72"/>
-      <c r="AP51" s="143"/>
-      <c r="AQ51" s="143"/>
-      <c r="AR51" s="143"/>
-      <c r="AS51" s="143"/>
-      <c r="AT51" s="143"/>
-      <c r="AU51" s="143"/>
-      <c r="AV51" s="143"/>
-      <c r="AW51" s="143"/>
-      <c r="AX51" s="143"/>
-      <c r="AY51" s="143"/>
-      <c r="AZ51" s="143"/>
-      <c r="BA51" s="143"/>
-      <c r="BB51" s="143"/>
-      <c r="BC51" s="143"/>
-      <c r="BD51" s="143"/>
-      <c r="BE51" s="143"/>
-      <c r="BF51" s="143"/>
-      <c r="BG51" s="143"/>
-      <c r="BH51" s="143"/>
-      <c r="BI51" s="143"/>
-      <c r="BJ51" s="143"/>
-      <c r="BK51" s="143"/>
-      <c r="BL51" s="143"/>
-      <c r="BM51" s="143"/>
-      <c r="BN51" s="143"/>
-      <c r="BO51" s="143"/>
-      <c r="BP51" s="143"/>
-      <c r="BQ51" s="143"/>
-      <c r="BR51" s="143"/>
-      <c r="BS51" s="143"/>
-      <c r="BT51" s="143"/>
-      <c r="BU51" s="143"/>
-      <c r="BV51" s="143"/>
-      <c r="BW51" s="143"/>
-      <c r="BX51" s="143"/>
-      <c r="BY51" s="143"/>
-      <c r="BZ51" s="143"/>
-      <c r="CA51" s="143"/>
-      <c r="CB51" s="143"/>
-      <c r="CC51" s="150"/>
+      <c r="AO51" s="71"/>
+      <c r="AP51" s="145"/>
+      <c r="AQ51" s="145"/>
+      <c r="AR51" s="145"/>
+      <c r="AS51" s="145"/>
+      <c r="AT51" s="145"/>
+      <c r="AU51" s="145"/>
+      <c r="AV51" s="145"/>
+      <c r="AW51" s="145"/>
+      <c r="AX51" s="145"/>
+      <c r="AY51" s="145"/>
+      <c r="AZ51" s="145"/>
+      <c r="BA51" s="145"/>
+      <c r="BB51" s="145"/>
+      <c r="BC51" s="145"/>
+      <c r="BD51" s="145"/>
+      <c r="BE51" s="145"/>
+      <c r="BF51" s="145"/>
+      <c r="BG51" s="145"/>
+      <c r="BH51" s="145"/>
+      <c r="BI51" s="145"/>
+      <c r="BJ51" s="145"/>
+      <c r="BK51" s="145"/>
+      <c r="BL51" s="145"/>
+      <c r="BM51" s="145"/>
+      <c r="BN51" s="145"/>
+      <c r="BO51" s="145"/>
+      <c r="BP51" s="145"/>
+      <c r="BQ51" s="145"/>
+      <c r="BR51" s="145"/>
+      <c r="BS51" s="145"/>
+      <c r="BT51" s="145"/>
+      <c r="BU51" s="145"/>
+      <c r="BV51" s="145"/>
+      <c r="BW51" s="145"/>
+      <c r="BX51" s="145"/>
+      <c r="BY51" s="145"/>
+      <c r="BZ51" s="145"/>
+      <c r="CA51" s="145"/>
+      <c r="CB51" s="145"/>
+      <c r="CC51" s="152"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A52" s="75"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="60"/>
       <c r="C52" s="60"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
       <c r="F52" s="60"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="75"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="69"/>
       <c r="I52" s="60"/>
       <c r="J52" s="60"/>
       <c r="K52" s="60"/>
@@ -6382,324 +6385,324 @@
       <c r="AA52" s="60"/>
       <c r="AB52" s="60"/>
       <c r="AC52" s="60"/>
-      <c r="AD52" s="72"/>
-      <c r="AE52" s="75"/>
+      <c r="AD52" s="71"/>
+      <c r="AE52" s="69"/>
       <c r="AF52" s="60"/>
       <c r="AG52" s="60"/>
       <c r="AH52" s="60"/>
       <c r="AI52" s="60"/>
-      <c r="AJ52" s="72"/>
-      <c r="AK52" s="75"/>
+      <c r="AJ52" s="71"/>
+      <c r="AK52" s="69"/>
       <c r="AL52" s="60"/>
       <c r="AM52" s="60"/>
       <c r="AN52" s="60"/>
-      <c r="AO52" s="72"/>
-      <c r="AP52" s="143"/>
-      <c r="AQ52" s="143"/>
-      <c r="AR52" s="143"/>
-      <c r="AS52" s="143"/>
-      <c r="AT52" s="143"/>
-      <c r="AU52" s="143"/>
-      <c r="AV52" s="143"/>
-      <c r="AW52" s="143"/>
-      <c r="AX52" s="143"/>
-      <c r="AY52" s="143"/>
-      <c r="AZ52" s="143"/>
-      <c r="BA52" s="143"/>
-      <c r="BB52" s="143"/>
-      <c r="BC52" s="143"/>
-      <c r="BD52" s="143"/>
-      <c r="BE52" s="143"/>
-      <c r="BF52" s="143"/>
-      <c r="BG52" s="143"/>
-      <c r="BH52" s="143"/>
-      <c r="BI52" s="143"/>
-      <c r="BJ52" s="143"/>
-      <c r="BK52" s="143"/>
-      <c r="BL52" s="143"/>
-      <c r="BM52" s="143"/>
-      <c r="BN52" s="143"/>
-      <c r="BO52" s="143"/>
-      <c r="BP52" s="143"/>
-      <c r="BQ52" s="143"/>
-      <c r="BR52" s="143"/>
-      <c r="BS52" s="143"/>
-      <c r="BT52" s="143"/>
-      <c r="BU52" s="143"/>
-      <c r="BV52" s="143"/>
-      <c r="BW52" s="143"/>
-      <c r="BX52" s="143"/>
-      <c r="BY52" s="143"/>
-      <c r="BZ52" s="143"/>
-      <c r="CA52" s="143"/>
-      <c r="CB52" s="143"/>
-      <c r="CC52" s="150"/>
+      <c r="AO52" s="71"/>
+      <c r="AP52" s="145"/>
+      <c r="AQ52" s="145"/>
+      <c r="AR52" s="145"/>
+      <c r="AS52" s="145"/>
+      <c r="AT52" s="145"/>
+      <c r="AU52" s="145"/>
+      <c r="AV52" s="145"/>
+      <c r="AW52" s="145"/>
+      <c r="AX52" s="145"/>
+      <c r="AY52" s="145"/>
+      <c r="AZ52" s="145"/>
+      <c r="BA52" s="145"/>
+      <c r="BB52" s="145"/>
+      <c r="BC52" s="145"/>
+      <c r="BD52" s="145"/>
+      <c r="BE52" s="145"/>
+      <c r="BF52" s="145"/>
+      <c r="BG52" s="145"/>
+      <c r="BH52" s="145"/>
+      <c r="BI52" s="145"/>
+      <c r="BJ52" s="145"/>
+      <c r="BK52" s="145"/>
+      <c r="BL52" s="145"/>
+      <c r="BM52" s="145"/>
+      <c r="BN52" s="145"/>
+      <c r="BO52" s="145"/>
+      <c r="BP52" s="145"/>
+      <c r="BQ52" s="145"/>
+      <c r="BR52" s="145"/>
+      <c r="BS52" s="145"/>
+      <c r="BT52" s="145"/>
+      <c r="BU52" s="145"/>
+      <c r="BV52" s="145"/>
+      <c r="BW52" s="145"/>
+      <c r="BX52" s="145"/>
+      <c r="BY52" s="145"/>
+      <c r="BZ52" s="145"/>
+      <c r="CA52" s="145"/>
+      <c r="CB52" s="145"/>
+      <c r="CC52" s="152"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A53" s="75"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="60"/>
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
       <c r="F53" s="60"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
-      <c r="V53" s="90"/>
-      <c r="W53" s="90"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="90"/>
-      <c r="Z53" s="90"/>
-      <c r="AA53" s="90"/>
-      <c r="AB53" s="90"/>
-      <c r="AC53" s="90"/>
-      <c r="AD53" s="117"/>
-      <c r="AE53" s="77"/>
-      <c r="AF53" s="90"/>
-      <c r="AG53" s="90"/>
-      <c r="AH53" s="90"/>
-      <c r="AI53" s="90"/>
-      <c r="AJ53" s="117"/>
-      <c r="AK53" s="77"/>
-      <c r="AL53" s="90"/>
-      <c r="AM53" s="90"/>
-      <c r="AN53" s="90"/>
-      <c r="AO53" s="117"/>
-      <c r="AP53" s="143"/>
-      <c r="AQ53" s="143"/>
-      <c r="AR53" s="143"/>
-      <c r="AS53" s="143"/>
-      <c r="AT53" s="143"/>
-      <c r="AU53" s="143"/>
-      <c r="AV53" s="143"/>
-      <c r="AW53" s="143"/>
-      <c r="AX53" s="143"/>
-      <c r="AY53" s="143"/>
-      <c r="AZ53" s="143"/>
-      <c r="BA53" s="143"/>
-      <c r="BB53" s="143"/>
-      <c r="BC53" s="143"/>
-      <c r="BD53" s="143"/>
-      <c r="BE53" s="143"/>
-      <c r="BF53" s="143"/>
-      <c r="BG53" s="143"/>
-      <c r="BH53" s="143"/>
-      <c r="BI53" s="143"/>
-      <c r="BJ53" s="143"/>
-      <c r="BK53" s="143"/>
-      <c r="BL53" s="143"/>
-      <c r="BM53" s="143"/>
-      <c r="BN53" s="143"/>
-      <c r="BO53" s="143"/>
-      <c r="BP53" s="143"/>
-      <c r="BQ53" s="143"/>
-      <c r="BR53" s="143"/>
-      <c r="BS53" s="143"/>
-      <c r="BT53" s="143"/>
-      <c r="BU53" s="143"/>
-      <c r="BV53" s="143"/>
-      <c r="BW53" s="143"/>
-      <c r="BX53" s="143"/>
-      <c r="BY53" s="143"/>
-      <c r="BZ53" s="143"/>
-      <c r="CA53" s="143"/>
-      <c r="CB53" s="143"/>
-      <c r="CC53" s="150"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="91"/>
+      <c r="P53" s="91"/>
+      <c r="Q53" s="91"/>
+      <c r="R53" s="91"/>
+      <c r="S53" s="91"/>
+      <c r="T53" s="91"/>
+      <c r="U53" s="91"/>
+      <c r="V53" s="91"/>
+      <c r="W53" s="91"/>
+      <c r="X53" s="91"/>
+      <c r="Y53" s="91"/>
+      <c r="Z53" s="91"/>
+      <c r="AA53" s="91"/>
+      <c r="AB53" s="91"/>
+      <c r="AC53" s="91"/>
+      <c r="AD53" s="119"/>
+      <c r="AE53" s="75"/>
+      <c r="AF53" s="91"/>
+      <c r="AG53" s="91"/>
+      <c r="AH53" s="91"/>
+      <c r="AI53" s="91"/>
+      <c r="AJ53" s="119"/>
+      <c r="AK53" s="75"/>
+      <c r="AL53" s="91"/>
+      <c r="AM53" s="91"/>
+      <c r="AN53" s="91"/>
+      <c r="AO53" s="119"/>
+      <c r="AP53" s="145"/>
+      <c r="AQ53" s="145"/>
+      <c r="AR53" s="145"/>
+      <c r="AS53" s="145"/>
+      <c r="AT53" s="145"/>
+      <c r="AU53" s="145"/>
+      <c r="AV53" s="145"/>
+      <c r="AW53" s="145"/>
+      <c r="AX53" s="145"/>
+      <c r="AY53" s="145"/>
+      <c r="AZ53" s="145"/>
+      <c r="BA53" s="145"/>
+      <c r="BB53" s="145"/>
+      <c r="BC53" s="145"/>
+      <c r="BD53" s="145"/>
+      <c r="BE53" s="145"/>
+      <c r="BF53" s="145"/>
+      <c r="BG53" s="145"/>
+      <c r="BH53" s="145"/>
+      <c r="BI53" s="145"/>
+      <c r="BJ53" s="145"/>
+      <c r="BK53" s="145"/>
+      <c r="BL53" s="145"/>
+      <c r="BM53" s="145"/>
+      <c r="BN53" s="145"/>
+      <c r="BO53" s="145"/>
+      <c r="BP53" s="145"/>
+      <c r="BQ53" s="145"/>
+      <c r="BR53" s="145"/>
+      <c r="BS53" s="145"/>
+      <c r="BT53" s="145"/>
+      <c r="BU53" s="145"/>
+      <c r="BV53" s="145"/>
+      <c r="BW53" s="145"/>
+      <c r="BX53" s="145"/>
+      <c r="BY53" s="145"/>
+      <c r="BZ53" s="145"/>
+      <c r="CA53" s="145"/>
+      <c r="CB53" s="145"/>
+      <c r="CC53" s="152"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A54" s="64">
+      <c r="A54" s="65">
         <v>2023</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="66" t="s">
+      <c r="B54" s="66"/>
+      <c r="C54" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="68"/>
-      <c r="H54" s="69" t="s">
+      <c r="G54" s="67"/>
+      <c r="H54" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="68"/>
-      <c r="AE54" s="115" t="s">
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="76"/>
+      <c r="V54" s="76"/>
+      <c r="W54" s="76"/>
+      <c r="X54" s="76"/>
+      <c r="Y54" s="76"/>
+      <c r="Z54" s="76"/>
+      <c r="AA54" s="76"/>
+      <c r="AB54" s="76"/>
+      <c r="AC54" s="76"/>
+      <c r="AD54" s="67"/>
+      <c r="AE54" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="AF54" s="67"/>
-      <c r="AG54" s="67"/>
-      <c r="AH54" s="67"/>
-      <c r="AI54" s="67"/>
-      <c r="AJ54" s="68"/>
-      <c r="AK54" s="115" t="s">
+      <c r="AF54" s="76"/>
+      <c r="AG54" s="76"/>
+      <c r="AH54" s="76"/>
+      <c r="AI54" s="76"/>
+      <c r="AJ54" s="67"/>
+      <c r="AK54" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="AL54" s="67"/>
-      <c r="AM54" s="67"/>
-      <c r="AN54" s="67"/>
-      <c r="AO54" s="68"/>
-      <c r="AP54" s="143"/>
-      <c r="AQ54" s="143"/>
-      <c r="AR54" s="143"/>
-      <c r="AS54" s="143"/>
-      <c r="AT54" s="143"/>
-      <c r="AU54" s="143"/>
-      <c r="AV54" s="143"/>
-      <c r="AW54" s="143"/>
-      <c r="AX54" s="143"/>
-      <c r="AY54" s="143"/>
-      <c r="AZ54" s="143"/>
-      <c r="BA54" s="143"/>
-      <c r="BB54" s="143"/>
-      <c r="BC54" s="143"/>
-      <c r="BD54" s="143"/>
-      <c r="BE54" s="143"/>
-      <c r="BF54" s="143"/>
-      <c r="BG54" s="143"/>
-      <c r="BH54" s="143"/>
-      <c r="BI54" s="143"/>
-      <c r="BJ54" s="143"/>
-      <c r="BK54" s="143"/>
-      <c r="BL54" s="143"/>
-      <c r="BM54" s="143"/>
-      <c r="BN54" s="143"/>
-      <c r="BO54" s="143"/>
-      <c r="BP54" s="143"/>
-      <c r="BQ54" s="143"/>
-      <c r="BR54" s="143"/>
-      <c r="BS54" s="143"/>
-      <c r="BT54" s="143"/>
-      <c r="BU54" s="143"/>
-      <c r="BV54" s="143"/>
-      <c r="BW54" s="143"/>
-      <c r="BX54" s="143"/>
-      <c r="BY54" s="143"/>
-      <c r="BZ54" s="143"/>
-      <c r="CA54" s="143"/>
-      <c r="CB54" s="143"/>
-      <c r="CC54" s="150"/>
+      <c r="AL54" s="76"/>
+      <c r="AM54" s="76"/>
+      <c r="AN54" s="76"/>
+      <c r="AO54" s="67"/>
+      <c r="AP54" s="145"/>
+      <c r="AQ54" s="145"/>
+      <c r="AR54" s="145"/>
+      <c r="AS54" s="145"/>
+      <c r="AT54" s="145"/>
+      <c r="AU54" s="145"/>
+      <c r="AV54" s="145"/>
+      <c r="AW54" s="145"/>
+      <c r="AX54" s="145"/>
+      <c r="AY54" s="145"/>
+      <c r="AZ54" s="145"/>
+      <c r="BA54" s="145"/>
+      <c r="BB54" s="145"/>
+      <c r="BC54" s="145"/>
+      <c r="BD54" s="145"/>
+      <c r="BE54" s="145"/>
+      <c r="BF54" s="145"/>
+      <c r="BG54" s="145"/>
+      <c r="BH54" s="145"/>
+      <c r="BI54" s="145"/>
+      <c r="BJ54" s="145"/>
+      <c r="BK54" s="145"/>
+      <c r="BL54" s="145"/>
+      <c r="BM54" s="145"/>
+      <c r="BN54" s="145"/>
+      <c r="BO54" s="145"/>
+      <c r="BP54" s="145"/>
+      <c r="BQ54" s="145"/>
+      <c r="BR54" s="145"/>
+      <c r="BS54" s="145"/>
+      <c r="BT54" s="145"/>
+      <c r="BU54" s="145"/>
+      <c r="BV54" s="145"/>
+      <c r="BW54" s="145"/>
+      <c r="BX54" s="145"/>
+      <c r="BY54" s="145"/>
+      <c r="BZ54" s="145"/>
+      <c r="CA54" s="145"/>
+      <c r="CB54" s="145"/>
+      <c r="CC54" s="152"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A55" s="70"/>
+      <c r="A55" s="80"/>
       <c r="B55" s="23"/>
       <c r="C55" s="60"/>
-      <c r="D55" s="71"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="60"/>
       <c r="F55" s="60"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="73" t="s">
+      <c r="G55" s="71"/>
+      <c r="H55" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="I55" s="89"/>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="89"/>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="89"/>
-      <c r="S55" s="89"/>
-      <c r="T55" s="89"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="89"/>
-      <c r="W55" s="89"/>
-      <c r="X55" s="89"/>
-      <c r="Y55" s="89"/>
-      <c r="Z55" s="89"/>
-      <c r="AA55" s="89"/>
-      <c r="AB55" s="89"/>
-      <c r="AC55" s="89"/>
-      <c r="AD55" s="116"/>
-      <c r="AE55" s="75"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="90"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="90"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="90"/>
+      <c r="AA55" s="90"/>
+      <c r="AB55" s="90"/>
+      <c r="AC55" s="90"/>
+      <c r="AD55" s="118"/>
+      <c r="AE55" s="69"/>
       <c r="AF55" s="60"/>
       <c r="AG55" s="60"/>
       <c r="AH55" s="60"/>
       <c r="AI55" s="60"/>
-      <c r="AJ55" s="72"/>
-      <c r="AK55" s="75"/>
+      <c r="AJ55" s="71"/>
+      <c r="AK55" s="69"/>
       <c r="AL55" s="60"/>
       <c r="AM55" s="60"/>
       <c r="AN55" s="60"/>
-      <c r="AO55" s="72"/>
-      <c r="AP55" s="143"/>
-      <c r="AQ55" s="143"/>
-      <c r="AR55" s="143"/>
-      <c r="AS55" s="143"/>
-      <c r="AT55" s="143"/>
-      <c r="AU55" s="143"/>
-      <c r="AV55" s="143"/>
-      <c r="AW55" s="143"/>
-      <c r="AX55" s="143"/>
-      <c r="AY55" s="143"/>
-      <c r="AZ55" s="143"/>
-      <c r="BA55" s="143"/>
-      <c r="BB55" s="143"/>
-      <c r="BC55" s="143"/>
-      <c r="BD55" s="143"/>
-      <c r="BE55" s="143"/>
-      <c r="BF55" s="143"/>
-      <c r="BG55" s="143"/>
-      <c r="BH55" s="143"/>
-      <c r="BI55" s="143"/>
-      <c r="BJ55" s="143"/>
-      <c r="BK55" s="143"/>
-      <c r="BL55" s="143"/>
-      <c r="BM55" s="143"/>
-      <c r="BN55" s="143"/>
-      <c r="BO55" s="143"/>
-      <c r="BP55" s="143"/>
-      <c r="BQ55" s="143"/>
-      <c r="BR55" s="143"/>
-      <c r="BS55" s="143"/>
-      <c r="BT55" s="143"/>
-      <c r="BU55" s="143"/>
-      <c r="BV55" s="143"/>
-      <c r="BW55" s="143"/>
-      <c r="BX55" s="143"/>
-      <c r="BY55" s="143"/>
-      <c r="BZ55" s="143"/>
-      <c r="CA55" s="143"/>
-      <c r="CB55" s="143"/>
-      <c r="CC55" s="150"/>
+      <c r="AO55" s="71"/>
+      <c r="AP55" s="145"/>
+      <c r="AQ55" s="145"/>
+      <c r="AR55" s="145"/>
+      <c r="AS55" s="145"/>
+      <c r="AT55" s="145"/>
+      <c r="AU55" s="145"/>
+      <c r="AV55" s="145"/>
+      <c r="AW55" s="145"/>
+      <c r="AX55" s="145"/>
+      <c r="AY55" s="145"/>
+      <c r="AZ55" s="145"/>
+      <c r="BA55" s="145"/>
+      <c r="BB55" s="145"/>
+      <c r="BC55" s="145"/>
+      <c r="BD55" s="145"/>
+      <c r="BE55" s="145"/>
+      <c r="BF55" s="145"/>
+      <c r="BG55" s="145"/>
+      <c r="BH55" s="145"/>
+      <c r="BI55" s="145"/>
+      <c r="BJ55" s="145"/>
+      <c r="BK55" s="145"/>
+      <c r="BL55" s="145"/>
+      <c r="BM55" s="145"/>
+      <c r="BN55" s="145"/>
+      <c r="BO55" s="145"/>
+      <c r="BP55" s="145"/>
+      <c r="BQ55" s="145"/>
+      <c r="BR55" s="145"/>
+      <c r="BS55" s="145"/>
+      <c r="BT55" s="145"/>
+      <c r="BU55" s="145"/>
+      <c r="BV55" s="145"/>
+      <c r="BW55" s="145"/>
+      <c r="BX55" s="145"/>
+      <c r="BY55" s="145"/>
+      <c r="BZ55" s="145"/>
+      <c r="CA55" s="145"/>
+      <c r="CB55" s="145"/>
+      <c r="CC55" s="152"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="73" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="60"/>
@@ -6707,176 +6710,176 @@
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
       <c r="F56" s="60"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="89"/>
-      <c r="Q56" s="89"/>
-      <c r="R56" s="89"/>
-      <c r="S56" s="89"/>
-      <c r="T56" s="89"/>
-      <c r="U56" s="89"/>
-      <c r="V56" s="89"/>
-      <c r="W56" s="89"/>
-      <c r="X56" s="89"/>
-      <c r="Y56" s="89"/>
-      <c r="Z56" s="89"/>
-      <c r="AA56" s="89"/>
-      <c r="AB56" s="89"/>
-      <c r="AC56" s="89"/>
-      <c r="AD56" s="116"/>
-      <c r="AE56" s="75"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="90"/>
+      <c r="T56" s="90"/>
+      <c r="U56" s="90"/>
+      <c r="V56" s="90"/>
+      <c r="W56" s="90"/>
+      <c r="X56" s="90"/>
+      <c r="Y56" s="90"/>
+      <c r="Z56" s="90"/>
+      <c r="AA56" s="90"/>
+      <c r="AB56" s="90"/>
+      <c r="AC56" s="90"/>
+      <c r="AD56" s="118"/>
+      <c r="AE56" s="69"/>
       <c r="AF56" s="60"/>
       <c r="AG56" s="60"/>
       <c r="AH56" s="60"/>
       <c r="AI56" s="60"/>
-      <c r="AJ56" s="72"/>
-      <c r="AK56" s="75"/>
+      <c r="AJ56" s="71"/>
+      <c r="AK56" s="69"/>
       <c r="AL56" s="60"/>
       <c r="AM56" s="60"/>
       <c r="AN56" s="60"/>
-      <c r="AO56" s="72"/>
-      <c r="AP56" s="143"/>
-      <c r="AQ56" s="143"/>
-      <c r="AR56" s="143"/>
-      <c r="AS56" s="143"/>
-      <c r="AT56" s="143"/>
-      <c r="AU56" s="143"/>
-      <c r="AV56" s="143"/>
-      <c r="AW56" s="143"/>
-      <c r="AX56" s="143"/>
-      <c r="AY56" s="143"/>
-      <c r="AZ56" s="143"/>
-      <c r="BA56" s="143"/>
-      <c r="BB56" s="143"/>
-      <c r="BC56" s="143"/>
-      <c r="BD56" s="143"/>
-      <c r="BE56" s="143"/>
-      <c r="BF56" s="143"/>
-      <c r="BG56" s="143"/>
-      <c r="BH56" s="143"/>
-      <c r="BI56" s="143"/>
-      <c r="BJ56" s="143"/>
-      <c r="BK56" s="143"/>
-      <c r="BL56" s="143"/>
-      <c r="BM56" s="143"/>
-      <c r="BN56" s="143"/>
-      <c r="BO56" s="143"/>
-      <c r="BP56" s="143"/>
-      <c r="BQ56" s="143"/>
-      <c r="BR56" s="143"/>
-      <c r="BS56" s="143"/>
-      <c r="BT56" s="143"/>
-      <c r="BU56" s="143"/>
-      <c r="BV56" s="143"/>
-      <c r="BW56" s="143"/>
-      <c r="BX56" s="143"/>
-      <c r="BY56" s="143"/>
-      <c r="BZ56" s="143"/>
-      <c r="CA56" s="143"/>
-      <c r="CB56" s="143"/>
-      <c r="CC56" s="150"/>
+      <c r="AO56" s="71"/>
+      <c r="AP56" s="145"/>
+      <c r="AQ56" s="145"/>
+      <c r="AR56" s="145"/>
+      <c r="AS56" s="145"/>
+      <c r="AT56" s="145"/>
+      <c r="AU56" s="145"/>
+      <c r="AV56" s="145"/>
+      <c r="AW56" s="145"/>
+      <c r="AX56" s="145"/>
+      <c r="AY56" s="145"/>
+      <c r="AZ56" s="145"/>
+      <c r="BA56" s="145"/>
+      <c r="BB56" s="145"/>
+      <c r="BC56" s="145"/>
+      <c r="BD56" s="145"/>
+      <c r="BE56" s="145"/>
+      <c r="BF56" s="145"/>
+      <c r="BG56" s="145"/>
+      <c r="BH56" s="145"/>
+      <c r="BI56" s="145"/>
+      <c r="BJ56" s="145"/>
+      <c r="BK56" s="145"/>
+      <c r="BL56" s="145"/>
+      <c r="BM56" s="145"/>
+      <c r="BN56" s="145"/>
+      <c r="BO56" s="145"/>
+      <c r="BP56" s="145"/>
+      <c r="BQ56" s="145"/>
+      <c r="BR56" s="145"/>
+      <c r="BS56" s="145"/>
+      <c r="BT56" s="145"/>
+      <c r="BU56" s="145"/>
+      <c r="BV56" s="145"/>
+      <c r="BW56" s="145"/>
+      <c r="BX56" s="145"/>
+      <c r="BY56" s="145"/>
+      <c r="BZ56" s="145"/>
+      <c r="CA56" s="145"/>
+      <c r="CB56" s="145"/>
+      <c r="CC56" s="152"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="76"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="60"/>
-      <c r="D57" s="76"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="60"/>
       <c r="F57" s="60"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="89"/>
-      <c r="M57" s="89"/>
-      <c r="N57" s="89"/>
-      <c r="O57" s="89"/>
-      <c r="P57" s="89"/>
-      <c r="Q57" s="89"/>
-      <c r="R57" s="89"/>
-      <c r="S57" s="89"/>
-      <c r="T57" s="89"/>
-      <c r="U57" s="89"/>
-      <c r="V57" s="89"/>
-      <c r="W57" s="89"/>
-      <c r="X57" s="89"/>
-      <c r="Y57" s="89"/>
-      <c r="Z57" s="89"/>
-      <c r="AA57" s="89"/>
-      <c r="AB57" s="89"/>
-      <c r="AC57" s="89"/>
-      <c r="AD57" s="116"/>
-      <c r="AE57" s="75"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
+      <c r="X57" s="90"/>
+      <c r="Y57" s="90"/>
+      <c r="Z57" s="90"/>
+      <c r="AA57" s="90"/>
+      <c r="AB57" s="90"/>
+      <c r="AC57" s="90"/>
+      <c r="AD57" s="118"/>
+      <c r="AE57" s="69"/>
       <c r="AF57" s="60"/>
       <c r="AG57" s="60"/>
       <c r="AH57" s="60"/>
       <c r="AI57" s="60"/>
-      <c r="AJ57" s="72"/>
-      <c r="AK57" s="75"/>
+      <c r="AJ57" s="71"/>
+      <c r="AK57" s="69"/>
       <c r="AL57" s="60"/>
       <c r="AM57" s="60"/>
       <c r="AN57" s="60"/>
-      <c r="AO57" s="72"/>
-      <c r="AP57" s="143"/>
-      <c r="AQ57" s="143"/>
-      <c r="AR57" s="143"/>
-      <c r="AS57" s="143"/>
-      <c r="AT57" s="143"/>
-      <c r="AU57" s="143"/>
-      <c r="AV57" s="143"/>
-      <c r="AW57" s="143"/>
-      <c r="AX57" s="143"/>
-      <c r="AY57" s="143"/>
-      <c r="AZ57" s="143"/>
-      <c r="BA57" s="143"/>
-      <c r="BB57" s="143"/>
-      <c r="BC57" s="143"/>
-      <c r="BD57" s="143"/>
-      <c r="BE57" s="143"/>
-      <c r="BF57" s="143"/>
-      <c r="BG57" s="143"/>
-      <c r="BH57" s="143"/>
-      <c r="BI57" s="143"/>
-      <c r="BJ57" s="143"/>
-      <c r="BK57" s="143"/>
-      <c r="BL57" s="143"/>
-      <c r="BM57" s="143"/>
-      <c r="BN57" s="143"/>
-      <c r="BO57" s="143"/>
-      <c r="BP57" s="143"/>
-      <c r="BQ57" s="143"/>
-      <c r="BR57" s="143"/>
-      <c r="BS57" s="143"/>
-      <c r="BT57" s="143"/>
-      <c r="BU57" s="143"/>
-      <c r="BV57" s="143"/>
-      <c r="BW57" s="143"/>
-      <c r="BX57" s="143"/>
-      <c r="BY57" s="143"/>
-      <c r="BZ57" s="143"/>
-      <c r="CA57" s="143"/>
-      <c r="CB57" s="143"/>
-      <c r="CC57" s="150"/>
+      <c r="AO57" s="71"/>
+      <c r="AP57" s="145"/>
+      <c r="AQ57" s="145"/>
+      <c r="AR57" s="145"/>
+      <c r="AS57" s="145"/>
+      <c r="AT57" s="145"/>
+      <c r="AU57" s="145"/>
+      <c r="AV57" s="145"/>
+      <c r="AW57" s="145"/>
+      <c r="AX57" s="145"/>
+      <c r="AY57" s="145"/>
+      <c r="AZ57" s="145"/>
+      <c r="BA57" s="145"/>
+      <c r="BB57" s="145"/>
+      <c r="BC57" s="145"/>
+      <c r="BD57" s="145"/>
+      <c r="BE57" s="145"/>
+      <c r="BF57" s="145"/>
+      <c r="BG57" s="145"/>
+      <c r="BH57" s="145"/>
+      <c r="BI57" s="145"/>
+      <c r="BJ57" s="145"/>
+      <c r="BK57" s="145"/>
+      <c r="BL57" s="145"/>
+      <c r="BM57" s="145"/>
+      <c r="BN57" s="145"/>
+      <c r="BO57" s="145"/>
+      <c r="BP57" s="145"/>
+      <c r="BQ57" s="145"/>
+      <c r="BR57" s="145"/>
+      <c r="BS57" s="145"/>
+      <c r="BT57" s="145"/>
+      <c r="BU57" s="145"/>
+      <c r="BV57" s="145"/>
+      <c r="BW57" s="145"/>
+      <c r="BX57" s="145"/>
+      <c r="BY57" s="145"/>
+      <c r="BZ57" s="145"/>
+      <c r="CA57" s="145"/>
+      <c r="CB57" s="145"/>
+      <c r="CC57" s="152"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A58" s="75"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
       <c r="F58" s="60"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="75" t="s">
+      <c r="G58" s="71"/>
+      <c r="H58" s="69" t="s">
         <v>47</v>
       </c>
       <c r="I58" s="60"/>
@@ -6900,68 +6903,68 @@
       <c r="AA58" s="60"/>
       <c r="AB58" s="60"/>
       <c r="AC58" s="60"/>
-      <c r="AD58" s="72"/>
-      <c r="AE58" s="75"/>
+      <c r="AD58" s="71"/>
+      <c r="AE58" s="69"/>
       <c r="AF58" s="60"/>
       <c r="AG58" s="60"/>
       <c r="AH58" s="60"/>
       <c r="AI58" s="60"/>
-      <c r="AJ58" s="72"/>
-      <c r="AK58" s="75"/>
+      <c r="AJ58" s="71"/>
+      <c r="AK58" s="69"/>
       <c r="AL58" s="60"/>
       <c r="AM58" s="60"/>
       <c r="AN58" s="60"/>
-      <c r="AO58" s="72"/>
-      <c r="AP58" s="143"/>
-      <c r="AQ58" s="143"/>
-      <c r="AR58" s="143"/>
-      <c r="AS58" s="143"/>
-      <c r="AT58" s="143"/>
-      <c r="AU58" s="143"/>
-      <c r="AV58" s="143"/>
-      <c r="AW58" s="143"/>
-      <c r="AX58" s="143"/>
-      <c r="AY58" s="143"/>
-      <c r="AZ58" s="143"/>
-      <c r="BA58" s="143"/>
-      <c r="BB58" s="143"/>
-      <c r="BC58" s="143"/>
-      <c r="BD58" s="143"/>
-      <c r="BE58" s="143"/>
-      <c r="BF58" s="143"/>
-      <c r="BG58" s="143"/>
-      <c r="BH58" s="143"/>
-      <c r="BI58" s="143"/>
-      <c r="BJ58" s="143"/>
-      <c r="BK58" s="143"/>
-      <c r="BL58" s="143"/>
-      <c r="BM58" s="143"/>
-      <c r="BN58" s="143"/>
-      <c r="BO58" s="143"/>
-      <c r="BP58" s="143"/>
-      <c r="BQ58" s="143"/>
-      <c r="BR58" s="143"/>
-      <c r="BS58" s="143"/>
-      <c r="BT58" s="143"/>
-      <c r="BU58" s="143"/>
-      <c r="BV58" s="143"/>
-      <c r="BW58" s="143"/>
-      <c r="BX58" s="143"/>
-      <c r="BY58" s="143"/>
-      <c r="BZ58" s="143"/>
-      <c r="CA58" s="143"/>
-      <c r="CB58" s="143"/>
-      <c r="CC58" s="150"/>
+      <c r="AO58" s="71"/>
+      <c r="AP58" s="145"/>
+      <c r="AQ58" s="145"/>
+      <c r="AR58" s="145"/>
+      <c r="AS58" s="145"/>
+      <c r="AT58" s="145"/>
+      <c r="AU58" s="145"/>
+      <c r="AV58" s="145"/>
+      <c r="AW58" s="145"/>
+      <c r="AX58" s="145"/>
+      <c r="AY58" s="145"/>
+      <c r="AZ58" s="145"/>
+      <c r="BA58" s="145"/>
+      <c r="BB58" s="145"/>
+      <c r="BC58" s="145"/>
+      <c r="BD58" s="145"/>
+      <c r="BE58" s="145"/>
+      <c r="BF58" s="145"/>
+      <c r="BG58" s="145"/>
+      <c r="BH58" s="145"/>
+      <c r="BI58" s="145"/>
+      <c r="BJ58" s="145"/>
+      <c r="BK58" s="145"/>
+      <c r="BL58" s="145"/>
+      <c r="BM58" s="145"/>
+      <c r="BN58" s="145"/>
+      <c r="BO58" s="145"/>
+      <c r="BP58" s="145"/>
+      <c r="BQ58" s="145"/>
+      <c r="BR58" s="145"/>
+      <c r="BS58" s="145"/>
+      <c r="BT58" s="145"/>
+      <c r="BU58" s="145"/>
+      <c r="BV58" s="145"/>
+      <c r="BW58" s="145"/>
+      <c r="BX58" s="145"/>
+      <c r="BY58" s="145"/>
+      <c r="BZ58" s="145"/>
+      <c r="CA58" s="145"/>
+      <c r="CB58" s="145"/>
+      <c r="CC58" s="152"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A59" s="75"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="60"/>
       <c r="C59" s="60"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
       <c r="F59" s="60"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="152" t="s">
+      <c r="G59" s="71"/>
+      <c r="H59" s="153" t="s">
         <v>58</v>
       </c>
       <c r="I59" s="60"/>
@@ -6985,68 +6988,68 @@
       <c r="AA59" s="60"/>
       <c r="AB59" s="60"/>
       <c r="AC59" s="60"/>
-      <c r="AD59" s="72"/>
-      <c r="AE59" s="75"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="69"/>
       <c r="AF59" s="60"/>
       <c r="AG59" s="60"/>
       <c r="AH59" s="60"/>
       <c r="AI59" s="60"/>
-      <c r="AJ59" s="72"/>
-      <c r="AK59" s="75"/>
+      <c r="AJ59" s="71"/>
+      <c r="AK59" s="69"/>
       <c r="AL59" s="60"/>
       <c r="AM59" s="60"/>
       <c r="AN59" s="60"/>
-      <c r="AO59" s="72"/>
-      <c r="AP59" s="143"/>
-      <c r="AQ59" s="143"/>
-      <c r="AR59" s="143"/>
-      <c r="AS59" s="143"/>
-      <c r="AT59" s="143"/>
-      <c r="AU59" s="143"/>
-      <c r="AV59" s="143"/>
-      <c r="AW59" s="143"/>
-      <c r="AX59" s="143"/>
-      <c r="AY59" s="143"/>
-      <c r="AZ59" s="143"/>
-      <c r="BA59" s="143"/>
-      <c r="BB59" s="143"/>
-      <c r="BC59" s="143"/>
-      <c r="BD59" s="143"/>
-      <c r="BE59" s="143"/>
-      <c r="BF59" s="143"/>
-      <c r="BG59" s="143"/>
-      <c r="BH59" s="143"/>
-      <c r="BI59" s="143"/>
-      <c r="BJ59" s="143"/>
-      <c r="BK59" s="143"/>
-      <c r="BL59" s="143"/>
-      <c r="BM59" s="143"/>
-      <c r="BN59" s="143"/>
-      <c r="BO59" s="143"/>
-      <c r="BP59" s="143"/>
-      <c r="BQ59" s="143"/>
-      <c r="BR59" s="143"/>
-      <c r="BS59" s="143"/>
-      <c r="BT59" s="143"/>
-      <c r="BU59" s="143"/>
-      <c r="BV59" s="143"/>
-      <c r="BW59" s="143"/>
-      <c r="BX59" s="143"/>
-      <c r="BY59" s="143"/>
-      <c r="BZ59" s="143"/>
-      <c r="CA59" s="143"/>
-      <c r="CB59" s="143"/>
-      <c r="CC59" s="150"/>
+      <c r="AO59" s="71"/>
+      <c r="AP59" s="145"/>
+      <c r="AQ59" s="145"/>
+      <c r="AR59" s="145"/>
+      <c r="AS59" s="145"/>
+      <c r="AT59" s="145"/>
+      <c r="AU59" s="145"/>
+      <c r="AV59" s="145"/>
+      <c r="AW59" s="145"/>
+      <c r="AX59" s="145"/>
+      <c r="AY59" s="145"/>
+      <c r="AZ59" s="145"/>
+      <c r="BA59" s="145"/>
+      <c r="BB59" s="145"/>
+      <c r="BC59" s="145"/>
+      <c r="BD59" s="145"/>
+      <c r="BE59" s="145"/>
+      <c r="BF59" s="145"/>
+      <c r="BG59" s="145"/>
+      <c r="BH59" s="145"/>
+      <c r="BI59" s="145"/>
+      <c r="BJ59" s="145"/>
+      <c r="BK59" s="145"/>
+      <c r="BL59" s="145"/>
+      <c r="BM59" s="145"/>
+      <c r="BN59" s="145"/>
+      <c r="BO59" s="145"/>
+      <c r="BP59" s="145"/>
+      <c r="BQ59" s="145"/>
+      <c r="BR59" s="145"/>
+      <c r="BS59" s="145"/>
+      <c r="BT59" s="145"/>
+      <c r="BU59" s="145"/>
+      <c r="BV59" s="145"/>
+      <c r="BW59" s="145"/>
+      <c r="BX59" s="145"/>
+      <c r="BY59" s="145"/>
+      <c r="BZ59" s="145"/>
+      <c r="CA59" s="145"/>
+      <c r="CB59" s="145"/>
+      <c r="CC59" s="152"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A60" s="75"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
       <c r="F60" s="60"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="75"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="69"/>
       <c r="I60" s="60"/>
       <c r="J60" s="60"/>
       <c r="K60" s="60"/>
@@ -7068,68 +7071,68 @@
       <c r="AA60" s="60"/>
       <c r="AB60" s="60"/>
       <c r="AC60" s="60"/>
-      <c r="AD60" s="72"/>
-      <c r="AE60" s="75"/>
+      <c r="AD60" s="71"/>
+      <c r="AE60" s="69"/>
       <c r="AF60" s="60"/>
       <c r="AG60" s="60"/>
       <c r="AH60" s="60"/>
       <c r="AI60" s="60"/>
-      <c r="AJ60" s="72"/>
-      <c r="AK60" s="75"/>
+      <c r="AJ60" s="71"/>
+      <c r="AK60" s="69"/>
       <c r="AL60" s="60"/>
       <c r="AM60" s="60"/>
       <c r="AN60" s="60"/>
-      <c r="AO60" s="72"/>
-      <c r="AP60" s="143"/>
-      <c r="AQ60" s="143"/>
-      <c r="AR60" s="143"/>
-      <c r="AS60" s="143"/>
-      <c r="AT60" s="143"/>
-      <c r="AU60" s="143"/>
-      <c r="AV60" s="143"/>
-      <c r="AW60" s="143"/>
-      <c r="AX60" s="143"/>
-      <c r="AY60" s="143"/>
-      <c r="AZ60" s="143"/>
-      <c r="BA60" s="143"/>
-      <c r="BB60" s="143"/>
-      <c r="BC60" s="143"/>
-      <c r="BD60" s="143"/>
-      <c r="BE60" s="143"/>
-      <c r="BF60" s="143"/>
-      <c r="BG60" s="143"/>
-      <c r="BH60" s="143"/>
-      <c r="BI60" s="143"/>
-      <c r="BJ60" s="143"/>
-      <c r="BK60" s="143"/>
-      <c r="BL60" s="143"/>
-      <c r="BM60" s="143"/>
-      <c r="BN60" s="143"/>
-      <c r="BO60" s="143"/>
-      <c r="BP60" s="143"/>
-      <c r="BQ60" s="143"/>
-      <c r="BR60" s="143"/>
-      <c r="BS60" s="143"/>
-      <c r="BT60" s="143"/>
-      <c r="BU60" s="143"/>
-      <c r="BV60" s="143"/>
-      <c r="BW60" s="143"/>
-      <c r="BX60" s="143"/>
-      <c r="BY60" s="143"/>
-      <c r="BZ60" s="143"/>
-      <c r="CA60" s="143"/>
-      <c r="CB60" s="143"/>
-      <c r="CC60" s="150"/>
+      <c r="AO60" s="71"/>
+      <c r="AP60" s="145"/>
+      <c r="AQ60" s="145"/>
+      <c r="AR60" s="145"/>
+      <c r="AS60" s="145"/>
+      <c r="AT60" s="145"/>
+      <c r="AU60" s="145"/>
+      <c r="AV60" s="145"/>
+      <c r="AW60" s="145"/>
+      <c r="AX60" s="145"/>
+      <c r="AY60" s="145"/>
+      <c r="AZ60" s="145"/>
+      <c r="BA60" s="145"/>
+      <c r="BB60" s="145"/>
+      <c r="BC60" s="145"/>
+      <c r="BD60" s="145"/>
+      <c r="BE60" s="145"/>
+      <c r="BF60" s="145"/>
+      <c r="BG60" s="145"/>
+      <c r="BH60" s="145"/>
+      <c r="BI60" s="145"/>
+      <c r="BJ60" s="145"/>
+      <c r="BK60" s="145"/>
+      <c r="BL60" s="145"/>
+      <c r="BM60" s="145"/>
+      <c r="BN60" s="145"/>
+      <c r="BO60" s="145"/>
+      <c r="BP60" s="145"/>
+      <c r="BQ60" s="145"/>
+      <c r="BR60" s="145"/>
+      <c r="BS60" s="145"/>
+      <c r="BT60" s="145"/>
+      <c r="BU60" s="145"/>
+      <c r="BV60" s="145"/>
+      <c r="BW60" s="145"/>
+      <c r="BX60" s="145"/>
+      <c r="BY60" s="145"/>
+      <c r="BZ60" s="145"/>
+      <c r="CA60" s="145"/>
+      <c r="CB60" s="145"/>
+      <c r="CC60" s="152"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A61" s="75"/>
+      <c r="A61" s="69"/>
       <c r="B61" s="60"/>
       <c r="C61" s="60"/>
       <c r="D61" s="60"/>
       <c r="E61" s="60"/>
       <c r="F61" s="60"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="75"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="69"/>
       <c r="I61" s="60"/>
       <c r="J61" s="60"/>
       <c r="K61" s="60"/>
@@ -7151,326 +7154,326 @@
       <c r="AA61" s="60"/>
       <c r="AB61" s="60"/>
       <c r="AC61" s="60"/>
-      <c r="AD61" s="72"/>
-      <c r="AE61" s="75"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="69"/>
       <c r="AF61" s="60"/>
       <c r="AG61" s="60"/>
       <c r="AH61" s="60"/>
       <c r="AI61" s="60"/>
-      <c r="AJ61" s="72"/>
-      <c r="AK61" s="75"/>
+      <c r="AJ61" s="71"/>
+      <c r="AK61" s="69"/>
       <c r="AL61" s="60"/>
       <c r="AM61" s="60"/>
       <c r="AN61" s="60"/>
-      <c r="AO61" s="72"/>
-      <c r="AP61" s="143"/>
-      <c r="AQ61" s="143"/>
-      <c r="AR61" s="143"/>
-      <c r="AS61" s="143"/>
-      <c r="AT61" s="143"/>
-      <c r="AU61" s="143"/>
-      <c r="AV61" s="143"/>
-      <c r="AW61" s="143"/>
-      <c r="AX61" s="143"/>
-      <c r="AY61" s="143"/>
-      <c r="AZ61" s="143"/>
-      <c r="BA61" s="143"/>
-      <c r="BB61" s="143"/>
-      <c r="BC61" s="143"/>
-      <c r="BD61" s="143"/>
-      <c r="BE61" s="143"/>
-      <c r="BF61" s="143"/>
-      <c r="BG61" s="143"/>
-      <c r="BH61" s="143"/>
-      <c r="BI61" s="143"/>
-      <c r="BJ61" s="143"/>
-      <c r="BK61" s="143"/>
-      <c r="BL61" s="143"/>
-      <c r="BM61" s="143"/>
-      <c r="BN61" s="143"/>
-      <c r="BO61" s="143"/>
-      <c r="BP61" s="143"/>
-      <c r="BQ61" s="143"/>
-      <c r="BR61" s="143"/>
-      <c r="BS61" s="143"/>
-      <c r="BT61" s="143"/>
-      <c r="BU61" s="143"/>
-      <c r="BV61" s="143"/>
-      <c r="BW61" s="143"/>
-      <c r="BX61" s="143"/>
-      <c r="BY61" s="143"/>
-      <c r="BZ61" s="143"/>
-      <c r="CA61" s="143"/>
-      <c r="CB61" s="143"/>
-      <c r="CC61" s="150"/>
+      <c r="AO61" s="71"/>
+      <c r="AP61" s="145"/>
+      <c r="AQ61" s="145"/>
+      <c r="AR61" s="145"/>
+      <c r="AS61" s="145"/>
+      <c r="AT61" s="145"/>
+      <c r="AU61" s="145"/>
+      <c r="AV61" s="145"/>
+      <c r="AW61" s="145"/>
+      <c r="AX61" s="145"/>
+      <c r="AY61" s="145"/>
+      <c r="AZ61" s="145"/>
+      <c r="BA61" s="145"/>
+      <c r="BB61" s="145"/>
+      <c r="BC61" s="145"/>
+      <c r="BD61" s="145"/>
+      <c r="BE61" s="145"/>
+      <c r="BF61" s="145"/>
+      <c r="BG61" s="145"/>
+      <c r="BH61" s="145"/>
+      <c r="BI61" s="145"/>
+      <c r="BJ61" s="145"/>
+      <c r="BK61" s="145"/>
+      <c r="BL61" s="145"/>
+      <c r="BM61" s="145"/>
+      <c r="BN61" s="145"/>
+      <c r="BO61" s="145"/>
+      <c r="BP61" s="145"/>
+      <c r="BQ61" s="145"/>
+      <c r="BR61" s="145"/>
+      <c r="BS61" s="145"/>
+      <c r="BT61" s="145"/>
+      <c r="BU61" s="145"/>
+      <c r="BV61" s="145"/>
+      <c r="BW61" s="145"/>
+      <c r="BX61" s="145"/>
+      <c r="BY61" s="145"/>
+      <c r="BZ61" s="145"/>
+      <c r="CA61" s="145"/>
+      <c r="CB61" s="145"/>
+      <c r="CC61" s="152"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A62" s="75"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="60"/>
       <c r="C62" s="60"/>
       <c r="D62" s="60"/>
       <c r="E62" s="60"/>
       <c r="F62" s="60"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="90"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="90"/>
-      <c r="U62" s="90"/>
-      <c r="V62" s="90"/>
-      <c r="W62" s="90"/>
-      <c r="X62" s="90"/>
-      <c r="Y62" s="90"/>
-      <c r="Z62" s="90"/>
-      <c r="AA62" s="90"/>
-      <c r="AB62" s="90"/>
-      <c r="AC62" s="90"/>
-      <c r="AD62" s="117"/>
-      <c r="AE62" s="77"/>
-      <c r="AF62" s="90"/>
-      <c r="AG62" s="90"/>
-      <c r="AH62" s="90"/>
-      <c r="AI62" s="90"/>
-      <c r="AJ62" s="117"/>
-      <c r="AK62" s="77"/>
-      <c r="AL62" s="90"/>
-      <c r="AM62" s="90"/>
-      <c r="AN62" s="90"/>
-      <c r="AO62" s="117"/>
-      <c r="AP62" s="143"/>
-      <c r="AQ62" s="143"/>
-      <c r="AR62" s="143"/>
-      <c r="AS62" s="143"/>
-      <c r="AT62" s="143"/>
-      <c r="AU62" s="143"/>
-      <c r="AV62" s="143"/>
-      <c r="AW62" s="143"/>
-      <c r="AX62" s="143"/>
-      <c r="AY62" s="143"/>
-      <c r="AZ62" s="143"/>
-      <c r="BA62" s="143"/>
-      <c r="BB62" s="143"/>
-      <c r="BC62" s="143"/>
-      <c r="BD62" s="143"/>
-      <c r="BE62" s="143"/>
-      <c r="BF62" s="143"/>
-      <c r="BG62" s="143"/>
-      <c r="BH62" s="143"/>
-      <c r="BI62" s="143"/>
-      <c r="BJ62" s="143"/>
-      <c r="BK62" s="143"/>
-      <c r="BL62" s="143"/>
-      <c r="BM62" s="143"/>
-      <c r="BN62" s="143"/>
-      <c r="BO62" s="143"/>
-      <c r="BP62" s="143"/>
-      <c r="BQ62" s="143"/>
-      <c r="BR62" s="143"/>
-      <c r="BS62" s="143"/>
-      <c r="BT62" s="143"/>
-      <c r="BU62" s="143"/>
-      <c r="BV62" s="143"/>
-      <c r="BW62" s="143"/>
-      <c r="BX62" s="143"/>
-      <c r="BY62" s="143"/>
-      <c r="BZ62" s="143"/>
-      <c r="CA62" s="143"/>
-      <c r="CB62" s="143"/>
-      <c r="CC62" s="150"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="91"/>
+      <c r="N62" s="91"/>
+      <c r="O62" s="91"/>
+      <c r="P62" s="91"/>
+      <c r="Q62" s="91"/>
+      <c r="R62" s="91"/>
+      <c r="S62" s="91"/>
+      <c r="T62" s="91"/>
+      <c r="U62" s="91"/>
+      <c r="V62" s="91"/>
+      <c r="W62" s="91"/>
+      <c r="X62" s="91"/>
+      <c r="Y62" s="91"/>
+      <c r="Z62" s="91"/>
+      <c r="AA62" s="91"/>
+      <c r="AB62" s="91"/>
+      <c r="AC62" s="91"/>
+      <c r="AD62" s="119"/>
+      <c r="AE62" s="75"/>
+      <c r="AF62" s="91"/>
+      <c r="AG62" s="91"/>
+      <c r="AH62" s="91"/>
+      <c r="AI62" s="91"/>
+      <c r="AJ62" s="119"/>
+      <c r="AK62" s="75"/>
+      <c r="AL62" s="91"/>
+      <c r="AM62" s="91"/>
+      <c r="AN62" s="91"/>
+      <c r="AO62" s="119"/>
+      <c r="AP62" s="145"/>
+      <c r="AQ62" s="145"/>
+      <c r="AR62" s="145"/>
+      <c r="AS62" s="145"/>
+      <c r="AT62" s="145"/>
+      <c r="AU62" s="145"/>
+      <c r="AV62" s="145"/>
+      <c r="AW62" s="145"/>
+      <c r="AX62" s="145"/>
+      <c r="AY62" s="145"/>
+      <c r="AZ62" s="145"/>
+      <c r="BA62" s="145"/>
+      <c r="BB62" s="145"/>
+      <c r="BC62" s="145"/>
+      <c r="BD62" s="145"/>
+      <c r="BE62" s="145"/>
+      <c r="BF62" s="145"/>
+      <c r="BG62" s="145"/>
+      <c r="BH62" s="145"/>
+      <c r="BI62" s="145"/>
+      <c r="BJ62" s="145"/>
+      <c r="BK62" s="145"/>
+      <c r="BL62" s="145"/>
+      <c r="BM62" s="145"/>
+      <c r="BN62" s="145"/>
+      <c r="BO62" s="145"/>
+      <c r="BP62" s="145"/>
+      <c r="BQ62" s="145"/>
+      <c r="BR62" s="145"/>
+      <c r="BS62" s="145"/>
+      <c r="BT62" s="145"/>
+      <c r="BU62" s="145"/>
+      <c r="BV62" s="145"/>
+      <c r="BW62" s="145"/>
+      <c r="BX62" s="145"/>
+      <c r="BY62" s="145"/>
+      <c r="BZ62" s="145"/>
+      <c r="CA62" s="145"/>
+      <c r="CB62" s="145"/>
+      <c r="CC62" s="152"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A63" s="64">
+      <c r="A63" s="65">
         <v>2022</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="66" t="s">
+      <c r="B63" s="66"/>
+      <c r="C63" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="E63" s="66">
+        <v>2024</v>
+      </c>
+      <c r="F63" s="66"/>
+      <c r="G63" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="65">
-        <v>2024</v>
-      </c>
-      <c r="F63" s="65"/>
-      <c r="G63" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="H63" s="69" t="s">
+      <c r="H63" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="67"/>
-      <c r="Z63" s="67"/>
-      <c r="AA63" s="67"/>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="67"/>
-      <c r="AD63" s="68"/>
-      <c r="AE63" s="115" t="s">
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="76"/>
+      <c r="P63" s="76"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="76"/>
+      <c r="S63" s="76"/>
+      <c r="T63" s="76"/>
+      <c r="U63" s="76"/>
+      <c r="V63" s="76"/>
+      <c r="W63" s="76"/>
+      <c r="X63" s="76"/>
+      <c r="Y63" s="76"/>
+      <c r="Z63" s="76"/>
+      <c r="AA63" s="76"/>
+      <c r="AB63" s="76"/>
+      <c r="AC63" s="76"/>
+      <c r="AD63" s="67"/>
+      <c r="AE63" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="AF63" s="67"/>
-      <c r="AG63" s="67"/>
-      <c r="AH63" s="67"/>
-      <c r="AI63" s="67"/>
-      <c r="AJ63" s="68"/>
-      <c r="AK63" s="115" t="s">
+      <c r="AF63" s="76"/>
+      <c r="AG63" s="76"/>
+      <c r="AH63" s="76"/>
+      <c r="AI63" s="76"/>
+      <c r="AJ63" s="67"/>
+      <c r="AK63" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="AL63" s="67"/>
-      <c r="AM63" s="67"/>
-      <c r="AN63" s="67"/>
-      <c r="AO63" s="68"/>
-      <c r="AP63" s="143"/>
-      <c r="AQ63" s="143"/>
-      <c r="AR63" s="143"/>
-      <c r="AS63" s="143"/>
-      <c r="AT63" s="143"/>
-      <c r="AU63" s="143"/>
-      <c r="AV63" s="143"/>
-      <c r="AW63" s="143"/>
-      <c r="AX63" s="143"/>
-      <c r="AY63" s="143"/>
-      <c r="AZ63" s="143"/>
-      <c r="BA63" s="143"/>
-      <c r="BB63" s="143"/>
-      <c r="BC63" s="143"/>
-      <c r="BD63" s="143"/>
-      <c r="BE63" s="143"/>
-      <c r="BF63" s="143"/>
-      <c r="BG63" s="143"/>
-      <c r="BH63" s="143"/>
-      <c r="BI63" s="143"/>
-      <c r="BJ63" s="143"/>
-      <c r="BK63" s="143"/>
-      <c r="BL63" s="143"/>
-      <c r="BM63" s="143"/>
-      <c r="BN63" s="143"/>
-      <c r="BO63" s="143"/>
-      <c r="BP63" s="143"/>
-      <c r="BQ63" s="143"/>
-      <c r="BR63" s="143"/>
-      <c r="BS63" s="143"/>
-      <c r="BT63" s="143"/>
-      <c r="BU63" s="143"/>
-      <c r="BV63" s="143"/>
-      <c r="BW63" s="143"/>
-      <c r="BX63" s="143"/>
-      <c r="BY63" s="143"/>
-      <c r="BZ63" s="143"/>
-      <c r="CA63" s="143"/>
-      <c r="CB63" s="143"/>
-      <c r="CC63" s="150"/>
+      <c r="AL63" s="76"/>
+      <c r="AM63" s="76"/>
+      <c r="AN63" s="76"/>
+      <c r="AO63" s="67"/>
+      <c r="AP63" s="145"/>
+      <c r="AQ63" s="145"/>
+      <c r="AR63" s="145"/>
+      <c r="AS63" s="145"/>
+      <c r="AT63" s="145"/>
+      <c r="AU63" s="145"/>
+      <c r="AV63" s="145"/>
+      <c r="AW63" s="145"/>
+      <c r="AX63" s="145"/>
+      <c r="AY63" s="145"/>
+      <c r="AZ63" s="145"/>
+      <c r="BA63" s="145"/>
+      <c r="BB63" s="145"/>
+      <c r="BC63" s="145"/>
+      <c r="BD63" s="145"/>
+      <c r="BE63" s="145"/>
+      <c r="BF63" s="145"/>
+      <c r="BG63" s="145"/>
+      <c r="BH63" s="145"/>
+      <c r="BI63" s="145"/>
+      <c r="BJ63" s="145"/>
+      <c r="BK63" s="145"/>
+      <c r="BL63" s="145"/>
+      <c r="BM63" s="145"/>
+      <c r="BN63" s="145"/>
+      <c r="BO63" s="145"/>
+      <c r="BP63" s="145"/>
+      <c r="BQ63" s="145"/>
+      <c r="BR63" s="145"/>
+      <c r="BS63" s="145"/>
+      <c r="BT63" s="145"/>
+      <c r="BU63" s="145"/>
+      <c r="BV63" s="145"/>
+      <c r="BW63" s="145"/>
+      <c r="BX63" s="145"/>
+      <c r="BY63" s="145"/>
+      <c r="BZ63" s="145"/>
+      <c r="CA63" s="145"/>
+      <c r="CB63" s="145"/>
+      <c r="CC63" s="152"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A64" s="78"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="80"/>
+      <c r="A64" s="77"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="79"/>
       <c r="F64" s="60"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="73" t="s">
+      <c r="G64" s="71"/>
+      <c r="H64" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="89"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="89"/>
-      <c r="Q64" s="89"/>
-      <c r="R64" s="89"/>
-      <c r="S64" s="89"/>
-      <c r="T64" s="89"/>
-      <c r="U64" s="89"/>
-      <c r="V64" s="89"/>
-      <c r="W64" s="89"/>
-      <c r="X64" s="89"/>
-      <c r="Y64" s="89"/>
-      <c r="Z64" s="89"/>
-      <c r="AA64" s="89"/>
-      <c r="AB64" s="89"/>
-      <c r="AC64" s="89"/>
-      <c r="AD64" s="116"/>
-      <c r="AE64" s="75"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="90"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="90"/>
+      <c r="S64" s="90"/>
+      <c r="T64" s="90"/>
+      <c r="U64" s="90"/>
+      <c r="V64" s="90"/>
+      <c r="W64" s="90"/>
+      <c r="X64" s="90"/>
+      <c r="Y64" s="90"/>
+      <c r="Z64" s="90"/>
+      <c r="AA64" s="90"/>
+      <c r="AB64" s="90"/>
+      <c r="AC64" s="90"/>
+      <c r="AD64" s="118"/>
+      <c r="AE64" s="69"/>
       <c r="AF64" s="60"/>
       <c r="AG64" s="60"/>
       <c r="AH64" s="60"/>
       <c r="AI64" s="60"/>
-      <c r="AJ64" s="72"/>
-      <c r="AK64" s="75"/>
+      <c r="AJ64" s="71"/>
+      <c r="AK64" s="69"/>
       <c r="AL64" s="60"/>
       <c r="AM64" s="60"/>
       <c r="AN64" s="60"/>
-      <c r="AO64" s="72"/>
-      <c r="AP64" s="143"/>
-      <c r="AQ64" s="143"/>
-      <c r="AR64" s="143"/>
-      <c r="AS64" s="143"/>
-      <c r="AT64" s="143"/>
-      <c r="AU64" s="143"/>
-      <c r="AV64" s="143"/>
-      <c r="AW64" s="143"/>
-      <c r="AX64" s="143"/>
-      <c r="AY64" s="143"/>
-      <c r="AZ64" s="143"/>
-      <c r="BA64" s="143"/>
-      <c r="BB64" s="143"/>
-      <c r="BC64" s="143"/>
-      <c r="BD64" s="143"/>
-      <c r="BE64" s="143"/>
-      <c r="BF64" s="143"/>
-      <c r="BG64" s="143"/>
-      <c r="BH64" s="143"/>
-      <c r="BI64" s="143"/>
-      <c r="BJ64" s="143"/>
-      <c r="BK64" s="143"/>
-      <c r="BL64" s="143"/>
-      <c r="BM64" s="143"/>
-      <c r="BN64" s="143"/>
-      <c r="BO64" s="143"/>
-      <c r="BP64" s="143"/>
-      <c r="BQ64" s="143"/>
-      <c r="BR64" s="143"/>
-      <c r="BS64" s="143"/>
-      <c r="BT64" s="143"/>
-      <c r="BU64" s="143"/>
-      <c r="BV64" s="143"/>
-      <c r="BW64" s="143"/>
-      <c r="BX64" s="143"/>
-      <c r="BY64" s="143"/>
-      <c r="BZ64" s="143"/>
-      <c r="CA64" s="143"/>
-      <c r="CB64" s="143"/>
-      <c r="CC64" s="150"/>
+      <c r="AO64" s="71"/>
+      <c r="AP64" s="145"/>
+      <c r="AQ64" s="145"/>
+      <c r="AR64" s="145"/>
+      <c r="AS64" s="145"/>
+      <c r="AT64" s="145"/>
+      <c r="AU64" s="145"/>
+      <c r="AV64" s="145"/>
+      <c r="AW64" s="145"/>
+      <c r="AX64" s="145"/>
+      <c r="AY64" s="145"/>
+      <c r="AZ64" s="145"/>
+      <c r="BA64" s="145"/>
+      <c r="BB64" s="145"/>
+      <c r="BC64" s="145"/>
+      <c r="BD64" s="145"/>
+      <c r="BE64" s="145"/>
+      <c r="BF64" s="145"/>
+      <c r="BG64" s="145"/>
+      <c r="BH64" s="145"/>
+      <c r="BI64" s="145"/>
+      <c r="BJ64" s="145"/>
+      <c r="BK64" s="145"/>
+      <c r="BL64" s="145"/>
+      <c r="BM64" s="145"/>
+      <c r="BN64" s="145"/>
+      <c r="BO64" s="145"/>
+      <c r="BP64" s="145"/>
+      <c r="BQ64" s="145"/>
+      <c r="BR64" s="145"/>
+      <c r="BS64" s="145"/>
+      <c r="BT64" s="145"/>
+      <c r="BU64" s="145"/>
+      <c r="BV64" s="145"/>
+      <c r="BW64" s="145"/>
+      <c r="BX64" s="145"/>
+      <c r="BY64" s="145"/>
+      <c r="BZ64" s="145"/>
+      <c r="CA64" s="145"/>
+      <c r="CB64" s="145"/>
+      <c r="CC64" s="152"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="73" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="60"/>
@@ -7478,176 +7481,176 @@
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
       <c r="F65" s="60"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="89"/>
-      <c r="M65" s="89"/>
-      <c r="N65" s="89"/>
-      <c r="O65" s="89"/>
-      <c r="P65" s="89"/>
-      <c r="Q65" s="89"/>
-      <c r="R65" s="89"/>
-      <c r="S65" s="89"/>
-      <c r="T65" s="89"/>
-      <c r="U65" s="89"/>
-      <c r="V65" s="89"/>
-      <c r="W65" s="89"/>
-      <c r="X65" s="89"/>
-      <c r="Y65" s="89"/>
-      <c r="Z65" s="89"/>
-      <c r="AA65" s="89"/>
-      <c r="AB65" s="89"/>
-      <c r="AC65" s="89"/>
-      <c r="AD65" s="116"/>
-      <c r="AE65" s="75"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+      <c r="Q65" s="90"/>
+      <c r="R65" s="90"/>
+      <c r="S65" s="90"/>
+      <c r="T65" s="90"/>
+      <c r="U65" s="90"/>
+      <c r="V65" s="90"/>
+      <c r="W65" s="90"/>
+      <c r="X65" s="90"/>
+      <c r="Y65" s="90"/>
+      <c r="Z65" s="90"/>
+      <c r="AA65" s="90"/>
+      <c r="AB65" s="90"/>
+      <c r="AC65" s="90"/>
+      <c r="AD65" s="118"/>
+      <c r="AE65" s="69"/>
       <c r="AF65" s="60"/>
       <c r="AG65" s="60"/>
       <c r="AH65" s="60"/>
       <c r="AI65" s="60"/>
-      <c r="AJ65" s="72"/>
-      <c r="AK65" s="75"/>
+      <c r="AJ65" s="71"/>
+      <c r="AK65" s="69"/>
       <c r="AL65" s="60"/>
       <c r="AM65" s="60"/>
       <c r="AN65" s="60"/>
-      <c r="AO65" s="72"/>
-      <c r="AP65" s="143"/>
-      <c r="AQ65" s="143"/>
-      <c r="AR65" s="143"/>
-      <c r="AS65" s="143"/>
-      <c r="AT65" s="143"/>
-      <c r="AU65" s="143"/>
-      <c r="AV65" s="143"/>
-      <c r="AW65" s="143"/>
-      <c r="AX65" s="143"/>
-      <c r="AY65" s="143"/>
-      <c r="AZ65" s="143"/>
-      <c r="BA65" s="143"/>
-      <c r="BB65" s="143"/>
-      <c r="BC65" s="143"/>
-      <c r="BD65" s="143"/>
-      <c r="BE65" s="143"/>
-      <c r="BF65" s="143"/>
-      <c r="BG65" s="143"/>
-      <c r="BH65" s="143"/>
-      <c r="BI65" s="143"/>
-      <c r="BJ65" s="143"/>
-      <c r="BK65" s="143"/>
-      <c r="BL65" s="143"/>
-      <c r="BM65" s="143"/>
-      <c r="BN65" s="143"/>
-      <c r="BO65" s="143"/>
-      <c r="BP65" s="143"/>
-      <c r="BQ65" s="143"/>
-      <c r="BR65" s="143"/>
-      <c r="BS65" s="143"/>
-      <c r="BT65" s="143"/>
-      <c r="BU65" s="143"/>
-      <c r="BV65" s="143"/>
-      <c r="BW65" s="143"/>
-      <c r="BX65" s="143"/>
-      <c r="BY65" s="143"/>
-      <c r="BZ65" s="143"/>
-      <c r="CA65" s="143"/>
-      <c r="CB65" s="143"/>
-      <c r="CC65" s="150"/>
+      <c r="AO65" s="71"/>
+      <c r="AP65" s="145"/>
+      <c r="AQ65" s="145"/>
+      <c r="AR65" s="145"/>
+      <c r="AS65" s="145"/>
+      <c r="AT65" s="145"/>
+      <c r="AU65" s="145"/>
+      <c r="AV65" s="145"/>
+      <c r="AW65" s="145"/>
+      <c r="AX65" s="145"/>
+      <c r="AY65" s="145"/>
+      <c r="AZ65" s="145"/>
+      <c r="BA65" s="145"/>
+      <c r="BB65" s="145"/>
+      <c r="BC65" s="145"/>
+      <c r="BD65" s="145"/>
+      <c r="BE65" s="145"/>
+      <c r="BF65" s="145"/>
+      <c r="BG65" s="145"/>
+      <c r="BH65" s="145"/>
+      <c r="BI65" s="145"/>
+      <c r="BJ65" s="145"/>
+      <c r="BK65" s="145"/>
+      <c r="BL65" s="145"/>
+      <c r="BM65" s="145"/>
+      <c r="BN65" s="145"/>
+      <c r="BO65" s="145"/>
+      <c r="BP65" s="145"/>
+      <c r="BQ65" s="145"/>
+      <c r="BR65" s="145"/>
+      <c r="BS65" s="145"/>
+      <c r="BT65" s="145"/>
+      <c r="BU65" s="145"/>
+      <c r="BV65" s="145"/>
+      <c r="BW65" s="145"/>
+      <c r="BX65" s="145"/>
+      <c r="BY65" s="145"/>
+      <c r="BZ65" s="145"/>
+      <c r="CA65" s="145"/>
+      <c r="CB65" s="145"/>
+      <c r="CC65" s="152"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="76"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="60"/>
-      <c r="D66" s="76"/>
+      <c r="D66" s="74"/>
       <c r="E66" s="60"/>
       <c r="F66" s="60"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="89"/>
-      <c r="M66" s="89"/>
-      <c r="N66" s="89"/>
-      <c r="O66" s="89"/>
-      <c r="P66" s="89"/>
-      <c r="Q66" s="89"/>
-      <c r="R66" s="89"/>
-      <c r="S66" s="89"/>
-      <c r="T66" s="89"/>
-      <c r="U66" s="89"/>
-      <c r="V66" s="89"/>
-      <c r="W66" s="89"/>
-      <c r="X66" s="89"/>
-      <c r="Y66" s="89"/>
-      <c r="Z66" s="89"/>
-      <c r="AA66" s="89"/>
-      <c r="AB66" s="89"/>
-      <c r="AC66" s="89"/>
-      <c r="AD66" s="116"/>
-      <c r="AE66" s="75"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="90"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="90"/>
+      <c r="Q66" s="90"/>
+      <c r="R66" s="90"/>
+      <c r="S66" s="90"/>
+      <c r="T66" s="90"/>
+      <c r="U66" s="90"/>
+      <c r="V66" s="90"/>
+      <c r="W66" s="90"/>
+      <c r="X66" s="90"/>
+      <c r="Y66" s="90"/>
+      <c r="Z66" s="90"/>
+      <c r="AA66" s="90"/>
+      <c r="AB66" s="90"/>
+      <c r="AC66" s="90"/>
+      <c r="AD66" s="118"/>
+      <c r="AE66" s="69"/>
       <c r="AF66" s="60"/>
       <c r="AG66" s="60"/>
       <c r="AH66" s="60"/>
       <c r="AI66" s="60"/>
-      <c r="AJ66" s="72"/>
-      <c r="AK66" s="75"/>
+      <c r="AJ66" s="71"/>
+      <c r="AK66" s="69"/>
       <c r="AL66" s="60"/>
       <c r="AM66" s="60"/>
       <c r="AN66" s="60"/>
-      <c r="AO66" s="72"/>
-      <c r="AP66" s="143"/>
-      <c r="AQ66" s="143"/>
-      <c r="AR66" s="143"/>
-      <c r="AS66" s="143"/>
-      <c r="AT66" s="143"/>
-      <c r="AU66" s="143"/>
-      <c r="AV66" s="143"/>
-      <c r="AW66" s="143"/>
-      <c r="AX66" s="143"/>
-      <c r="AY66" s="143"/>
-      <c r="AZ66" s="143"/>
-      <c r="BA66" s="143"/>
-      <c r="BB66" s="143"/>
-      <c r="BC66" s="143"/>
-      <c r="BD66" s="143"/>
-      <c r="BE66" s="143"/>
-      <c r="BF66" s="143"/>
-      <c r="BG66" s="143"/>
-      <c r="BH66" s="143"/>
-      <c r="BI66" s="143"/>
-      <c r="BJ66" s="143"/>
-      <c r="BK66" s="143"/>
-      <c r="BL66" s="143"/>
-      <c r="BM66" s="143"/>
-      <c r="BN66" s="143"/>
-      <c r="BO66" s="143"/>
-      <c r="BP66" s="143"/>
-      <c r="BQ66" s="143"/>
-      <c r="BR66" s="143"/>
-      <c r="BS66" s="143"/>
-      <c r="BT66" s="143"/>
-      <c r="BU66" s="143"/>
-      <c r="BV66" s="143"/>
-      <c r="BW66" s="143"/>
-      <c r="BX66" s="143"/>
-      <c r="BY66" s="143"/>
-      <c r="BZ66" s="143"/>
-      <c r="CA66" s="143"/>
-      <c r="CB66" s="143"/>
-      <c r="CC66" s="150"/>
+      <c r="AO66" s="71"/>
+      <c r="AP66" s="145"/>
+      <c r="AQ66" s="145"/>
+      <c r="AR66" s="145"/>
+      <c r="AS66" s="145"/>
+      <c r="AT66" s="145"/>
+      <c r="AU66" s="145"/>
+      <c r="AV66" s="145"/>
+      <c r="AW66" s="145"/>
+      <c r="AX66" s="145"/>
+      <c r="AY66" s="145"/>
+      <c r="AZ66" s="145"/>
+      <c r="BA66" s="145"/>
+      <c r="BB66" s="145"/>
+      <c r="BC66" s="145"/>
+      <c r="BD66" s="145"/>
+      <c r="BE66" s="145"/>
+      <c r="BF66" s="145"/>
+      <c r="BG66" s="145"/>
+      <c r="BH66" s="145"/>
+      <c r="BI66" s="145"/>
+      <c r="BJ66" s="145"/>
+      <c r="BK66" s="145"/>
+      <c r="BL66" s="145"/>
+      <c r="BM66" s="145"/>
+      <c r="BN66" s="145"/>
+      <c r="BO66" s="145"/>
+      <c r="BP66" s="145"/>
+      <c r="BQ66" s="145"/>
+      <c r="BR66" s="145"/>
+      <c r="BS66" s="145"/>
+      <c r="BT66" s="145"/>
+      <c r="BU66" s="145"/>
+      <c r="BV66" s="145"/>
+      <c r="BW66" s="145"/>
+      <c r="BX66" s="145"/>
+      <c r="BY66" s="145"/>
+      <c r="BZ66" s="145"/>
+      <c r="CA66" s="145"/>
+      <c r="CB66" s="145"/>
+      <c r="CC66" s="152"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A67" s="75"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="60"/>
       <c r="C67" s="60"/>
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
       <c r="F67" s="60"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="75" t="s">
+      <c r="G67" s="71"/>
+      <c r="H67" s="69" t="s">
         <v>47</v>
       </c>
       <c r="I67" s="60"/>
@@ -7671,68 +7674,68 @@
       <c r="AA67" s="60"/>
       <c r="AB67" s="60"/>
       <c r="AC67" s="60"/>
-      <c r="AD67" s="72"/>
-      <c r="AE67" s="75"/>
+      <c r="AD67" s="71"/>
+      <c r="AE67" s="69"/>
       <c r="AF67" s="60"/>
       <c r="AG67" s="60"/>
       <c r="AH67" s="60"/>
       <c r="AI67" s="60"/>
-      <c r="AJ67" s="72"/>
-      <c r="AK67" s="75"/>
+      <c r="AJ67" s="71"/>
+      <c r="AK67" s="69"/>
       <c r="AL67" s="60"/>
       <c r="AM67" s="60"/>
       <c r="AN67" s="60"/>
-      <c r="AO67" s="72"/>
-      <c r="AP67" s="143"/>
-      <c r="AQ67" s="143"/>
-      <c r="AR67" s="143"/>
-      <c r="AS67" s="143"/>
-      <c r="AT67" s="143"/>
-      <c r="AU67" s="143"/>
-      <c r="AV67" s="143"/>
-      <c r="AW67" s="143"/>
-      <c r="AX67" s="143"/>
-      <c r="AY67" s="143"/>
-      <c r="AZ67" s="143"/>
-      <c r="BA67" s="143"/>
-      <c r="BB67" s="143"/>
-      <c r="BC67" s="143"/>
-      <c r="BD67" s="143"/>
-      <c r="BE67" s="143"/>
-      <c r="BF67" s="143"/>
-      <c r="BG67" s="143"/>
-      <c r="BH67" s="143"/>
-      <c r="BI67" s="143"/>
-      <c r="BJ67" s="143"/>
-      <c r="BK67" s="143"/>
-      <c r="BL67" s="143"/>
-      <c r="BM67" s="143"/>
-      <c r="BN67" s="143"/>
-      <c r="BO67" s="143"/>
-      <c r="BP67" s="143"/>
-      <c r="BQ67" s="143"/>
-      <c r="BR67" s="143"/>
-      <c r="BS67" s="143"/>
-      <c r="BT67" s="143"/>
-      <c r="BU67" s="143"/>
-      <c r="BV67" s="143"/>
-      <c r="BW67" s="143"/>
-      <c r="BX67" s="143"/>
-      <c r="BY67" s="143"/>
-      <c r="BZ67" s="143"/>
-      <c r="CA67" s="143"/>
-      <c r="CB67" s="143"/>
-      <c r="CC67" s="150"/>
+      <c r="AO67" s="71"/>
+      <c r="AP67" s="145"/>
+      <c r="AQ67" s="145"/>
+      <c r="AR67" s="145"/>
+      <c r="AS67" s="145"/>
+      <c r="AT67" s="145"/>
+      <c r="AU67" s="145"/>
+      <c r="AV67" s="145"/>
+      <c r="AW67" s="145"/>
+      <c r="AX67" s="145"/>
+      <c r="AY67" s="145"/>
+      <c r="AZ67" s="145"/>
+      <c r="BA67" s="145"/>
+      <c r="BB67" s="145"/>
+      <c r="BC67" s="145"/>
+      <c r="BD67" s="145"/>
+      <c r="BE67" s="145"/>
+      <c r="BF67" s="145"/>
+      <c r="BG67" s="145"/>
+      <c r="BH67" s="145"/>
+      <c r="BI67" s="145"/>
+      <c r="BJ67" s="145"/>
+      <c r="BK67" s="145"/>
+      <c r="BL67" s="145"/>
+      <c r="BM67" s="145"/>
+      <c r="BN67" s="145"/>
+      <c r="BO67" s="145"/>
+      <c r="BP67" s="145"/>
+      <c r="BQ67" s="145"/>
+      <c r="BR67" s="145"/>
+      <c r="BS67" s="145"/>
+      <c r="BT67" s="145"/>
+      <c r="BU67" s="145"/>
+      <c r="BV67" s="145"/>
+      <c r="BW67" s="145"/>
+      <c r="BX67" s="145"/>
+      <c r="BY67" s="145"/>
+      <c r="BZ67" s="145"/>
+      <c r="CA67" s="145"/>
+      <c r="CB67" s="145"/>
+      <c r="CC67" s="152"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A68" s="75"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="60"/>
       <c r="C68" s="60"/>
       <c r="D68" s="60"/>
       <c r="E68" s="60"/>
       <c r="F68" s="60"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="152" t="s">
+      <c r="G68" s="71"/>
+      <c r="H68" s="153" t="s">
         <v>62</v>
       </c>
       <c r="I68" s="60"/>
@@ -7756,68 +7759,68 @@
       <c r="AA68" s="60"/>
       <c r="AB68" s="60"/>
       <c r="AC68" s="60"/>
-      <c r="AD68" s="72"/>
-      <c r="AE68" s="75"/>
+      <c r="AD68" s="71"/>
+      <c r="AE68" s="69"/>
       <c r="AF68" s="60"/>
       <c r="AG68" s="60"/>
       <c r="AH68" s="60"/>
       <c r="AI68" s="60"/>
-      <c r="AJ68" s="72"/>
-      <c r="AK68" s="75"/>
+      <c r="AJ68" s="71"/>
+      <c r="AK68" s="69"/>
       <c r="AL68" s="60"/>
       <c r="AM68" s="60"/>
       <c r="AN68" s="60"/>
-      <c r="AO68" s="72"/>
-      <c r="AP68" s="143"/>
-      <c r="AQ68" s="143"/>
-      <c r="AR68" s="143"/>
-      <c r="AS68" s="143"/>
-      <c r="AT68" s="143"/>
-      <c r="AU68" s="143"/>
-      <c r="AV68" s="143"/>
-      <c r="AW68" s="143"/>
-      <c r="AX68" s="143"/>
-      <c r="AY68" s="143"/>
-      <c r="AZ68" s="143"/>
-      <c r="BA68" s="143"/>
-      <c r="BB68" s="143"/>
-      <c r="BC68" s="143"/>
-      <c r="BD68" s="143"/>
-      <c r="BE68" s="143"/>
-      <c r="BF68" s="143"/>
-      <c r="BG68" s="143"/>
-      <c r="BH68" s="143"/>
-      <c r="BI68" s="143"/>
-      <c r="BJ68" s="143"/>
-      <c r="BK68" s="143"/>
-      <c r="BL68" s="143"/>
-      <c r="BM68" s="143"/>
-      <c r="BN68" s="143"/>
-      <c r="BO68" s="143"/>
-      <c r="BP68" s="143"/>
-      <c r="BQ68" s="143"/>
-      <c r="BR68" s="143"/>
-      <c r="BS68" s="143"/>
-      <c r="BT68" s="143"/>
-      <c r="BU68" s="143"/>
-      <c r="BV68" s="143"/>
-      <c r="BW68" s="143"/>
-      <c r="BX68" s="143"/>
-      <c r="BY68" s="143"/>
-      <c r="BZ68" s="143"/>
-      <c r="CA68" s="143"/>
-      <c r="CB68" s="143"/>
-      <c r="CC68" s="150"/>
+      <c r="AO68" s="71"/>
+      <c r="AP68" s="145"/>
+      <c r="AQ68" s="145"/>
+      <c r="AR68" s="145"/>
+      <c r="AS68" s="145"/>
+      <c r="AT68" s="145"/>
+      <c r="AU68" s="145"/>
+      <c r="AV68" s="145"/>
+      <c r="AW68" s="145"/>
+      <c r="AX68" s="145"/>
+      <c r="AY68" s="145"/>
+      <c r="AZ68" s="145"/>
+      <c r="BA68" s="145"/>
+      <c r="BB68" s="145"/>
+      <c r="BC68" s="145"/>
+      <c r="BD68" s="145"/>
+      <c r="BE68" s="145"/>
+      <c r="BF68" s="145"/>
+      <c r="BG68" s="145"/>
+      <c r="BH68" s="145"/>
+      <c r="BI68" s="145"/>
+      <c r="BJ68" s="145"/>
+      <c r="BK68" s="145"/>
+      <c r="BL68" s="145"/>
+      <c r="BM68" s="145"/>
+      <c r="BN68" s="145"/>
+      <c r="BO68" s="145"/>
+      <c r="BP68" s="145"/>
+      <c r="BQ68" s="145"/>
+      <c r="BR68" s="145"/>
+      <c r="BS68" s="145"/>
+      <c r="BT68" s="145"/>
+      <c r="BU68" s="145"/>
+      <c r="BV68" s="145"/>
+      <c r="BW68" s="145"/>
+      <c r="BX68" s="145"/>
+      <c r="BY68" s="145"/>
+      <c r="BZ68" s="145"/>
+      <c r="CA68" s="145"/>
+      <c r="CB68" s="145"/>
+      <c r="CC68" s="152"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A69" s="75"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="60"/>
       <c r="C69" s="60"/>
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
       <c r="F69" s="60"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="75"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="69"/>
       <c r="I69" s="60"/>
       <c r="J69" s="60"/>
       <c r="K69" s="60"/>
@@ -7839,68 +7842,68 @@
       <c r="AA69" s="60"/>
       <c r="AB69" s="60"/>
       <c r="AC69" s="60"/>
-      <c r="AD69" s="72"/>
-      <c r="AE69" s="75"/>
+      <c r="AD69" s="71"/>
+      <c r="AE69" s="69"/>
       <c r="AF69" s="60"/>
       <c r="AG69" s="60"/>
       <c r="AH69" s="60"/>
       <c r="AI69" s="60"/>
-      <c r="AJ69" s="72"/>
-      <c r="AK69" s="75"/>
+      <c r="AJ69" s="71"/>
+      <c r="AK69" s="69"/>
       <c r="AL69" s="60"/>
       <c r="AM69" s="60"/>
       <c r="AN69" s="60"/>
-      <c r="AO69" s="72"/>
-      <c r="AP69" s="143"/>
-      <c r="AQ69" s="143"/>
-      <c r="AR69" s="143"/>
-      <c r="AS69" s="143"/>
-      <c r="AT69" s="143"/>
-      <c r="AU69" s="143"/>
-      <c r="AV69" s="143"/>
-      <c r="AW69" s="143"/>
-      <c r="AX69" s="143"/>
-      <c r="AY69" s="143"/>
-      <c r="AZ69" s="143"/>
-      <c r="BA69" s="143"/>
-      <c r="BB69" s="143"/>
-      <c r="BC69" s="143"/>
-      <c r="BD69" s="143"/>
-      <c r="BE69" s="143"/>
-      <c r="BF69" s="143"/>
-      <c r="BG69" s="143"/>
-      <c r="BH69" s="143"/>
-      <c r="BI69" s="143"/>
-      <c r="BJ69" s="143"/>
-      <c r="BK69" s="143"/>
-      <c r="BL69" s="143"/>
-      <c r="BM69" s="143"/>
-      <c r="BN69" s="143"/>
-      <c r="BO69" s="143"/>
-      <c r="BP69" s="143"/>
-      <c r="BQ69" s="143"/>
-      <c r="BR69" s="143"/>
-      <c r="BS69" s="143"/>
-      <c r="BT69" s="143"/>
-      <c r="BU69" s="143"/>
-      <c r="BV69" s="143"/>
-      <c r="BW69" s="143"/>
-      <c r="BX69" s="143"/>
-      <c r="BY69" s="143"/>
-      <c r="BZ69" s="143"/>
-      <c r="CA69" s="143"/>
-      <c r="CB69" s="143"/>
-      <c r="CC69" s="150"/>
+      <c r="AO69" s="71"/>
+      <c r="AP69" s="145"/>
+      <c r="AQ69" s="145"/>
+      <c r="AR69" s="145"/>
+      <c r="AS69" s="145"/>
+      <c r="AT69" s="145"/>
+      <c r="AU69" s="145"/>
+      <c r="AV69" s="145"/>
+      <c r="AW69" s="145"/>
+      <c r="AX69" s="145"/>
+      <c r="AY69" s="145"/>
+      <c r="AZ69" s="145"/>
+      <c r="BA69" s="145"/>
+      <c r="BB69" s="145"/>
+      <c r="BC69" s="145"/>
+      <c r="BD69" s="145"/>
+      <c r="BE69" s="145"/>
+      <c r="BF69" s="145"/>
+      <c r="BG69" s="145"/>
+      <c r="BH69" s="145"/>
+      <c r="BI69" s="145"/>
+      <c r="BJ69" s="145"/>
+      <c r="BK69" s="145"/>
+      <c r="BL69" s="145"/>
+      <c r="BM69" s="145"/>
+      <c r="BN69" s="145"/>
+      <c r="BO69" s="145"/>
+      <c r="BP69" s="145"/>
+      <c r="BQ69" s="145"/>
+      <c r="BR69" s="145"/>
+      <c r="BS69" s="145"/>
+      <c r="BT69" s="145"/>
+      <c r="BU69" s="145"/>
+      <c r="BV69" s="145"/>
+      <c r="BW69" s="145"/>
+      <c r="BX69" s="145"/>
+      <c r="BY69" s="145"/>
+      <c r="BZ69" s="145"/>
+      <c r="CA69" s="145"/>
+      <c r="CB69" s="145"/>
+      <c r="CC69" s="152"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A70" s="75"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="60"/>
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
       <c r="F70" s="60"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="75"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="69"/>
       <c r="I70" s="60"/>
       <c r="J70" s="60"/>
       <c r="K70" s="60"/>
@@ -7922,324 +7925,324 @@
       <c r="AA70" s="60"/>
       <c r="AB70" s="60"/>
       <c r="AC70" s="60"/>
-      <c r="AD70" s="72"/>
-      <c r="AE70" s="75"/>
+      <c r="AD70" s="71"/>
+      <c r="AE70" s="69"/>
       <c r="AF70" s="60"/>
       <c r="AG70" s="60"/>
       <c r="AH70" s="60"/>
       <c r="AI70" s="60"/>
-      <c r="AJ70" s="72"/>
-      <c r="AK70" s="75"/>
+      <c r="AJ70" s="71"/>
+      <c r="AK70" s="69"/>
       <c r="AL70" s="60"/>
       <c r="AM70" s="60"/>
       <c r="AN70" s="60"/>
-      <c r="AO70" s="72"/>
-      <c r="AP70" s="143"/>
-      <c r="AQ70" s="143"/>
-      <c r="AR70" s="143"/>
-      <c r="AS70" s="143"/>
-      <c r="AT70" s="143"/>
-      <c r="AU70" s="143"/>
-      <c r="AV70" s="143"/>
-      <c r="AW70" s="143"/>
-      <c r="AX70" s="143"/>
-      <c r="AY70" s="143"/>
-      <c r="AZ70" s="143"/>
-      <c r="BA70" s="143"/>
-      <c r="BB70" s="143"/>
-      <c r="BC70" s="143"/>
-      <c r="BD70" s="143"/>
-      <c r="BE70" s="143"/>
-      <c r="BF70" s="143"/>
-      <c r="BG70" s="143"/>
-      <c r="BH70" s="143"/>
-      <c r="BI70" s="143"/>
-      <c r="BJ70" s="143"/>
-      <c r="BK70" s="143"/>
-      <c r="BL70" s="143"/>
-      <c r="BM70" s="143"/>
-      <c r="BN70" s="143"/>
-      <c r="BO70" s="143"/>
-      <c r="BP70" s="143"/>
-      <c r="BQ70" s="143"/>
-      <c r="BR70" s="143"/>
-      <c r="BS70" s="143"/>
-      <c r="BT70" s="143"/>
-      <c r="BU70" s="143"/>
-      <c r="BV70" s="143"/>
-      <c r="BW70" s="143"/>
-      <c r="BX70" s="143"/>
-      <c r="BY70" s="143"/>
-      <c r="BZ70" s="143"/>
-      <c r="CA70" s="143"/>
-      <c r="CB70" s="143"/>
-      <c r="CC70" s="150"/>
+      <c r="AO70" s="71"/>
+      <c r="AP70" s="145"/>
+      <c r="AQ70" s="145"/>
+      <c r="AR70" s="145"/>
+      <c r="AS70" s="145"/>
+      <c r="AT70" s="145"/>
+      <c r="AU70" s="145"/>
+      <c r="AV70" s="145"/>
+      <c r="AW70" s="145"/>
+      <c r="AX70" s="145"/>
+      <c r="AY70" s="145"/>
+      <c r="AZ70" s="145"/>
+      <c r="BA70" s="145"/>
+      <c r="BB70" s="145"/>
+      <c r="BC70" s="145"/>
+      <c r="BD70" s="145"/>
+      <c r="BE70" s="145"/>
+      <c r="BF70" s="145"/>
+      <c r="BG70" s="145"/>
+      <c r="BH70" s="145"/>
+      <c r="BI70" s="145"/>
+      <c r="BJ70" s="145"/>
+      <c r="BK70" s="145"/>
+      <c r="BL70" s="145"/>
+      <c r="BM70" s="145"/>
+      <c r="BN70" s="145"/>
+      <c r="BO70" s="145"/>
+      <c r="BP70" s="145"/>
+      <c r="BQ70" s="145"/>
+      <c r="BR70" s="145"/>
+      <c r="BS70" s="145"/>
+      <c r="BT70" s="145"/>
+      <c r="BU70" s="145"/>
+      <c r="BV70" s="145"/>
+      <c r="BW70" s="145"/>
+      <c r="BX70" s="145"/>
+      <c r="BY70" s="145"/>
+      <c r="BZ70" s="145"/>
+      <c r="CA70" s="145"/>
+      <c r="CB70" s="145"/>
+      <c r="CC70" s="152"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="12" customHeight="1" spans="1:81">
-      <c r="A71" s="75"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="60"/>
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
       <c r="F71" s="60"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
-      <c r="K71" s="90"/>
-      <c r="L71" s="90"/>
-      <c r="M71" s="90"/>
-      <c r="N71" s="90"/>
-      <c r="O71" s="90"/>
-      <c r="P71" s="90"/>
-      <c r="Q71" s="90"/>
-      <c r="R71" s="90"/>
-      <c r="S71" s="90"/>
-      <c r="T71" s="90"/>
-      <c r="U71" s="90"/>
-      <c r="V71" s="90"/>
-      <c r="W71" s="90"/>
-      <c r="X71" s="90"/>
-      <c r="Y71" s="90"/>
-      <c r="Z71" s="90"/>
-      <c r="AA71" s="90"/>
-      <c r="AB71" s="90"/>
-      <c r="AC71" s="90"/>
-      <c r="AD71" s="117"/>
-      <c r="AE71" s="77"/>
-      <c r="AF71" s="90"/>
-      <c r="AG71" s="90"/>
-      <c r="AH71" s="90"/>
-      <c r="AI71" s="90"/>
-      <c r="AJ71" s="117"/>
-      <c r="AK71" s="77"/>
-      <c r="AL71" s="90"/>
-      <c r="AM71" s="90"/>
-      <c r="AN71" s="90"/>
-      <c r="AO71" s="117"/>
-      <c r="AP71" s="143"/>
-      <c r="AQ71" s="143"/>
-      <c r="AR71" s="143"/>
-      <c r="AS71" s="143"/>
-      <c r="AT71" s="143"/>
-      <c r="AU71" s="143"/>
-      <c r="AV71" s="143"/>
-      <c r="AW71" s="143"/>
-      <c r="AX71" s="143"/>
-      <c r="AY71" s="143"/>
-      <c r="AZ71" s="143"/>
-      <c r="BA71" s="143"/>
-      <c r="BB71" s="143"/>
-      <c r="BC71" s="143"/>
-      <c r="BD71" s="143"/>
-      <c r="BE71" s="143"/>
-      <c r="BF71" s="143"/>
-      <c r="BG71" s="143"/>
-      <c r="BH71" s="143"/>
-      <c r="BI71" s="143"/>
-      <c r="BJ71" s="143"/>
-      <c r="BK71" s="143"/>
-      <c r="BL71" s="143"/>
-      <c r="BM71" s="143"/>
-      <c r="BN71" s="143"/>
-      <c r="BO71" s="143"/>
-      <c r="BP71" s="143"/>
-      <c r="BQ71" s="143"/>
-      <c r="BR71" s="143"/>
-      <c r="BS71" s="143"/>
-      <c r="BT71" s="143"/>
-      <c r="BU71" s="143"/>
-      <c r="BV71" s="143"/>
-      <c r="BW71" s="143"/>
-      <c r="BX71" s="143"/>
-      <c r="BY71" s="143"/>
-      <c r="BZ71" s="143"/>
-      <c r="CA71" s="143"/>
-      <c r="CB71" s="143"/>
-      <c r="CC71" s="150"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="91"/>
+      <c r="M71" s="91"/>
+      <c r="N71" s="91"/>
+      <c r="O71" s="91"/>
+      <c r="P71" s="91"/>
+      <c r="Q71" s="91"/>
+      <c r="R71" s="91"/>
+      <c r="S71" s="91"/>
+      <c r="T71" s="91"/>
+      <c r="U71" s="91"/>
+      <c r="V71" s="91"/>
+      <c r="W71" s="91"/>
+      <c r="X71" s="91"/>
+      <c r="Y71" s="91"/>
+      <c r="Z71" s="91"/>
+      <c r="AA71" s="91"/>
+      <c r="AB71" s="91"/>
+      <c r="AC71" s="91"/>
+      <c r="AD71" s="119"/>
+      <c r="AE71" s="75"/>
+      <c r="AF71" s="91"/>
+      <c r="AG71" s="91"/>
+      <c r="AH71" s="91"/>
+      <c r="AI71" s="91"/>
+      <c r="AJ71" s="119"/>
+      <c r="AK71" s="75"/>
+      <c r="AL71" s="91"/>
+      <c r="AM71" s="91"/>
+      <c r="AN71" s="91"/>
+      <c r="AO71" s="119"/>
+      <c r="AP71" s="145"/>
+      <c r="AQ71" s="145"/>
+      <c r="AR71" s="145"/>
+      <c r="AS71" s="145"/>
+      <c r="AT71" s="145"/>
+      <c r="AU71" s="145"/>
+      <c r="AV71" s="145"/>
+      <c r="AW71" s="145"/>
+      <c r="AX71" s="145"/>
+      <c r="AY71" s="145"/>
+      <c r="AZ71" s="145"/>
+      <c r="BA71" s="145"/>
+      <c r="BB71" s="145"/>
+      <c r="BC71" s="145"/>
+      <c r="BD71" s="145"/>
+      <c r="BE71" s="145"/>
+      <c r="BF71" s="145"/>
+      <c r="BG71" s="145"/>
+      <c r="BH71" s="145"/>
+      <c r="BI71" s="145"/>
+      <c r="BJ71" s="145"/>
+      <c r="BK71" s="145"/>
+      <c r="BL71" s="145"/>
+      <c r="BM71" s="145"/>
+      <c r="BN71" s="145"/>
+      <c r="BO71" s="145"/>
+      <c r="BP71" s="145"/>
+      <c r="BQ71" s="145"/>
+      <c r="BR71" s="145"/>
+      <c r="BS71" s="145"/>
+      <c r="BT71" s="145"/>
+      <c r="BU71" s="145"/>
+      <c r="BV71" s="145"/>
+      <c r="BW71" s="145"/>
+      <c r="BX71" s="145"/>
+      <c r="BY71" s="145"/>
+      <c r="BZ71" s="145"/>
+      <c r="CA71" s="145"/>
+      <c r="CB71" s="145"/>
+      <c r="CC71" s="152"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A72" s="64">
+      <c r="A72" s="65">
         <v>2023</v>
       </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="66" t="s">
+      <c r="B72" s="66"/>
+      <c r="C72" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="66"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D72" s="65"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G72" s="68"/>
-      <c r="H72" s="69" t="s">
+      <c r="G72" s="67"/>
+      <c r="H72" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="67"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="67"/>
-      <c r="O72" s="67"/>
-      <c r="P72" s="67"/>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="67"/>
-      <c r="S72" s="67"/>
-      <c r="T72" s="67"/>
-      <c r="U72" s="67"/>
-      <c r="V72" s="67"/>
-      <c r="W72" s="67"/>
-      <c r="X72" s="67"/>
-      <c r="Y72" s="67"/>
-      <c r="Z72" s="67"/>
-      <c r="AA72" s="67"/>
-      <c r="AB72" s="67"/>
-      <c r="AC72" s="67"/>
-      <c r="AD72" s="68"/>
-      <c r="AE72" s="115" t="s">
+      <c r="I72" s="76"/>
+      <c r="J72" s="76"/>
+      <c r="K72" s="76"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="76"/>
+      <c r="O72" s="76"/>
+      <c r="P72" s="76"/>
+      <c r="Q72" s="76"/>
+      <c r="R72" s="76"/>
+      <c r="S72" s="76"/>
+      <c r="T72" s="76"/>
+      <c r="U72" s="76"/>
+      <c r="V72" s="76"/>
+      <c r="W72" s="76"/>
+      <c r="X72" s="76"/>
+      <c r="Y72" s="76"/>
+      <c r="Z72" s="76"/>
+      <c r="AA72" s="76"/>
+      <c r="AB72" s="76"/>
+      <c r="AC72" s="76"/>
+      <c r="AD72" s="67"/>
+      <c r="AE72" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="AF72" s="67"/>
-      <c r="AG72" s="67"/>
-      <c r="AH72" s="67"/>
-      <c r="AI72" s="67"/>
-      <c r="AJ72" s="68"/>
-      <c r="AK72" s="115" t="s">
+      <c r="AF72" s="76"/>
+      <c r="AG72" s="76"/>
+      <c r="AH72" s="76"/>
+      <c r="AI72" s="76"/>
+      <c r="AJ72" s="67"/>
+      <c r="AK72" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="AL72" s="67"/>
-      <c r="AM72" s="67"/>
-      <c r="AN72" s="67"/>
-      <c r="AO72" s="68"/>
-      <c r="AP72" s="143"/>
-      <c r="AQ72" s="143"/>
-      <c r="AR72" s="143"/>
-      <c r="AS72" s="143"/>
-      <c r="AT72" s="143"/>
-      <c r="AU72" s="143"/>
-      <c r="AV72" s="143"/>
-      <c r="AW72" s="143"/>
-      <c r="AX72" s="143"/>
-      <c r="AY72" s="143"/>
-      <c r="AZ72" s="143"/>
-      <c r="BA72" s="143"/>
-      <c r="BB72" s="143"/>
-      <c r="BC72" s="143"/>
-      <c r="BD72" s="143"/>
-      <c r="BE72" s="143"/>
-      <c r="BF72" s="143"/>
-      <c r="BG72" s="143"/>
-      <c r="BH72" s="143"/>
-      <c r="BI72" s="143"/>
-      <c r="BJ72" s="143"/>
-      <c r="BK72" s="143"/>
-      <c r="BL72" s="143"/>
-      <c r="BM72" s="143"/>
-      <c r="BN72" s="143"/>
-      <c r="BO72" s="143"/>
-      <c r="BP72" s="143"/>
-      <c r="BQ72" s="143"/>
-      <c r="BR72" s="143"/>
-      <c r="BS72" s="143"/>
-      <c r="BT72" s="143"/>
-      <c r="BU72" s="143"/>
-      <c r="BV72" s="143"/>
-      <c r="BW72" s="143"/>
-      <c r="BX72" s="143"/>
-      <c r="BY72" s="143"/>
-      <c r="BZ72" s="143"/>
-      <c r="CA72" s="143"/>
-      <c r="CB72" s="143"/>
-      <c r="CC72" s="150"/>
+      <c r="AL72" s="76"/>
+      <c r="AM72" s="76"/>
+      <c r="AN72" s="76"/>
+      <c r="AO72" s="67"/>
+      <c r="AP72" s="145"/>
+      <c r="AQ72" s="145"/>
+      <c r="AR72" s="145"/>
+      <c r="AS72" s="145"/>
+      <c r="AT72" s="145"/>
+      <c r="AU72" s="145"/>
+      <c r="AV72" s="145"/>
+      <c r="AW72" s="145"/>
+      <c r="AX72" s="145"/>
+      <c r="AY72" s="145"/>
+      <c r="AZ72" s="145"/>
+      <c r="BA72" s="145"/>
+      <c r="BB72" s="145"/>
+      <c r="BC72" s="145"/>
+      <c r="BD72" s="145"/>
+      <c r="BE72" s="145"/>
+      <c r="BF72" s="145"/>
+      <c r="BG72" s="145"/>
+      <c r="BH72" s="145"/>
+      <c r="BI72" s="145"/>
+      <c r="BJ72" s="145"/>
+      <c r="BK72" s="145"/>
+      <c r="BL72" s="145"/>
+      <c r="BM72" s="145"/>
+      <c r="BN72" s="145"/>
+      <c r="BO72" s="145"/>
+      <c r="BP72" s="145"/>
+      <c r="BQ72" s="145"/>
+      <c r="BR72" s="145"/>
+      <c r="BS72" s="145"/>
+      <c r="BT72" s="145"/>
+      <c r="BU72" s="145"/>
+      <c r="BV72" s="145"/>
+      <c r="BW72" s="145"/>
+      <c r="BX72" s="145"/>
+      <c r="BY72" s="145"/>
+      <c r="BZ72" s="145"/>
+      <c r="CA72" s="145"/>
+      <c r="CB72" s="145"/>
+      <c r="CC72" s="152"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A73" s="70"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="23"/>
       <c r="C73" s="60"/>
-      <c r="D73" s="71"/>
+      <c r="D73" s="70"/>
       <c r="E73" s="60"/>
       <c r="F73" s="60"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="73" t="s">
+      <c r="G73" s="71"/>
+      <c r="H73" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="I73" s="89"/>
-      <c r="J73" s="89"/>
-      <c r="K73" s="89"/>
-      <c r="L73" s="89"/>
-      <c r="M73" s="89"/>
-      <c r="N73" s="89"/>
-      <c r="O73" s="89"/>
-      <c r="P73" s="89"/>
-      <c r="Q73" s="89"/>
-      <c r="R73" s="89"/>
-      <c r="S73" s="89"/>
-      <c r="T73" s="89"/>
-      <c r="U73" s="89"/>
-      <c r="V73" s="89"/>
-      <c r="W73" s="89"/>
-      <c r="X73" s="89"/>
-      <c r="Y73" s="89"/>
-      <c r="Z73" s="89"/>
-      <c r="AA73" s="89"/>
-      <c r="AB73" s="89"/>
-      <c r="AC73" s="89"/>
-      <c r="AD73" s="116"/>
-      <c r="AE73" s="75"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="90"/>
+      <c r="W73" s="90"/>
+      <c r="X73" s="90"/>
+      <c r="Y73" s="90"/>
+      <c r="Z73" s="90"/>
+      <c r="AA73" s="90"/>
+      <c r="AB73" s="90"/>
+      <c r="AC73" s="90"/>
+      <c r="AD73" s="118"/>
+      <c r="AE73" s="69"/>
       <c r="AF73" s="60"/>
       <c r="AG73" s="60"/>
       <c r="AH73" s="60"/>
       <c r="AI73" s="60"/>
-      <c r="AJ73" s="72"/>
-      <c r="AK73" s="75"/>
+      <c r="AJ73" s="71"/>
+      <c r="AK73" s="69"/>
       <c r="AL73" s="60"/>
       <c r="AM73" s="60"/>
       <c r="AN73" s="60"/>
-      <c r="AO73" s="72"/>
-      <c r="AP73" s="143"/>
-      <c r="AQ73" s="143"/>
-      <c r="AR73" s="143"/>
-      <c r="AS73" s="143"/>
-      <c r="AT73" s="143"/>
-      <c r="AU73" s="143"/>
-      <c r="AV73" s="143"/>
-      <c r="AW73" s="143"/>
-      <c r="AX73" s="143"/>
-      <c r="AY73" s="143"/>
-      <c r="AZ73" s="143"/>
-      <c r="BA73" s="143"/>
-      <c r="BB73" s="143"/>
-      <c r="BC73" s="143"/>
-      <c r="BD73" s="143"/>
-      <c r="BE73" s="143"/>
-      <c r="BF73" s="143"/>
-      <c r="BG73" s="143"/>
-      <c r="BH73" s="143"/>
-      <c r="BI73" s="143"/>
-      <c r="BJ73" s="143"/>
-      <c r="BK73" s="143"/>
-      <c r="BL73" s="143"/>
-      <c r="BM73" s="143"/>
-      <c r="BN73" s="143"/>
-      <c r="BO73" s="143"/>
-      <c r="BP73" s="143"/>
-      <c r="BQ73" s="143"/>
-      <c r="BR73" s="143"/>
-      <c r="BS73" s="143"/>
-      <c r="BT73" s="143"/>
-      <c r="BU73" s="143"/>
-      <c r="BV73" s="143"/>
-      <c r="BW73" s="143"/>
-      <c r="BX73" s="143"/>
-      <c r="BY73" s="143"/>
-      <c r="BZ73" s="143"/>
-      <c r="CA73" s="143"/>
-      <c r="CB73" s="143"/>
-      <c r="CC73" s="150"/>
+      <c r="AO73" s="71"/>
+      <c r="AP73" s="145"/>
+      <c r="AQ73" s="145"/>
+      <c r="AR73" s="145"/>
+      <c r="AS73" s="145"/>
+      <c r="AT73" s="145"/>
+      <c r="AU73" s="145"/>
+      <c r="AV73" s="145"/>
+      <c r="AW73" s="145"/>
+      <c r="AX73" s="145"/>
+      <c r="AY73" s="145"/>
+      <c r="AZ73" s="145"/>
+      <c r="BA73" s="145"/>
+      <c r="BB73" s="145"/>
+      <c r="BC73" s="145"/>
+      <c r="BD73" s="145"/>
+      <c r="BE73" s="145"/>
+      <c r="BF73" s="145"/>
+      <c r="BG73" s="145"/>
+      <c r="BH73" s="145"/>
+      <c r="BI73" s="145"/>
+      <c r="BJ73" s="145"/>
+      <c r="BK73" s="145"/>
+      <c r="BL73" s="145"/>
+      <c r="BM73" s="145"/>
+      <c r="BN73" s="145"/>
+      <c r="BO73" s="145"/>
+      <c r="BP73" s="145"/>
+      <c r="BQ73" s="145"/>
+      <c r="BR73" s="145"/>
+      <c r="BS73" s="145"/>
+      <c r="BT73" s="145"/>
+      <c r="BU73" s="145"/>
+      <c r="BV73" s="145"/>
+      <c r="BW73" s="145"/>
+      <c r="BX73" s="145"/>
+      <c r="BY73" s="145"/>
+      <c r="BZ73" s="145"/>
+      <c r="CA73" s="145"/>
+      <c r="CB73" s="145"/>
+      <c r="CC73" s="152"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="73" t="s">
         <v>66</v>
       </c>
       <c r="B74" s="60"/>
@@ -8247,174 +8250,174 @@
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
       <c r="F74" s="60"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="89"/>
-      <c r="L74" s="89"/>
-      <c r="M74" s="89"/>
-      <c r="N74" s="89"/>
-      <c r="O74" s="89"/>
-      <c r="P74" s="89"/>
-      <c r="Q74" s="89"/>
-      <c r="R74" s="89"/>
-      <c r="S74" s="89"/>
-      <c r="T74" s="89"/>
-      <c r="U74" s="89"/>
-      <c r="V74" s="89"/>
-      <c r="W74" s="89"/>
-      <c r="X74" s="89"/>
-      <c r="Y74" s="89"/>
-      <c r="Z74" s="89"/>
-      <c r="AA74" s="89"/>
-      <c r="AB74" s="89"/>
-      <c r="AC74" s="89"/>
-      <c r="AD74" s="116"/>
-      <c r="AE74" s="75"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="90"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="90"/>
+      <c r="R74" s="90"/>
+      <c r="S74" s="90"/>
+      <c r="T74" s="90"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="90"/>
+      <c r="W74" s="90"/>
+      <c r="X74" s="90"/>
+      <c r="Y74" s="90"/>
+      <c r="Z74" s="90"/>
+      <c r="AA74" s="90"/>
+      <c r="AB74" s="90"/>
+      <c r="AC74" s="90"/>
+      <c r="AD74" s="118"/>
+      <c r="AE74" s="69"/>
       <c r="AF74" s="60"/>
       <c r="AG74" s="60"/>
       <c r="AH74" s="60"/>
       <c r="AI74" s="60"/>
-      <c r="AJ74" s="72"/>
-      <c r="AK74" s="75"/>
+      <c r="AJ74" s="71"/>
+      <c r="AK74" s="69"/>
       <c r="AL74" s="60"/>
       <c r="AM74" s="60"/>
       <c r="AN74" s="60"/>
-      <c r="AO74" s="72"/>
-      <c r="AP74" s="143"/>
-      <c r="AQ74" s="143"/>
-      <c r="AR74" s="143"/>
-      <c r="AS74" s="143"/>
-      <c r="AT74" s="143"/>
-      <c r="AU74" s="143"/>
-      <c r="AV74" s="143"/>
-      <c r="AW74" s="143"/>
-      <c r="AX74" s="143"/>
-      <c r="AY74" s="143"/>
-      <c r="AZ74" s="143"/>
-      <c r="BA74" s="143"/>
-      <c r="BB74" s="143"/>
-      <c r="BC74" s="143"/>
-      <c r="BD74" s="143"/>
-      <c r="BE74" s="143"/>
-      <c r="BF74" s="143"/>
-      <c r="BG74" s="143"/>
-      <c r="BH74" s="143"/>
-      <c r="BI74" s="143"/>
-      <c r="BJ74" s="143"/>
-      <c r="BK74" s="143"/>
-      <c r="BL74" s="143"/>
-      <c r="BM74" s="143"/>
-      <c r="BN74" s="143"/>
-      <c r="BO74" s="143"/>
-      <c r="BP74" s="143"/>
-      <c r="BQ74" s="143"/>
-      <c r="BR74" s="143"/>
-      <c r="BS74" s="143"/>
-      <c r="BT74" s="143"/>
-      <c r="BU74" s="143"/>
-      <c r="BV74" s="143"/>
-      <c r="BW74" s="143"/>
-      <c r="BX74" s="143"/>
-      <c r="BY74" s="143"/>
-      <c r="BZ74" s="143"/>
-      <c r="CA74" s="143"/>
-      <c r="CB74" s="143"/>
-      <c r="CC74" s="150"/>
+      <c r="AO74" s="71"/>
+      <c r="AP74" s="145"/>
+      <c r="AQ74" s="145"/>
+      <c r="AR74" s="145"/>
+      <c r="AS74" s="145"/>
+      <c r="AT74" s="145"/>
+      <c r="AU74" s="145"/>
+      <c r="AV74" s="145"/>
+      <c r="AW74" s="145"/>
+      <c r="AX74" s="145"/>
+      <c r="AY74" s="145"/>
+      <c r="AZ74" s="145"/>
+      <c r="BA74" s="145"/>
+      <c r="BB74" s="145"/>
+      <c r="BC74" s="145"/>
+      <c r="BD74" s="145"/>
+      <c r="BE74" s="145"/>
+      <c r="BF74" s="145"/>
+      <c r="BG74" s="145"/>
+      <c r="BH74" s="145"/>
+      <c r="BI74" s="145"/>
+      <c r="BJ74" s="145"/>
+      <c r="BK74" s="145"/>
+      <c r="BL74" s="145"/>
+      <c r="BM74" s="145"/>
+      <c r="BN74" s="145"/>
+      <c r="BO74" s="145"/>
+      <c r="BP74" s="145"/>
+      <c r="BQ74" s="145"/>
+      <c r="BR74" s="145"/>
+      <c r="BS74" s="145"/>
+      <c r="BT74" s="145"/>
+      <c r="BU74" s="145"/>
+      <c r="BV74" s="145"/>
+      <c r="BW74" s="145"/>
+      <c r="BX74" s="145"/>
+      <c r="BY74" s="145"/>
+      <c r="BZ74" s="145"/>
+      <c r="CA74" s="145"/>
+      <c r="CB74" s="145"/>
+      <c r="CC74" s="152"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A75" s="75"/>
-      <c r="B75" s="76"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="60"/>
-      <c r="D75" s="76"/>
+      <c r="D75" s="74"/>
       <c r="E75" s="60"/>
       <c r="F75" s="60"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="89"/>
-      <c r="L75" s="89"/>
-      <c r="M75" s="89"/>
-      <c r="N75" s="89"/>
-      <c r="O75" s="89"/>
-      <c r="P75" s="89"/>
-      <c r="Q75" s="89"/>
-      <c r="R75" s="89"/>
-      <c r="S75" s="89"/>
-      <c r="T75" s="89"/>
-      <c r="U75" s="89"/>
-      <c r="V75" s="89"/>
-      <c r="W75" s="89"/>
-      <c r="X75" s="89"/>
-      <c r="Y75" s="89"/>
-      <c r="Z75" s="89"/>
-      <c r="AA75" s="89"/>
-      <c r="AB75" s="89"/>
-      <c r="AC75" s="89"/>
-      <c r="AD75" s="116"/>
-      <c r="AE75" s="75"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="90"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="90"/>
+      <c r="X75" s="90"/>
+      <c r="Y75" s="90"/>
+      <c r="Z75" s="90"/>
+      <c r="AA75" s="90"/>
+      <c r="AB75" s="90"/>
+      <c r="AC75" s="90"/>
+      <c r="AD75" s="118"/>
+      <c r="AE75" s="69"/>
       <c r="AF75" s="60"/>
       <c r="AG75" s="60"/>
       <c r="AH75" s="60"/>
       <c r="AI75" s="60"/>
-      <c r="AJ75" s="72"/>
-      <c r="AK75" s="75"/>
+      <c r="AJ75" s="71"/>
+      <c r="AK75" s="69"/>
       <c r="AL75" s="60"/>
       <c r="AM75" s="60"/>
       <c r="AN75" s="60"/>
-      <c r="AO75" s="72"/>
-      <c r="AP75" s="143"/>
-      <c r="AQ75" s="143"/>
-      <c r="AR75" s="143"/>
-      <c r="AS75" s="143"/>
-      <c r="AT75" s="143"/>
-      <c r="AU75" s="143"/>
-      <c r="AV75" s="143"/>
-      <c r="AW75" s="143"/>
-      <c r="AX75" s="143"/>
-      <c r="AY75" s="143"/>
-      <c r="AZ75" s="143"/>
-      <c r="BA75" s="143"/>
-      <c r="BB75" s="143"/>
-      <c r="BC75" s="143"/>
-      <c r="BD75" s="143"/>
-      <c r="BE75" s="143"/>
-      <c r="BF75" s="143"/>
-      <c r="BG75" s="143"/>
-      <c r="BH75" s="143"/>
-      <c r="BI75" s="143"/>
-      <c r="BJ75" s="143"/>
-      <c r="BK75" s="143"/>
-      <c r="BL75" s="143"/>
-      <c r="BM75" s="143"/>
-      <c r="BN75" s="143"/>
-      <c r="BO75" s="143"/>
-      <c r="BP75" s="143"/>
-      <c r="BQ75" s="143"/>
-      <c r="BR75" s="143"/>
-      <c r="BS75" s="143"/>
-      <c r="BT75" s="143"/>
-      <c r="BU75" s="143"/>
-      <c r="BV75" s="143"/>
-      <c r="BW75" s="143"/>
-      <c r="BX75" s="143"/>
-      <c r="BY75" s="143"/>
-      <c r="BZ75" s="143"/>
-      <c r="CA75" s="143"/>
-      <c r="CB75" s="143"/>
-      <c r="CC75" s="150"/>
+      <c r="AO75" s="71"/>
+      <c r="AP75" s="145"/>
+      <c r="AQ75" s="145"/>
+      <c r="AR75" s="145"/>
+      <c r="AS75" s="145"/>
+      <c r="AT75" s="145"/>
+      <c r="AU75" s="145"/>
+      <c r="AV75" s="145"/>
+      <c r="AW75" s="145"/>
+      <c r="AX75" s="145"/>
+      <c r="AY75" s="145"/>
+      <c r="AZ75" s="145"/>
+      <c r="BA75" s="145"/>
+      <c r="BB75" s="145"/>
+      <c r="BC75" s="145"/>
+      <c r="BD75" s="145"/>
+      <c r="BE75" s="145"/>
+      <c r="BF75" s="145"/>
+      <c r="BG75" s="145"/>
+      <c r="BH75" s="145"/>
+      <c r="BI75" s="145"/>
+      <c r="BJ75" s="145"/>
+      <c r="BK75" s="145"/>
+      <c r="BL75" s="145"/>
+      <c r="BM75" s="145"/>
+      <c r="BN75" s="145"/>
+      <c r="BO75" s="145"/>
+      <c r="BP75" s="145"/>
+      <c r="BQ75" s="145"/>
+      <c r="BR75" s="145"/>
+      <c r="BS75" s="145"/>
+      <c r="BT75" s="145"/>
+      <c r="BU75" s="145"/>
+      <c r="BV75" s="145"/>
+      <c r="BW75" s="145"/>
+      <c r="BX75" s="145"/>
+      <c r="BY75" s="145"/>
+      <c r="BZ75" s="145"/>
+      <c r="CA75" s="145"/>
+      <c r="CB75" s="145"/>
+      <c r="CC75" s="152"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A76" s="75"/>
+      <c r="A76" s="69"/>
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
       <c r="D76" s="60"/>
       <c r="E76" s="60"/>
       <c r="F76" s="60"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="75" t="s">
+      <c r="G76" s="71"/>
+      <c r="H76" s="69" t="s">
         <v>47</v>
       </c>
       <c r="I76" s="60"/>
@@ -8438,68 +8441,68 @@
       <c r="AA76" s="60"/>
       <c r="AB76" s="60"/>
       <c r="AC76" s="60"/>
-      <c r="AD76" s="72"/>
-      <c r="AE76" s="75"/>
+      <c r="AD76" s="71"/>
+      <c r="AE76" s="69"/>
       <c r="AF76" s="60"/>
       <c r="AG76" s="60"/>
       <c r="AH76" s="60"/>
       <c r="AI76" s="60"/>
-      <c r="AJ76" s="72"/>
-      <c r="AK76" s="75"/>
+      <c r="AJ76" s="71"/>
+      <c r="AK76" s="69"/>
       <c r="AL76" s="60"/>
       <c r="AM76" s="60"/>
       <c r="AN76" s="60"/>
-      <c r="AO76" s="72"/>
-      <c r="AP76" s="143"/>
-      <c r="AQ76" s="143"/>
-      <c r="AR76" s="143"/>
-      <c r="AS76" s="143"/>
-      <c r="AT76" s="143"/>
-      <c r="AU76" s="143"/>
-      <c r="AV76" s="143"/>
-      <c r="AW76" s="143"/>
-      <c r="AX76" s="143"/>
-      <c r="AY76" s="143"/>
-      <c r="AZ76" s="143"/>
-      <c r="BA76" s="143"/>
-      <c r="BB76" s="143"/>
-      <c r="BC76" s="143"/>
-      <c r="BD76" s="143"/>
-      <c r="BE76" s="143"/>
-      <c r="BF76" s="143"/>
-      <c r="BG76" s="143"/>
-      <c r="BH76" s="143"/>
-      <c r="BI76" s="143"/>
-      <c r="BJ76" s="143"/>
-      <c r="BK76" s="143"/>
-      <c r="BL76" s="143"/>
-      <c r="BM76" s="143"/>
-      <c r="BN76" s="143"/>
-      <c r="BO76" s="143"/>
-      <c r="BP76" s="143"/>
-      <c r="BQ76" s="143"/>
-      <c r="BR76" s="143"/>
-      <c r="BS76" s="143"/>
-      <c r="BT76" s="143"/>
-      <c r="BU76" s="143"/>
-      <c r="BV76" s="143"/>
-      <c r="BW76" s="143"/>
-      <c r="BX76" s="143"/>
-      <c r="BY76" s="143"/>
-      <c r="BZ76" s="143"/>
-      <c r="CA76" s="143"/>
-      <c r="CB76" s="143"/>
-      <c r="CC76" s="150"/>
+      <c r="AO76" s="71"/>
+      <c r="AP76" s="145"/>
+      <c r="AQ76" s="145"/>
+      <c r="AR76" s="145"/>
+      <c r="AS76" s="145"/>
+      <c r="AT76" s="145"/>
+      <c r="AU76" s="145"/>
+      <c r="AV76" s="145"/>
+      <c r="AW76" s="145"/>
+      <c r="AX76" s="145"/>
+      <c r="AY76" s="145"/>
+      <c r="AZ76" s="145"/>
+      <c r="BA76" s="145"/>
+      <c r="BB76" s="145"/>
+      <c r="BC76" s="145"/>
+      <c r="BD76" s="145"/>
+      <c r="BE76" s="145"/>
+      <c r="BF76" s="145"/>
+      <c r="BG76" s="145"/>
+      <c r="BH76" s="145"/>
+      <c r="BI76" s="145"/>
+      <c r="BJ76" s="145"/>
+      <c r="BK76" s="145"/>
+      <c r="BL76" s="145"/>
+      <c r="BM76" s="145"/>
+      <c r="BN76" s="145"/>
+      <c r="BO76" s="145"/>
+      <c r="BP76" s="145"/>
+      <c r="BQ76" s="145"/>
+      <c r="BR76" s="145"/>
+      <c r="BS76" s="145"/>
+      <c r="BT76" s="145"/>
+      <c r="BU76" s="145"/>
+      <c r="BV76" s="145"/>
+      <c r="BW76" s="145"/>
+      <c r="BX76" s="145"/>
+      <c r="BY76" s="145"/>
+      <c r="BZ76" s="145"/>
+      <c r="CA76" s="145"/>
+      <c r="CB76" s="145"/>
+      <c r="CC76" s="152"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A77" s="75"/>
+      <c r="A77" s="69"/>
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
       <c r="D77" s="60"/>
       <c r="E77" s="60"/>
       <c r="F77" s="60"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="152" t="s">
+      <c r="G77" s="71"/>
+      <c r="H77" s="153" t="s">
         <v>67</v>
       </c>
       <c r="I77" s="60"/>
@@ -8523,68 +8526,68 @@
       <c r="AA77" s="60"/>
       <c r="AB77" s="60"/>
       <c r="AC77" s="60"/>
-      <c r="AD77" s="72"/>
-      <c r="AE77" s="75"/>
+      <c r="AD77" s="71"/>
+      <c r="AE77" s="69"/>
       <c r="AF77" s="60"/>
       <c r="AG77" s="60"/>
       <c r="AH77" s="60"/>
       <c r="AI77" s="60"/>
-      <c r="AJ77" s="72"/>
-      <c r="AK77" s="75"/>
+      <c r="AJ77" s="71"/>
+      <c r="AK77" s="69"/>
       <c r="AL77" s="60"/>
       <c r="AM77" s="60"/>
       <c r="AN77" s="60"/>
-      <c r="AO77" s="72"/>
-      <c r="AP77" s="143"/>
-      <c r="AQ77" s="143"/>
-      <c r="AR77" s="143"/>
-      <c r="AS77" s="143"/>
-      <c r="AT77" s="143"/>
-      <c r="AU77" s="143"/>
-      <c r="AV77" s="143"/>
-      <c r="AW77" s="143"/>
-      <c r="AX77" s="143"/>
-      <c r="AY77" s="143"/>
-      <c r="AZ77" s="143"/>
-      <c r="BA77" s="143"/>
-      <c r="BB77" s="143"/>
-      <c r="BC77" s="143"/>
-      <c r="BD77" s="143"/>
-      <c r="BE77" s="143"/>
-      <c r="BF77" s="143"/>
-      <c r="BG77" s="143"/>
-      <c r="BH77" s="143"/>
-      <c r="BI77" s="143"/>
-      <c r="BJ77" s="143"/>
-      <c r="BK77" s="143"/>
-      <c r="BL77" s="143"/>
-      <c r="BM77" s="143"/>
-      <c r="BN77" s="143"/>
-      <c r="BO77" s="143"/>
-      <c r="BP77" s="143"/>
-      <c r="BQ77" s="143"/>
-      <c r="BR77" s="143"/>
-      <c r="BS77" s="143"/>
-      <c r="BT77" s="143"/>
-      <c r="BU77" s="143"/>
-      <c r="BV77" s="143"/>
-      <c r="BW77" s="143"/>
-      <c r="BX77" s="143"/>
-      <c r="BY77" s="143"/>
-      <c r="BZ77" s="143"/>
-      <c r="CA77" s="143"/>
-      <c r="CB77" s="143"/>
-      <c r="CC77" s="150"/>
+      <c r="AO77" s="71"/>
+      <c r="AP77" s="145"/>
+      <c r="AQ77" s="145"/>
+      <c r="AR77" s="145"/>
+      <c r="AS77" s="145"/>
+      <c r="AT77" s="145"/>
+      <c r="AU77" s="145"/>
+      <c r="AV77" s="145"/>
+      <c r="AW77" s="145"/>
+      <c r="AX77" s="145"/>
+      <c r="AY77" s="145"/>
+      <c r="AZ77" s="145"/>
+      <c r="BA77" s="145"/>
+      <c r="BB77" s="145"/>
+      <c r="BC77" s="145"/>
+      <c r="BD77" s="145"/>
+      <c r="BE77" s="145"/>
+      <c r="BF77" s="145"/>
+      <c r="BG77" s="145"/>
+      <c r="BH77" s="145"/>
+      <c r="BI77" s="145"/>
+      <c r="BJ77" s="145"/>
+      <c r="BK77" s="145"/>
+      <c r="BL77" s="145"/>
+      <c r="BM77" s="145"/>
+      <c r="BN77" s="145"/>
+      <c r="BO77" s="145"/>
+      <c r="BP77" s="145"/>
+      <c r="BQ77" s="145"/>
+      <c r="BR77" s="145"/>
+      <c r="BS77" s="145"/>
+      <c r="BT77" s="145"/>
+      <c r="BU77" s="145"/>
+      <c r="BV77" s="145"/>
+      <c r="BW77" s="145"/>
+      <c r="BX77" s="145"/>
+      <c r="BY77" s="145"/>
+      <c r="BZ77" s="145"/>
+      <c r="CA77" s="145"/>
+      <c r="CB77" s="145"/>
+      <c r="CC77" s="152"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A78" s="75"/>
+      <c r="A78" s="69"/>
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
       <c r="D78" s="60"/>
       <c r="E78" s="60"/>
       <c r="F78" s="60"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="75"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="69"/>
       <c r="I78" s="60"/>
       <c r="J78" s="60"/>
       <c r="K78" s="60"/>
@@ -8606,68 +8609,68 @@
       <c r="AA78" s="60"/>
       <c r="AB78" s="60"/>
       <c r="AC78" s="60"/>
-      <c r="AD78" s="72"/>
-      <c r="AE78" s="75"/>
+      <c r="AD78" s="71"/>
+      <c r="AE78" s="69"/>
       <c r="AF78" s="60"/>
       <c r="AG78" s="60"/>
       <c r="AH78" s="60"/>
       <c r="AI78" s="60"/>
-      <c r="AJ78" s="72"/>
-      <c r="AK78" s="75"/>
+      <c r="AJ78" s="71"/>
+      <c r="AK78" s="69"/>
       <c r="AL78" s="60"/>
       <c r="AM78" s="60"/>
       <c r="AN78" s="60"/>
-      <c r="AO78" s="72"/>
-      <c r="AP78" s="143"/>
-      <c r="AQ78" s="143"/>
-      <c r="AR78" s="143"/>
-      <c r="AS78" s="143"/>
-      <c r="AT78" s="143"/>
-      <c r="AU78" s="143"/>
-      <c r="AV78" s="143"/>
-      <c r="AW78" s="143"/>
-      <c r="AX78" s="143"/>
-      <c r="AY78" s="143"/>
-      <c r="AZ78" s="143"/>
-      <c r="BA78" s="143"/>
-      <c r="BB78" s="143"/>
-      <c r="BC78" s="143"/>
-      <c r="BD78" s="143"/>
-      <c r="BE78" s="143"/>
-      <c r="BF78" s="143"/>
-      <c r="BG78" s="143"/>
-      <c r="BH78" s="143"/>
-      <c r="BI78" s="143"/>
-      <c r="BJ78" s="143"/>
-      <c r="BK78" s="143"/>
-      <c r="BL78" s="143"/>
-      <c r="BM78" s="143"/>
-      <c r="BN78" s="143"/>
-      <c r="BO78" s="143"/>
-      <c r="BP78" s="143"/>
-      <c r="BQ78" s="143"/>
-      <c r="BR78" s="143"/>
-      <c r="BS78" s="143"/>
-      <c r="BT78" s="143"/>
-      <c r="BU78" s="143"/>
-      <c r="BV78" s="143"/>
-      <c r="BW78" s="143"/>
-      <c r="BX78" s="143"/>
-      <c r="BY78" s="143"/>
-      <c r="BZ78" s="143"/>
-      <c r="CA78" s="143"/>
-      <c r="CB78" s="143"/>
-      <c r="CC78" s="150"/>
+      <c r="AO78" s="71"/>
+      <c r="AP78" s="145"/>
+      <c r="AQ78" s="145"/>
+      <c r="AR78" s="145"/>
+      <c r="AS78" s="145"/>
+      <c r="AT78" s="145"/>
+      <c r="AU78" s="145"/>
+      <c r="AV78" s="145"/>
+      <c r="AW78" s="145"/>
+      <c r="AX78" s="145"/>
+      <c r="AY78" s="145"/>
+      <c r="AZ78" s="145"/>
+      <c r="BA78" s="145"/>
+      <c r="BB78" s="145"/>
+      <c r="BC78" s="145"/>
+      <c r="BD78" s="145"/>
+      <c r="BE78" s="145"/>
+      <c r="BF78" s="145"/>
+      <c r="BG78" s="145"/>
+      <c r="BH78" s="145"/>
+      <c r="BI78" s="145"/>
+      <c r="BJ78" s="145"/>
+      <c r="BK78" s="145"/>
+      <c r="BL78" s="145"/>
+      <c r="BM78" s="145"/>
+      <c r="BN78" s="145"/>
+      <c r="BO78" s="145"/>
+      <c r="BP78" s="145"/>
+      <c r="BQ78" s="145"/>
+      <c r="BR78" s="145"/>
+      <c r="BS78" s="145"/>
+      <c r="BT78" s="145"/>
+      <c r="BU78" s="145"/>
+      <c r="BV78" s="145"/>
+      <c r="BW78" s="145"/>
+      <c r="BX78" s="145"/>
+      <c r="BY78" s="145"/>
+      <c r="BZ78" s="145"/>
+      <c r="CA78" s="145"/>
+      <c r="CB78" s="145"/>
+      <c r="CC78" s="152"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A79" s="75"/>
+      <c r="A79" s="69"/>
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
       <c r="F79" s="60"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="75"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="69"/>
       <c r="I79" s="60"/>
       <c r="J79" s="60"/>
       <c r="K79" s="60"/>
@@ -8689,144 +8692,144 @@
       <c r="AA79" s="60"/>
       <c r="AB79" s="60"/>
       <c r="AC79" s="60"/>
-      <c r="AD79" s="72"/>
-      <c r="AE79" s="75"/>
+      <c r="AD79" s="71"/>
+      <c r="AE79" s="69"/>
       <c r="AF79" s="60"/>
       <c r="AG79" s="60"/>
       <c r="AH79" s="60"/>
       <c r="AI79" s="60"/>
-      <c r="AJ79" s="72"/>
-      <c r="AK79" s="75"/>
+      <c r="AJ79" s="71"/>
+      <c r="AK79" s="69"/>
       <c r="AL79" s="60"/>
       <c r="AM79" s="60"/>
       <c r="AN79" s="60"/>
-      <c r="AO79" s="72"/>
-      <c r="AP79" s="143"/>
-      <c r="AQ79" s="143"/>
-      <c r="AR79" s="143"/>
-      <c r="AS79" s="143"/>
-      <c r="AT79" s="143"/>
-      <c r="AU79" s="143"/>
-      <c r="AV79" s="143"/>
-      <c r="AW79" s="143"/>
-      <c r="AX79" s="143"/>
-      <c r="AY79" s="143"/>
-      <c r="AZ79" s="143"/>
-      <c r="BA79" s="143"/>
-      <c r="BB79" s="143"/>
-      <c r="BC79" s="143"/>
-      <c r="BD79" s="143"/>
-      <c r="BE79" s="143"/>
-      <c r="BF79" s="143"/>
-      <c r="BG79" s="143"/>
-      <c r="BH79" s="143"/>
-      <c r="BI79" s="143"/>
-      <c r="BJ79" s="143"/>
-      <c r="BK79" s="143"/>
-      <c r="BL79" s="143"/>
-      <c r="BM79" s="143"/>
-      <c r="BN79" s="143"/>
-      <c r="BO79" s="143"/>
-      <c r="BP79" s="143"/>
-      <c r="BQ79" s="143"/>
-      <c r="BR79" s="143"/>
-      <c r="BS79" s="143"/>
-      <c r="BT79" s="143"/>
-      <c r="BU79" s="143"/>
-      <c r="BV79" s="143"/>
-      <c r="BW79" s="143"/>
-      <c r="BX79" s="143"/>
-      <c r="BY79" s="143"/>
-      <c r="BZ79" s="143"/>
-      <c r="CA79" s="143"/>
-      <c r="CB79" s="143"/>
-      <c r="CC79" s="150"/>
+      <c r="AO79" s="71"/>
+      <c r="AP79" s="145"/>
+      <c r="AQ79" s="145"/>
+      <c r="AR79" s="145"/>
+      <c r="AS79" s="145"/>
+      <c r="AT79" s="145"/>
+      <c r="AU79" s="145"/>
+      <c r="AV79" s="145"/>
+      <c r="AW79" s="145"/>
+      <c r="AX79" s="145"/>
+      <c r="AY79" s="145"/>
+      <c r="AZ79" s="145"/>
+      <c r="BA79" s="145"/>
+      <c r="BB79" s="145"/>
+      <c r="BC79" s="145"/>
+      <c r="BD79" s="145"/>
+      <c r="BE79" s="145"/>
+      <c r="BF79" s="145"/>
+      <c r="BG79" s="145"/>
+      <c r="BH79" s="145"/>
+      <c r="BI79" s="145"/>
+      <c r="BJ79" s="145"/>
+      <c r="BK79" s="145"/>
+      <c r="BL79" s="145"/>
+      <c r="BM79" s="145"/>
+      <c r="BN79" s="145"/>
+      <c r="BO79" s="145"/>
+      <c r="BP79" s="145"/>
+      <c r="BQ79" s="145"/>
+      <c r="BR79" s="145"/>
+      <c r="BS79" s="145"/>
+      <c r="BT79" s="145"/>
+      <c r="BU79" s="145"/>
+      <c r="BV79" s="145"/>
+      <c r="BW79" s="145"/>
+      <c r="BX79" s="145"/>
+      <c r="BY79" s="145"/>
+      <c r="BZ79" s="145"/>
+      <c r="CA79" s="145"/>
+      <c r="CB79" s="145"/>
+      <c r="CC79" s="152"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A80" s="77"/>
-      <c r="B80" s="151"/>
-      <c r="C80" s="151"/>
-      <c r="D80" s="151"/>
-      <c r="E80" s="151"/>
-      <c r="F80" s="151"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
-      <c r="K80" s="90"/>
-      <c r="L80" s="90"/>
-      <c r="M80" s="90"/>
-      <c r="N80" s="90"/>
-      <c r="O80" s="90"/>
-      <c r="P80" s="90"/>
-      <c r="Q80" s="90"/>
-      <c r="R80" s="90"/>
-      <c r="S80" s="90"/>
-      <c r="T80" s="90"/>
-      <c r="U80" s="90"/>
-      <c r="V80" s="90"/>
-      <c r="W80" s="90"/>
-      <c r="X80" s="90"/>
-      <c r="Y80" s="90"/>
-      <c r="Z80" s="90"/>
-      <c r="AA80" s="90"/>
-      <c r="AB80" s="90"/>
-      <c r="AC80" s="90"/>
-      <c r="AD80" s="117"/>
-      <c r="AE80" s="77"/>
-      <c r="AF80" s="90"/>
-      <c r="AG80" s="90"/>
-      <c r="AH80" s="90"/>
-      <c r="AI80" s="90"/>
-      <c r="AJ80" s="117"/>
-      <c r="AK80" s="77"/>
-      <c r="AL80" s="90"/>
-      <c r="AM80" s="90"/>
-      <c r="AN80" s="90"/>
-      <c r="AO80" s="117"/>
-      <c r="AP80" s="143"/>
-      <c r="AQ80" s="143"/>
-      <c r="AR80" s="143"/>
-      <c r="AS80" s="143"/>
-      <c r="AT80" s="143"/>
-      <c r="AU80" s="143"/>
-      <c r="AV80" s="143"/>
-      <c r="AW80" s="143"/>
-      <c r="AX80" s="143"/>
-      <c r="AY80" s="143"/>
-      <c r="AZ80" s="143"/>
-      <c r="BA80" s="143"/>
-      <c r="BB80" s="143"/>
-      <c r="BC80" s="143"/>
-      <c r="BD80" s="143"/>
-      <c r="BE80" s="143"/>
-      <c r="BF80" s="143"/>
-      <c r="BG80" s="143"/>
-      <c r="BH80" s="143"/>
-      <c r="BI80" s="143"/>
-      <c r="BJ80" s="143"/>
-      <c r="BK80" s="143"/>
-      <c r="BL80" s="143"/>
-      <c r="BM80" s="143"/>
-      <c r="BN80" s="143"/>
-      <c r="BO80" s="143"/>
-      <c r="BP80" s="143"/>
-      <c r="BQ80" s="143"/>
-      <c r="BR80" s="143"/>
-      <c r="BS80" s="143"/>
-      <c r="BT80" s="143"/>
-      <c r="BU80" s="143"/>
-      <c r="BV80" s="143"/>
-      <c r="BW80" s="143"/>
-      <c r="BX80" s="143"/>
-      <c r="BY80" s="143"/>
-      <c r="BZ80" s="143"/>
-      <c r="CA80" s="143"/>
-      <c r="CB80" s="143"/>
-      <c r="CC80" s="150"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="119"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
+      <c r="N80" s="91"/>
+      <c r="O80" s="91"/>
+      <c r="P80" s="91"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="91"/>
+      <c r="T80" s="91"/>
+      <c r="U80" s="91"/>
+      <c r="V80" s="91"/>
+      <c r="W80" s="91"/>
+      <c r="X80" s="91"/>
+      <c r="Y80" s="91"/>
+      <c r="Z80" s="91"/>
+      <c r="AA80" s="91"/>
+      <c r="AB80" s="91"/>
+      <c r="AC80" s="91"/>
+      <c r="AD80" s="119"/>
+      <c r="AE80" s="75"/>
+      <c r="AF80" s="91"/>
+      <c r="AG80" s="91"/>
+      <c r="AH80" s="91"/>
+      <c r="AI80" s="91"/>
+      <c r="AJ80" s="119"/>
+      <c r="AK80" s="75"/>
+      <c r="AL80" s="91"/>
+      <c r="AM80" s="91"/>
+      <c r="AN80" s="91"/>
+      <c r="AO80" s="119"/>
+      <c r="AP80" s="145"/>
+      <c r="AQ80" s="145"/>
+      <c r="AR80" s="145"/>
+      <c r="AS80" s="145"/>
+      <c r="AT80" s="145"/>
+      <c r="AU80" s="145"/>
+      <c r="AV80" s="145"/>
+      <c r="AW80" s="145"/>
+      <c r="AX80" s="145"/>
+      <c r="AY80" s="145"/>
+      <c r="AZ80" s="145"/>
+      <c r="BA80" s="145"/>
+      <c r="BB80" s="145"/>
+      <c r="BC80" s="145"/>
+      <c r="BD80" s="145"/>
+      <c r="BE80" s="145"/>
+      <c r="BF80" s="145"/>
+      <c r="BG80" s="145"/>
+      <c r="BH80" s="145"/>
+      <c r="BI80" s="145"/>
+      <c r="BJ80" s="145"/>
+      <c r="BK80" s="145"/>
+      <c r="BL80" s="145"/>
+      <c r="BM80" s="145"/>
+      <c r="BN80" s="145"/>
+      <c r="BO80" s="145"/>
+      <c r="BP80" s="145"/>
+      <c r="BQ80" s="145"/>
+      <c r="BR80" s="145"/>
+      <c r="BS80" s="145"/>
+      <c r="BT80" s="145"/>
+      <c r="BU80" s="145"/>
+      <c r="BV80" s="145"/>
+      <c r="BW80" s="145"/>
+      <c r="BX80" s="145"/>
+      <c r="BY80" s="145"/>
+      <c r="BZ80" s="145"/>
+      <c r="CA80" s="145"/>
+      <c r="CB80" s="145"/>
+      <c r="CC80" s="152"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="119">
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="A7:G7"/>
@@ -8910,6 +8913,7 @@
     <mergeCell ref="AE35:AJ35"/>
     <mergeCell ref="AK35:AO35"/>
     <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="A54:B54"/>
@@ -8947,10 +8951,10 @@
     <mergeCell ref="AK63:AO71"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7 D17:E17 W17:X17 A45:B45 E45:F45 A63:B63 E63:F63 K19:L20 D19:E23 A36:B37 A54:B55 A72:B73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7 D17:E17 W17:X17 A36:B36 D36:E36 B37 A45:B45 E45:F45 A63:B63 E63:F63 K19:L20 D19:E23 A54:B55 A72:B73">
       <formula1>"1985,1986,1987,1988,1989,1990,1991,1992,1993,1994,1995,1996,1997,1998,1999,2000,2001,2002,2003,2004,2005,2006,2007,2008,2009,2010,2011,2012,2013,2014,2015,2016,2017,2018,2019,2020,2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7 Z10 G17 Z17 B39 D39 D46 B48 D48 B57 D57 D64 B66 D66 B75 D75 D36:D37 D54:D55 D72:D73 G19:G20 N19:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7 Z10 G17 Z17 D37 B39 D39 D46 B48 D48 B57 D57 D64 B66 D66 B75 D75 D54:D55 D72:D73 G19:G20 N19:N20">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7 AB10">

--- a/assets/img/CV_for_Dev_Bui_Gia_Hung_(en).xlsx
+++ b/assets/img/CV_for_Dev_Bui_Gia_Hung_(en).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>CV &amp; Skill sheet</t>
   </si>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:CC80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21904761904762" defaultRowHeight="15"/>
@@ -6531,9 +6531,7 @@
       </c>
       <c r="D54" s="66"/>
       <c r="E54" s="62"/>
-      <c r="F54" s="76" t="s">
-        <v>39</v>
-      </c>
+      <c r="F54" s="76"/>
       <c r="G54" s="67"/>
       <c r="H54" s="68" t="s">
         <v>41</v>
@@ -8062,17 +8060,17 @@
       <c r="CC71" s="152"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:81">
-      <c r="A72" s="65">
-        <v>2023</v>
+      <c r="A72" s="65" t="s">
+        <v>39</v>
       </c>
       <c r="B72" s="66"/>
-      <c r="C72" s="62" t="s">
+      <c r="C72" s="62"/>
+      <c r="D72" s="66">
+        <v>2022</v>
+      </c>
+      <c r="E72" s="66"/>
+      <c r="F72" s="62" t="s">
         <v>40</v>
-      </c>
-      <c r="D72" s="66"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="76" t="s">
-        <v>39</v>
       </c>
       <c r="G72" s="67"/>
       <c r="H72" s="68" t="s">
@@ -8829,7 +8827,7 @@
       <c r="CC80" s="152"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="120">
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="A7:G7"/>
@@ -8920,6 +8918,7 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
     <mergeCell ref="A21:C23"/>
     <mergeCell ref="A18:C20"/>
     <mergeCell ref="G1:AG5"/>
@@ -8951,10 +8950,10 @@
     <mergeCell ref="AK63:AO71"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7 D17:E17 W17:X17 A36:B36 D36:E36 B37 A45:B45 E45:F45 A63:B63 E63:F63 K19:L20 D19:E23 A54:B55 A72:B73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7 D17:E17 W17:X17 A36:B36 D36:E36 B37 A45:B45 E45:F45 A63:B63 E63:F63 D72:E72 A54:B55 A72:B73 D19:E23 K19:L20">
       <formula1>"1985,1986,1987,1988,1989,1990,1991,1992,1993,1994,1995,1996,1997,1998,1999,2000,2001,2002,2003,2004,2005,2006,2007,2008,2009,2010,2011,2012,2013,2014,2015,2016,2017,2018,2019,2020,2021,2022,2023,2024,2025,2026,2027,2028,2029,2030"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7 Z10 G17 Z17 D37 B39 D39 D46 B48 D48 B57 D57 D64 B66 D66 B75 D75 D54:D55 D72:D73 G19:G20 N19:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7 Z10 G17 Z17 D37 B39 D39 D46 B48 D48 B57 D57 D64 B66 D66 D73 B75 D75 D54:D55 G19:G20 N19:N20">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ7 AB10">
